--- a/USA MLS/USA MLS.xlsx
+++ b/USA MLS/USA MLS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -558,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC532"/>
+  <dimension ref="A1:AC524"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -46846,7 +46846,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>7630816</v>
+        <v>7630820</v>
       </c>
       <c r="C521" t="s">
         <v>28</v>
@@ -46855,49 +46855,49 @@
         <v>28</v>
       </c>
       <c r="E521" s="2">
-        <v>45346.89583333334</v>
+        <v>45347.02083333334</v>
       </c>
       <c r="F521" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G521" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K521">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L521">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M521">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N521">
-        <v>1.55</v>
+        <v>1.727</v>
       </c>
       <c r="O521">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P521">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q521">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R521">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S521">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T521">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U521">
+        <v>2.025</v>
+      </c>
+      <c r="V521">
         <v>1.825</v>
-      </c>
-      <c r="V521">
-        <v>2.025</v>
       </c>
       <c r="W521">
         <v>0</v>
@@ -46920,7 +46920,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>7630814</v>
+        <v>7630821</v>
       </c>
       <c r="C522" t="s">
         <v>28</v>
@@ -46929,49 +46929,49 @@
         <v>28</v>
       </c>
       <c r="E522" s="2">
-        <v>45346.89583333334</v>
+        <v>45347.6875</v>
       </c>
       <c r="F522" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G522" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K522">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L522">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M522">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N522">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O522">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P522">
+        <v>8</v>
+      </c>
+      <c r="Q522">
+        <v>-1.25</v>
+      </c>
+      <c r="R522">
+        <v>1.85</v>
+      </c>
+      <c r="S522">
+        <v>2</v>
+      </c>
+      <c r="T522">
         <v>3</v>
       </c>
-      <c r="Q522">
-        <v>-0.25</v>
-      </c>
-      <c r="R522">
+      <c r="U522">
+        <v>1.825</v>
+      </c>
+      <c r="V522">
         <v>2.025</v>
-      </c>
-      <c r="S522">
-        <v>1.825</v>
-      </c>
-      <c r="T522">
-        <v>2.25</v>
-      </c>
-      <c r="U522">
-        <v>1.975</v>
-      </c>
-      <c r="V522">
-        <v>1.875</v>
       </c>
       <c r="W522">
         <v>0</v>
@@ -46994,7 +46994,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>7629920</v>
+        <v>7630822</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -47003,49 +47003,49 @@
         <v>28</v>
       </c>
       <c r="E523" s="2">
-        <v>45346.89583333334</v>
+        <v>45347.79166666666</v>
       </c>
       <c r="F523" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G523" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K523">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="L523">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="M523">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="N523">
+        <v>2.45</v>
+      </c>
+      <c r="O523">
+        <v>3.3</v>
+      </c>
+      <c r="P523">
+        <v>2.9</v>
+      </c>
+      <c r="Q523">
+        <v>0</v>
+      </c>
+      <c r="R523">
+        <v>1.75</v>
+      </c>
+      <c r="S523">
+        <v>2.125</v>
+      </c>
+      <c r="T523">
+        <v>2.25</v>
+      </c>
+      <c r="U523">
+        <v>2.05</v>
+      </c>
+      <c r="V523">
         <v>1.8</v>
-      </c>
-      <c r="O523">
-        <v>3.8</v>
-      </c>
-      <c r="P523">
-        <v>4.2</v>
-      </c>
-      <c r="Q523">
-        <v>-0.5</v>
-      </c>
-      <c r="R523">
-        <v>1.825</v>
-      </c>
-      <c r="S523">
-        <v>2.025</v>
-      </c>
-      <c r="T523">
-        <v>2.75</v>
-      </c>
-      <c r="U523">
-        <v>1.925</v>
-      </c>
-      <c r="V523">
-        <v>1.925</v>
       </c>
       <c r="W523">
         <v>0</v>
@@ -47068,7 +47068,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>7630815</v>
+        <v>7629922</v>
       </c>
       <c r="C524" t="s">
         <v>28</v>
@@ -47077,34 +47077,34 @@
         <v>28</v>
       </c>
       <c r="E524" s="2">
-        <v>45346.89583333334</v>
+        <v>45347.95833333334</v>
       </c>
       <c r="F524" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G524" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K524">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L524">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M524">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N524">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="O524">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P524">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q524">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R524">
         <v>2.05</v>
@@ -47113,13 +47113,13 @@
         <v>1.8</v>
       </c>
       <c r="T524">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U524">
+        <v>1.975</v>
+      </c>
+      <c r="V524">
         <v>1.875</v>
-      </c>
-      <c r="V524">
-        <v>1.975</v>
       </c>
       <c r="W524">
         <v>0</v>
@@ -47134,598 +47134,6 @@
         <v>0</v>
       </c>
       <c r="AA524">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525" spans="1:29">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
-        <v>7630819</v>
-      </c>
-      <c r="C525" t="s">
-        <v>28</v>
-      </c>
-      <c r="D525" t="s">
-        <v>28</v>
-      </c>
-      <c r="E525" s="2">
-        <v>45346.9375</v>
-      </c>
-      <c r="F525" t="s">
-        <v>46</v>
-      </c>
-      <c r="G525" t="s">
-        <v>54</v>
-      </c>
-      <c r="K525">
-        <v>2.1</v>
-      </c>
-      <c r="L525">
-        <v>3.6</v>
-      </c>
-      <c r="M525">
-        <v>3.25</v>
-      </c>
-      <c r="N525">
-        <v>1.909</v>
-      </c>
-      <c r="O525">
-        <v>3.8</v>
-      </c>
-      <c r="P525">
-        <v>3.5</v>
-      </c>
-      <c r="Q525">
-        <v>-0.5</v>
-      </c>
-      <c r="R525">
-        <v>1.975</v>
-      </c>
-      <c r="S525">
-        <v>1.875</v>
-      </c>
-      <c r="T525">
-        <v>2.75</v>
-      </c>
-      <c r="U525">
-        <v>1.825</v>
-      </c>
-      <c r="V525">
-        <v>2.025</v>
-      </c>
-      <c r="W525">
-        <v>0</v>
-      </c>
-      <c r="X525">
-        <v>0</v>
-      </c>
-      <c r="Y525">
-        <v>0</v>
-      </c>
-      <c r="Z525">
-        <v>0</v>
-      </c>
-      <c r="AA525">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526" spans="1:29">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="B526">
-        <v>7630817</v>
-      </c>
-      <c r="C526" t="s">
-        <v>28</v>
-      </c>
-      <c r="D526" t="s">
-        <v>28</v>
-      </c>
-      <c r="E526" s="2">
-        <v>45346.9375</v>
-      </c>
-      <c r="F526" t="s">
-        <v>37</v>
-      </c>
-      <c r="G526" t="s">
-        <v>52</v>
-      </c>
-      <c r="K526">
-        <v>2.1</v>
-      </c>
-      <c r="L526">
-        <v>3.6</v>
-      </c>
-      <c r="M526">
-        <v>3.25</v>
-      </c>
-      <c r="N526">
-        <v>1.95</v>
-      </c>
-      <c r="O526">
-        <v>3.75</v>
-      </c>
-      <c r="P526">
-        <v>3.6</v>
-      </c>
-      <c r="Q526">
-        <v>-0.5</v>
-      </c>
-      <c r="R526">
-        <v>1.975</v>
-      </c>
-      <c r="S526">
-        <v>1.875</v>
-      </c>
-      <c r="T526">
-        <v>2.75</v>
-      </c>
-      <c r="U526">
-        <v>1.825</v>
-      </c>
-      <c r="V526">
-        <v>2.025</v>
-      </c>
-      <c r="W526">
-        <v>0</v>
-      </c>
-      <c r="X526">
-        <v>0</v>
-      </c>
-      <c r="Y526">
-        <v>0</v>
-      </c>
-      <c r="Z526">
-        <v>0</v>
-      </c>
-      <c r="AA526">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527" spans="1:29">
-      <c r="A527" s="1">
-        <v>525</v>
-      </c>
-      <c r="B527">
-        <v>7629921</v>
-      </c>
-      <c r="C527" t="s">
-        <v>28</v>
-      </c>
-      <c r="D527" t="s">
-        <v>28</v>
-      </c>
-      <c r="E527" s="2">
-        <v>45346.9375</v>
-      </c>
-      <c r="F527" t="s">
-        <v>56</v>
-      </c>
-      <c r="G527" t="s">
-        <v>53</v>
-      </c>
-      <c r="K527">
-        <v>1.8</v>
-      </c>
-      <c r="L527">
-        <v>3.75</v>
-      </c>
-      <c r="M527">
-        <v>4.2</v>
-      </c>
-      <c r="N527">
-        <v>2.1</v>
-      </c>
-      <c r="O527">
-        <v>3.25</v>
-      </c>
-      <c r="P527">
-        <v>3.6</v>
-      </c>
-      <c r="Q527">
-        <v>-0.25</v>
-      </c>
-      <c r="R527">
-        <v>1.8</v>
-      </c>
-      <c r="S527">
-        <v>2.05</v>
-      </c>
-      <c r="T527">
-        <v>2.25</v>
-      </c>
-      <c r="U527">
-        <v>1.925</v>
-      </c>
-      <c r="V527">
-        <v>1.925</v>
-      </c>
-      <c r="W527">
-        <v>0</v>
-      </c>
-      <c r="X527">
-        <v>0</v>
-      </c>
-      <c r="Y527">
-        <v>0</v>
-      </c>
-      <c r="Z527">
-        <v>0</v>
-      </c>
-      <c r="AA527">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528" spans="1:29">
-      <c r="A528" s="1">
-        <v>526</v>
-      </c>
-      <c r="B528">
-        <v>7630818</v>
-      </c>
-      <c r="C528" t="s">
-        <v>28</v>
-      </c>
-      <c r="D528" t="s">
-        <v>28</v>
-      </c>
-      <c r="E528" s="2">
-        <v>45346.9375</v>
-      </c>
-      <c r="F528" t="s">
-        <v>38</v>
-      </c>
-      <c r="G528" t="s">
-        <v>49</v>
-      </c>
-      <c r="K528">
-        <v>1.909</v>
-      </c>
-      <c r="L528">
-        <v>3.5</v>
-      </c>
-      <c r="M528">
-        <v>4</v>
-      </c>
-      <c r="N528">
-        <v>2.1</v>
-      </c>
-      <c r="O528">
-        <v>3.4</v>
-      </c>
-      <c r="P528">
-        <v>3.6</v>
-      </c>
-      <c r="Q528">
-        <v>-0.25</v>
-      </c>
-      <c r="R528">
-        <v>1.8</v>
-      </c>
-      <c r="S528">
-        <v>2.05</v>
-      </c>
-      <c r="T528">
-        <v>2.25</v>
-      </c>
-      <c r="U528">
-        <v>1.825</v>
-      </c>
-      <c r="V528">
-        <v>2.025</v>
-      </c>
-      <c r="W528">
-        <v>0</v>
-      </c>
-      <c r="X528">
-        <v>0</v>
-      </c>
-      <c r="Y528">
-        <v>0</v>
-      </c>
-      <c r="Z528">
-        <v>0</v>
-      </c>
-      <c r="AA528">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529" spans="1:27">
-      <c r="A529" s="1">
-        <v>527</v>
-      </c>
-      <c r="B529">
-        <v>7630820</v>
-      </c>
-      <c r="C529" t="s">
-        <v>28</v>
-      </c>
-      <c r="D529" t="s">
-        <v>28</v>
-      </c>
-      <c r="E529" s="2">
-        <v>45347.02083333334</v>
-      </c>
-      <c r="F529" t="s">
-        <v>41</v>
-      </c>
-      <c r="G529" t="s">
-        <v>48</v>
-      </c>
-      <c r="K529">
-        <v>1.666</v>
-      </c>
-      <c r="L529">
-        <v>4</v>
-      </c>
-      <c r="M529">
-        <v>4.75</v>
-      </c>
-      <c r="N529">
-        <v>1.727</v>
-      </c>
-      <c r="O529">
-        <v>4</v>
-      </c>
-      <c r="P529">
-        <v>4.5</v>
-      </c>
-      <c r="Q529">
-        <v>-0.75</v>
-      </c>
-      <c r="R529">
-        <v>1.95</v>
-      </c>
-      <c r="S529">
-        <v>1.9</v>
-      </c>
-      <c r="T529">
-        <v>2.75</v>
-      </c>
-      <c r="U529">
-        <v>2.025</v>
-      </c>
-      <c r="V529">
-        <v>1.825</v>
-      </c>
-      <c r="W529">
-        <v>0</v>
-      </c>
-      <c r="X529">
-        <v>0</v>
-      </c>
-      <c r="Y529">
-        <v>0</v>
-      </c>
-      <c r="Z529">
-        <v>0</v>
-      </c>
-      <c r="AA529">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="1:27">
-      <c r="A530" s="1">
-        <v>528</v>
-      </c>
-      <c r="B530">
-        <v>7630821</v>
-      </c>
-      <c r="C530" t="s">
-        <v>28</v>
-      </c>
-      <c r="D530" t="s">
-        <v>28</v>
-      </c>
-      <c r="E530" s="2">
-        <v>45347.6875</v>
-      </c>
-      <c r="F530" t="s">
-        <v>35</v>
-      </c>
-      <c r="G530" t="s">
-        <v>50</v>
-      </c>
-      <c r="K530">
-        <v>1.4</v>
-      </c>
-      <c r="L530">
-        <v>4.5</v>
-      </c>
-      <c r="M530">
-        <v>8</v>
-      </c>
-      <c r="N530">
-        <v>1.4</v>
-      </c>
-      <c r="O530">
-        <v>4.75</v>
-      </c>
-      <c r="P530">
-        <v>8</v>
-      </c>
-      <c r="Q530">
-        <v>-1.25</v>
-      </c>
-      <c r="R530">
-        <v>1.85</v>
-      </c>
-      <c r="S530">
-        <v>2</v>
-      </c>
-      <c r="T530">
-        <v>3</v>
-      </c>
-      <c r="U530">
-        <v>1.825</v>
-      </c>
-      <c r="V530">
-        <v>2.025</v>
-      </c>
-      <c r="W530">
-        <v>0</v>
-      </c>
-      <c r="X530">
-        <v>0</v>
-      </c>
-      <c r="Y530">
-        <v>0</v>
-      </c>
-      <c r="Z530">
-        <v>0</v>
-      </c>
-      <c r="AA530">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531" spans="1:27">
-      <c r="A531" s="1">
-        <v>529</v>
-      </c>
-      <c r="B531">
-        <v>7630822</v>
-      </c>
-      <c r="C531" t="s">
-        <v>28</v>
-      </c>
-      <c r="D531" t="s">
-        <v>28</v>
-      </c>
-      <c r="E531" s="2">
-        <v>45347.79166666666</v>
-      </c>
-      <c r="F531" t="s">
-        <v>29</v>
-      </c>
-      <c r="G531" t="s">
-        <v>44</v>
-      </c>
-      <c r="K531">
-        <v>2.25</v>
-      </c>
-      <c r="L531">
-        <v>3.25</v>
-      </c>
-      <c r="M531">
-        <v>3.2</v>
-      </c>
-      <c r="N531">
-        <v>2.45</v>
-      </c>
-      <c r="O531">
-        <v>3.3</v>
-      </c>
-      <c r="P531">
-        <v>2.9</v>
-      </c>
-      <c r="Q531">
-        <v>0</v>
-      </c>
-      <c r="R531">
-        <v>1.75</v>
-      </c>
-      <c r="S531">
-        <v>2.125</v>
-      </c>
-      <c r="T531">
-        <v>2.25</v>
-      </c>
-      <c r="U531">
-        <v>2.05</v>
-      </c>
-      <c r="V531">
-        <v>1.8</v>
-      </c>
-      <c r="W531">
-        <v>0</v>
-      </c>
-      <c r="X531">
-        <v>0</v>
-      </c>
-      <c r="Y531">
-        <v>0</v>
-      </c>
-      <c r="Z531">
-        <v>0</v>
-      </c>
-      <c r="AA531">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="1:27">
-      <c r="A532" s="1">
-        <v>530</v>
-      </c>
-      <c r="B532">
-        <v>7629922</v>
-      </c>
-      <c r="C532" t="s">
-        <v>28</v>
-      </c>
-      <c r="D532" t="s">
-        <v>28</v>
-      </c>
-      <c r="E532" s="2">
-        <v>45347.95833333334</v>
-      </c>
-      <c r="F532" t="s">
-        <v>57</v>
-      </c>
-      <c r="G532" t="s">
-        <v>30</v>
-      </c>
-      <c r="K532">
-        <v>2.8</v>
-      </c>
-      <c r="L532">
-        <v>3.8</v>
-      </c>
-      <c r="M532">
-        <v>2.25</v>
-      </c>
-      <c r="N532">
-        <v>2.6</v>
-      </c>
-      <c r="O532">
-        <v>4</v>
-      </c>
-      <c r="P532">
-        <v>2.4</v>
-      </c>
-      <c r="Q532">
-        <v>0</v>
-      </c>
-      <c r="R532">
-        <v>2.05</v>
-      </c>
-      <c r="S532">
-        <v>1.8</v>
-      </c>
-      <c r="T532">
-        <v>3.25</v>
-      </c>
-      <c r="U532">
-        <v>1.975</v>
-      </c>
-      <c r="V532">
-        <v>1.875</v>
-      </c>
-      <c r="W532">
-        <v>0</v>
-      </c>
-      <c r="X532">
-        <v>0</v>
-      </c>
-      <c r="Y532">
-        <v>0</v>
-      </c>
-      <c r="Z532">
-        <v>0</v>
-      </c>
-      <c r="AA532">
         <v>0</v>
       </c>
     </row>

--- a/USA MLS/USA MLS.xlsx
+++ b/USA MLS/USA MLS.xlsx
@@ -27533,7 +27533,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7630814</v>
+        <v>7630815</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27545,16 +27545,16 @@
         <v>45346.89583333334</v>
       </c>
       <c r="F304" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G304" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H304">
+        <v>3</v>
+      </c>
+      <c r="I304">
         <v>1</v>
-      </c>
-      <c r="I304">
-        <v>0</v>
       </c>
       <c r="J304" t="s">
         <v>59</v>
@@ -27563,40 +27563,40 @@
         <v>2</v>
       </c>
       <c r="L304">
+        <v>3.5</v>
+      </c>
+      <c r="M304">
         <v>3.6</v>
       </c>
-      <c r="M304">
+      <c r="N304">
+        <v>2.05</v>
+      </c>
+      <c r="O304">
         <v>3.5</v>
       </c>
-      <c r="N304">
-        <v>2.3</v>
-      </c>
-      <c r="O304">
-        <v>3.25</v>
-      </c>
       <c r="P304">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q304">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R304">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S304">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T304">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U304">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V304">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W304">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="X304">
         <v>-1</v>
@@ -27605,16 +27605,16 @@
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AA304">
         <v>-1</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC304">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27622,7 +27622,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7630816</v>
+        <v>7629920</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27634,16 +27634,16 @@
         <v>45346.89583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
         <v>58</v>
@@ -27658,16 +27658,16 @@
         <v>5.5</v>
       </c>
       <c r="N305">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="O305">
+        <v>3.8</v>
+      </c>
+      <c r="P305">
         <v>4.2</v>
       </c>
-      <c r="P305">
-        <v>5.5</v>
-      </c>
       <c r="Q305">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R305">
         <v>2.025</v>
@@ -27676,19 +27676,19 @@
         <v>1.825</v>
       </c>
       <c r="T305">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U305">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V305">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y305">
         <v>-1</v>
@@ -27700,10 +27700,10 @@
         <v>0.825</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC305">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27711,7 +27711,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7630815</v>
+        <v>7630816</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27723,49 +27723,49 @@
         <v>45346.89583333334</v>
       </c>
       <c r="F306" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G306" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H306">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K306">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L306">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M306">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N306">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="O306">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P306">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q306">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R306">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S306">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T306">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U306">
         <v>1.85</v>
@@ -27774,25 +27774,25 @@
         <v>2</v>
       </c>
       <c r="W306">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB306">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27800,7 +27800,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7629920</v>
+        <v>7630814</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27812,40 +27812,40 @@
         <v>45346.89583333334</v>
       </c>
       <c r="F307" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G307" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K307">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L307">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M307">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N307">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O307">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P307">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q307">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R307">
         <v>2.025</v>
@@ -27854,34 +27854,34 @@
         <v>1.825</v>
       </c>
       <c r="T307">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V307">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W307">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X307">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA307">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27889,7 +27889,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7630819</v>
+        <v>7629921</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27901,10 +27901,10 @@
         <v>45346.9375</v>
       </c>
       <c r="F308" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G308" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H308">
         <v>1</v>
@@ -27916,19 +27916,19 @@
         <v>58</v>
       </c>
       <c r="K308">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L308">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M308">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N308">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O308">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P308">
         <v>3.3</v>
@@ -27937,25 +27937,25 @@
         <v>-0.25</v>
       </c>
       <c r="R308">
+        <v>1.975</v>
+      </c>
+      <c r="S308">
+        <v>1.875</v>
+      </c>
+      <c r="T308">
+        <v>2.25</v>
+      </c>
+      <c r="U308">
+        <v>2.05</v>
+      </c>
+      <c r="V308">
         <v>1.8</v>
       </c>
-      <c r="S308">
-        <v>2.05</v>
-      </c>
-      <c r="T308">
-        <v>2.75</v>
-      </c>
-      <c r="U308">
-        <v>1.875</v>
-      </c>
-      <c r="V308">
-        <v>1.975</v>
-      </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y308">
         <v>-1</v>
@@ -27964,13 +27964,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA308">
-        <v>0.5249999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC308">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28067,7 +28067,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7629921</v>
+        <v>7630819</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28079,10 +28079,10 @@
         <v>45346.9375</v>
       </c>
       <c r="F310" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G310" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28094,19 +28094,19 @@
         <v>58</v>
       </c>
       <c r="K310">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L310">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M310">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N310">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O310">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P310">
         <v>3.3</v>
@@ -28115,25 +28115,25 @@
         <v>-0.25</v>
       </c>
       <c r="R310">
+        <v>1.8</v>
+      </c>
+      <c r="S310">
+        <v>2.05</v>
+      </c>
+      <c r="T310">
+        <v>2.75</v>
+      </c>
+      <c r="U310">
+        <v>1.875</v>
+      </c>
+      <c r="V310">
         <v>1.975</v>
       </c>
-      <c r="S310">
-        <v>1.875</v>
-      </c>
-      <c r="T310">
-        <v>2.25</v>
-      </c>
-      <c r="U310">
-        <v>2.05</v>
-      </c>
-      <c r="V310">
-        <v>1.8</v>
-      </c>
       <c r="W310">
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y310">
         <v>-1</v>
@@ -28142,13 +28142,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA310">
-        <v>0.4375</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB310">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28957,7 +28957,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7629925</v>
+        <v>7629924</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28969,76 +28969,76 @@
         <v>45353.9375</v>
       </c>
       <c r="F320" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G320" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H320">
         <v>1</v>
       </c>
       <c r="I320">
+        <v>2</v>
+      </c>
+      <c r="J320" t="s">
+        <v>60</v>
+      </c>
+      <c r="K320">
+        <v>1.8</v>
+      </c>
+      <c r="L320">
+        <v>3.6</v>
+      </c>
+      <c r="M320">
+        <v>4</v>
+      </c>
+      <c r="N320">
+        <v>2.625</v>
+      </c>
+      <c r="O320">
+        <v>3</v>
+      </c>
+      <c r="P320">
+        <v>3</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
+        <v>1.85</v>
+      </c>
+      <c r="S320">
+        <v>2</v>
+      </c>
+      <c r="T320">
+        <v>2</v>
+      </c>
+      <c r="U320">
+        <v>1.95</v>
+      </c>
+      <c r="V320">
+        <v>1.9</v>
+      </c>
+      <c r="W320">
+        <v>-1</v>
+      </c>
+      <c r="X320">
+        <v>-1</v>
+      </c>
+      <c r="Y320">
+        <v>2</v>
+      </c>
+      <c r="Z320">
+        <v>-1</v>
+      </c>
+      <c r="AA320">
         <v>1</v>
       </c>
-      <c r="J320" t="s">
-        <v>58</v>
-      </c>
-      <c r="K320">
-        <v>2.1</v>
-      </c>
-      <c r="L320">
-        <v>3.5</v>
-      </c>
-      <c r="M320">
-        <v>3.1</v>
-      </c>
-      <c r="N320">
-        <v>1.833</v>
-      </c>
-      <c r="O320">
-        <v>3.75</v>
-      </c>
-      <c r="P320">
-        <v>4.2</v>
-      </c>
-      <c r="Q320">
-        <v>-0.75</v>
-      </c>
-      <c r="R320">
-        <v>2.05</v>
-      </c>
-      <c r="S320">
-        <v>1.8</v>
-      </c>
-      <c r="T320">
-        <v>2.5</v>
-      </c>
-      <c r="U320">
-        <v>1.925</v>
-      </c>
-      <c r="V320">
-        <v>1.925</v>
-      </c>
-      <c r="W320">
-        <v>-1</v>
-      </c>
-      <c r="X320">
-        <v>2.75</v>
-      </c>
-      <c r="Y320">
-        <v>-1</v>
-      </c>
-      <c r="Z320">
-        <v>-1</v>
-      </c>
-      <c r="AA320">
-        <v>0.8</v>
-      </c>
       <c r="AB320">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC320">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29046,7 +29046,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7629923</v>
+        <v>7630828</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29058,76 +29058,76 @@
         <v>45353.9375</v>
       </c>
       <c r="F321" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G321" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J321" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K321">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L321">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M321">
+        <v>2.8</v>
+      </c>
+      <c r="N321">
         <v>2.375</v>
       </c>
-      <c r="N321">
-        <v>2.25</v>
-      </c>
       <c r="O321">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P321">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q321">
         <v>-0.25</v>
       </c>
       <c r="R321">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S321">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T321">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U321">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V321">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W321">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA321">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB321">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC321">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29224,7 +29224,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7630828</v>
+        <v>7629923</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29236,76 +29236,76 @@
         <v>45353.9375</v>
       </c>
       <c r="F323" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G323" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K323">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L323">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M323">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N323">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O323">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P323">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q323">
         <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S323">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T323">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U323">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V323">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W323">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z323">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB323">
+        <v>0.4875</v>
+      </c>
+      <c r="AC323">
         <v>-0.5</v>
-      </c>
-      <c r="AC323">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29313,7 +29313,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7629924</v>
+        <v>7629925</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29325,76 +29325,76 @@
         <v>45353.9375</v>
       </c>
       <c r="F324" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G324" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H324">
         <v>1</v>
       </c>
       <c r="I324">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J324" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K324">
+        <v>2.1</v>
+      </c>
+      <c r="L324">
+        <v>3.5</v>
+      </c>
+      <c r="M324">
+        <v>3.1</v>
+      </c>
+      <c r="N324">
+        <v>1.833</v>
+      </c>
+      <c r="O324">
+        <v>3.75</v>
+      </c>
+      <c r="P324">
+        <v>4.2</v>
+      </c>
+      <c r="Q324">
+        <v>-0.75</v>
+      </c>
+      <c r="R324">
+        <v>2.05</v>
+      </c>
+      <c r="S324">
         <v>1.8</v>
       </c>
-      <c r="L324">
-        <v>3.6</v>
-      </c>
-      <c r="M324">
-        <v>4</v>
-      </c>
-      <c r="N324">
-        <v>2.625</v>
-      </c>
-      <c r="O324">
-        <v>3</v>
-      </c>
-      <c r="P324">
-        <v>3</v>
-      </c>
-      <c r="Q324">
-        <v>0</v>
-      </c>
-      <c r="R324">
-        <v>1.85</v>
-      </c>
-      <c r="S324">
-        <v>2</v>
-      </c>
       <c r="T324">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U324">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V324">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W324">
         <v>-1</v>
       </c>
       <c r="X324">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y324">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
         <v>-1</v>
       </c>
       <c r="AA324">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB324">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC324">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29491,7 +29491,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7630830</v>
+        <v>7629926</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29503,73 +29503,73 @@
         <v>45354.02083333334</v>
       </c>
       <c r="F326" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G326" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J326" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K326">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L326">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M326">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="N326">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O326">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P326">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q326">
         <v>-0.25</v>
       </c>
       <c r="R326">
+        <v>2.05</v>
+      </c>
+      <c r="S326">
+        <v>1.8</v>
+      </c>
+      <c r="T326">
+        <v>3</v>
+      </c>
+      <c r="U326">
+        <v>1.975</v>
+      </c>
+      <c r="V326">
         <v>1.875</v>
       </c>
-      <c r="S326">
-        <v>1.975</v>
-      </c>
-      <c r="T326">
-        <v>2.75</v>
-      </c>
-      <c r="U326">
-        <v>1.825</v>
-      </c>
-      <c r="V326">
-        <v>2.025</v>
-      </c>
       <c r="W326">
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z326">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA326">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB326">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC326">
         <v>-1</v>
@@ -29669,7 +29669,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7629926</v>
+        <v>7630830</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29681,73 +29681,73 @@
         <v>45354.02083333334</v>
       </c>
       <c r="F328" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G328" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J328" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K328">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L328">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M328">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="N328">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O328">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P328">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q328">
         <v>-0.25</v>
       </c>
       <c r="R328">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S328">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T328">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U328">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V328">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W328">
         <v>-1</v>
       </c>
       <c r="X328">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y328">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z328">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA328">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB328">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC328">
         <v>-1</v>
@@ -30025,7 +30025,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7630835</v>
+        <v>7630836</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30037,13 +30037,13 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G332" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H332">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I332">
         <v>1</v>
@@ -30052,43 +30052,43 @@
         <v>59</v>
       </c>
       <c r="K332">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L332">
+        <v>3.6</v>
+      </c>
+      <c r="M332">
+        <v>5</v>
+      </c>
+      <c r="N332">
+        <v>1.533</v>
+      </c>
+      <c r="O332">
         <v>4</v>
       </c>
-      <c r="M332">
-        <v>3.8</v>
-      </c>
-      <c r="N332">
-        <v>1.7</v>
-      </c>
-      <c r="O332">
-        <v>4.2</v>
-      </c>
       <c r="P332">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q332">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R332">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S332">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T332">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U332">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V332">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
-        <v>0.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X332">
         <v>-1</v>
@@ -30097,13 +30097,13 @@
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB332">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30114,7 +30114,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7630836</v>
+        <v>7630835</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30126,13 +30126,13 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F333" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G333" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I333">
         <v>1</v>
@@ -30141,43 +30141,43 @@
         <v>59</v>
       </c>
       <c r="K333">
+        <v>1.8</v>
+      </c>
+      <c r="L333">
+        <v>4</v>
+      </c>
+      <c r="M333">
+        <v>3.8</v>
+      </c>
+      <c r="N333">
         <v>1.7</v>
       </c>
-      <c r="L333">
-        <v>3.6</v>
-      </c>
-      <c r="M333">
-        <v>5</v>
-      </c>
-      <c r="N333">
-        <v>1.533</v>
-      </c>
       <c r="O333">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P333">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q333">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R333">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S333">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T333">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U333">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V333">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W333">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30186,13 +30186,13 @@
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA333">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -31004,7 +31004,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7630844</v>
+        <v>7629930</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31016,73 +31016,73 @@
         <v>45367.625</v>
       </c>
       <c r="F343" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G343" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I343">
         <v>3</v>
       </c>
       <c r="J343" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K343">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L343">
+        <v>3.3</v>
+      </c>
+      <c r="M343">
+        <v>3.1</v>
+      </c>
+      <c r="N343">
+        <v>1.95</v>
+      </c>
+      <c r="O343">
         <v>3.6</v>
       </c>
-      <c r="M343">
-        <v>2.1</v>
-      </c>
-      <c r="N343">
-        <v>1.833</v>
-      </c>
-      <c r="O343">
+      <c r="P343">
         <v>3.8</v>
-      </c>
-      <c r="P343">
-        <v>4</v>
       </c>
       <c r="Q343">
         <v>-0.5</v>
       </c>
       <c r="R343">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S343">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T343">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U343">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V343">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W343">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA343">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB343">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC343">
         <v>-1</v>
@@ -31093,7 +31093,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7629930</v>
+        <v>7630844</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31105,73 +31105,73 @@
         <v>45367.625</v>
       </c>
       <c r="F344" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G344" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H344">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I344">
         <v>3</v>
       </c>
       <c r="J344" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K344">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L344">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M344">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N344">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O344">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P344">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q344">
         <v>-0.5</v>
       </c>
       <c r="R344">
+        <v>1.875</v>
+      </c>
+      <c r="S344">
+        <v>1.975</v>
+      </c>
+      <c r="T344">
+        <v>2.75</v>
+      </c>
+      <c r="U344">
+        <v>1.9</v>
+      </c>
+      <c r="V344">
         <v>1.95</v>
       </c>
-      <c r="S344">
-        <v>1.9</v>
-      </c>
-      <c r="T344">
-        <v>2.5</v>
-      </c>
-      <c r="U344">
-        <v>1.825</v>
-      </c>
-      <c r="V344">
-        <v>2.025</v>
-      </c>
       <c r="W344">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z344">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA344">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB344">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC344">
         <v>-1</v>
@@ -31449,7 +31449,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7630851</v>
+        <v>7630850</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31461,58 +31461,58 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F348" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G348" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H348">
         <v>2</v>
       </c>
       <c r="I348">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" t="s">
         <v>59</v>
       </c>
       <c r="K348">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="L348">
         <v>3.4</v>
       </c>
       <c r="M348">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N348">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O348">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P348">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q348">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R348">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S348">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T348">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U348">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V348">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W348">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31521,16 +31521,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA348">
         <v>-1</v>
       </c>
       <c r="AB348">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC348">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31538,7 +31538,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>7629931</v>
+        <v>7629932</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31550,16 +31550,16 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F349" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G349" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H349">
+        <v>2</v>
+      </c>
+      <c r="I349">
         <v>1</v>
-      </c>
-      <c r="I349">
-        <v>0</v>
       </c>
       <c r="J349" t="s">
         <v>59</v>
@@ -31568,40 +31568,40 @@
         <v>1.8</v>
       </c>
       <c r="L349">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M349">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N349">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="O349">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P349">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q349">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R349">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S349">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T349">
         <v>2.5</v>
       </c>
       <c r="U349">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V349">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W349">
-        <v>0.8500000000000001</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X349">
         <v>-1</v>
@@ -31610,16 +31610,16 @@
         <v>-1</v>
       </c>
       <c r="Z349">
+        <v>0.4875</v>
+      </c>
+      <c r="AA349">
+        <v>-0.5</v>
+      </c>
+      <c r="AB349">
         <v>0.825</v>
       </c>
-      <c r="AA349">
-        <v>-1</v>
-      </c>
-      <c r="AB349">
-        <v>-1</v>
-      </c>
       <c r="AC349">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31627,7 +31627,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7630849</v>
+        <v>7630848</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31639,73 +31639,73 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F350" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G350" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J350" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K350">
         <v>2.5</v>
       </c>
       <c r="L350">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M350">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="N350">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O350">
         <v>3.4</v>
       </c>
       <c r="P350">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="Q350">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R350">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S350">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T350">
         <v>2.5</v>
       </c>
       <c r="U350">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V350">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W350">
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y350">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA350">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB350">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC350">
         <v>-1</v>
@@ -31716,7 +31716,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7630848</v>
+        <v>7629931</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31728,76 +31728,76 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F351" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G351" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K351">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L351">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M351">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N351">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O351">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P351">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q351">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S351">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V351">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W351">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X351">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA351">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB351">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC351">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31805,7 +31805,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7629932</v>
+        <v>7630851</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31817,10 +31817,10 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F352" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G352" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H352">
         <v>2</v>
@@ -31832,43 +31832,43 @@
         <v>59</v>
       </c>
       <c r="K352">
+        <v>2.1</v>
+      </c>
+      <c r="L352">
+        <v>3.4</v>
+      </c>
+      <c r="M352">
+        <v>3.4</v>
+      </c>
+      <c r="N352">
+        <v>2.1</v>
+      </c>
+      <c r="O352">
+        <v>3.3</v>
+      </c>
+      <c r="P352">
+        <v>3.75</v>
+      </c>
+      <c r="Q352">
+        <v>-0.5</v>
+      </c>
+      <c r="R352">
+        <v>2.05</v>
+      </c>
+      <c r="S352">
         <v>1.8</v>
       </c>
-      <c r="L352">
-        <v>3.5</v>
-      </c>
-      <c r="M352">
-        <v>4.5</v>
-      </c>
-      <c r="N352">
-        <v>1.727</v>
-      </c>
-      <c r="O352">
-        <v>3.8</v>
-      </c>
-      <c r="P352">
-        <v>4.75</v>
-      </c>
-      <c r="Q352">
-        <v>-0.75</v>
-      </c>
-      <c r="R352">
-        <v>1.975</v>
-      </c>
-      <c r="S352">
-        <v>1.875</v>
-      </c>
       <c r="T352">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U352">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V352">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W352">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31877,13 +31877,13 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AA352">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB352">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -31894,7 +31894,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7630850</v>
+        <v>7630849</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31906,49 +31906,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F353" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G353" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J353" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K353">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L353">
         <v>3.4</v>
       </c>
       <c r="M353">
+        <v>2.7</v>
+      </c>
+      <c r="N353">
+        <v>2.4</v>
+      </c>
+      <c r="O353">
+        <v>3.4</v>
+      </c>
+      <c r="P353">
+        <v>2.9</v>
+      </c>
+      <c r="Q353">
+        <v>-0.25</v>
+      </c>
+      <c r="R353">
+        <v>2.1</v>
+      </c>
+      <c r="S353">
+        <v>1.775</v>
+      </c>
+      <c r="T353">
         <v>2.5</v>
-      </c>
-      <c r="N353">
-        <v>3.3</v>
-      </c>
-      <c r="O353">
-        <v>3.5</v>
-      </c>
-      <c r="P353">
-        <v>2.2</v>
-      </c>
-      <c r="Q353">
-        <v>0.25</v>
-      </c>
-      <c r="R353">
-        <v>1.975</v>
-      </c>
-      <c r="S353">
-        <v>1.875</v>
-      </c>
-      <c r="T353">
-        <v>2.75</v>
       </c>
       <c r="U353">
         <v>1.975</v>
@@ -31957,25 +31957,25 @@
         <v>1.875</v>
       </c>
       <c r="W353">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z353">
+        <v>-1</v>
+      </c>
+      <c r="AA353">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB353">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA353">
-        <v>-1</v>
-      </c>
-      <c r="AB353">
-        <v>-1</v>
-      </c>
       <c r="AC353">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32873,7 +32873,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7629935</v>
+        <v>7630860</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32885,73 +32885,73 @@
         <v>45374.89583333334</v>
       </c>
       <c r="F364" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G364" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H364">
         <v>2</v>
       </c>
       <c r="I364">
+        <v>2</v>
+      </c>
+      <c r="J364" t="s">
+        <v>58</v>
+      </c>
+      <c r="K364">
+        <v>2.1</v>
+      </c>
+      <c r="L364">
+        <v>3.5</v>
+      </c>
+      <c r="M364">
+        <v>3.3</v>
+      </c>
+      <c r="N364">
+        <v>1.85</v>
+      </c>
+      <c r="O364">
+        <v>3.8</v>
+      </c>
+      <c r="P364">
+        <v>4</v>
+      </c>
+      <c r="Q364">
+        <v>-0.5</v>
+      </c>
+      <c r="R364">
+        <v>1.9</v>
+      </c>
+      <c r="S364">
+        <v>1.95</v>
+      </c>
+      <c r="T364">
         <v>3</v>
       </c>
-      <c r="J364" t="s">
-        <v>60</v>
-      </c>
-      <c r="K364">
-        <v>1.95</v>
-      </c>
-      <c r="L364">
-        <v>3.75</v>
-      </c>
-      <c r="M364">
-        <v>3.5</v>
-      </c>
-      <c r="N364">
-        <v>2.3</v>
-      </c>
-      <c r="O364">
-        <v>3.5</v>
-      </c>
-      <c r="P364">
-        <v>3</v>
-      </c>
-      <c r="Q364">
-        <v>-0.25</v>
-      </c>
-      <c r="R364">
-        <v>2</v>
-      </c>
-      <c r="S364">
-        <v>1.85</v>
-      </c>
-      <c r="T364">
-        <v>2.75</v>
-      </c>
       <c r="U364">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V364">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W364">
         <v>-1</v>
       </c>
       <c r="X364">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y364">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z364">
         <v>-1</v>
       </c>
       <c r="AA364">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB364">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC364">
         <v>-1</v>
@@ -32962,7 +32962,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7630860</v>
+        <v>7629935</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32974,73 +32974,73 @@
         <v>45374.89583333334</v>
       </c>
       <c r="F365" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G365" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H365">
         <v>2</v>
       </c>
       <c r="I365">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J365" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K365">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L365">
+        <v>3.75</v>
+      </c>
+      <c r="M365">
         <v>3.5</v>
       </c>
-      <c r="M365">
-        <v>3.3</v>
-      </c>
       <c r="N365">
+        <v>2.3</v>
+      </c>
+      <c r="O365">
+        <v>3.5</v>
+      </c>
+      <c r="P365">
+        <v>3</v>
+      </c>
+      <c r="Q365">
+        <v>-0.25</v>
+      </c>
+      <c r="R365">
+        <v>2</v>
+      </c>
+      <c r="S365">
         <v>1.85</v>
       </c>
-      <c r="O365">
-        <v>3.8</v>
-      </c>
-      <c r="P365">
-        <v>4</v>
-      </c>
-      <c r="Q365">
-        <v>-0.5</v>
-      </c>
-      <c r="R365">
-        <v>1.9</v>
-      </c>
-      <c r="S365">
-        <v>1.95</v>
-      </c>
       <c r="T365">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U365">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V365">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W365">
         <v>-1</v>
       </c>
       <c r="X365">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y365">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z365">
         <v>-1</v>
       </c>
       <c r="AA365">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB365">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC365">
         <v>-1</v>
@@ -33229,7 +33229,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7630861</v>
+        <v>7630863</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33241,58 +33241,58 @@
         <v>45374.97916666666</v>
       </c>
       <c r="F368" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G368" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H368">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I368">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J368" t="s">
         <v>59</v>
       </c>
       <c r="K368">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="L368">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M368">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N368">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O368">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P368">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q368">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R368">
+        <v>1.825</v>
+      </c>
+      <c r="S368">
         <v>2.025</v>
       </c>
-      <c r="S368">
-        <v>1.825</v>
-      </c>
       <c r="T368">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U368">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V368">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W368">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="X368">
         <v>-1</v>
@@ -33301,13 +33301,13 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -33318,7 +33318,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>7630863</v>
+        <v>7630861</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33330,58 +33330,58 @@
         <v>45374.97916666666</v>
       </c>
       <c r="F369" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G369" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H369">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I369">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J369" t="s">
         <v>59</v>
       </c>
       <c r="K369">
+        <v>1.533</v>
+      </c>
+      <c r="L369">
+        <v>4</v>
+      </c>
+      <c r="M369">
+        <v>6.5</v>
+      </c>
+      <c r="N369">
+        <v>1.45</v>
+      </c>
+      <c r="O369">
+        <v>4.333</v>
+      </c>
+      <c r="P369">
+        <v>7.5</v>
+      </c>
+      <c r="Q369">
+        <v>-1.25</v>
+      </c>
+      <c r="R369">
+        <v>2.025</v>
+      </c>
+      <c r="S369">
+        <v>1.825</v>
+      </c>
+      <c r="T369">
         <v>2.75</v>
       </c>
-      <c r="L369">
-        <v>3.2</v>
-      </c>
-      <c r="M369">
-        <v>2.625</v>
-      </c>
-      <c r="N369">
-        <v>2.5</v>
-      </c>
-      <c r="O369">
-        <v>3.25</v>
-      </c>
-      <c r="P369">
-        <v>2.875</v>
-      </c>
-      <c r="Q369">
-        <v>0</v>
-      </c>
-      <c r="R369">
+      <c r="U369">
+        <v>2.025</v>
+      </c>
+      <c r="V369">
         <v>1.825</v>
       </c>
-      <c r="S369">
-        <v>2.025</v>
-      </c>
-      <c r="T369">
-        <v>2.25</v>
-      </c>
-      <c r="U369">
-        <v>1.975</v>
-      </c>
-      <c r="V369">
-        <v>1.875</v>
-      </c>
       <c r="W369">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="X369">
         <v>-1</v>
@@ -33390,13 +33390,13 @@
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA369">
         <v>-1</v>
       </c>
       <c r="AB369">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC369">
         <v>-1</v>
@@ -33585,7 +33585,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7629937</v>
+        <v>7630867</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33597,76 +33597,76 @@
         <v>45381.85416666666</v>
       </c>
       <c r="F372" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G372" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H372">
         <v>1</v>
       </c>
       <c r="I372">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J372" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K372">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L372">
         <v>3.4</v>
       </c>
       <c r="M372">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N372">
-        <v>2.4</v>
+        <v>2.625</v>
       </c>
       <c r="O372">
         <v>3.25</v>
       </c>
       <c r="P372">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q372">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R372">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S372">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T372">
         <v>2.25</v>
       </c>
       <c r="U372">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V372">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W372">
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y372">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA372">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB372">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33674,7 +33674,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7630868</v>
+        <v>7629937</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33686,76 +33686,76 @@
         <v>45381.85416666666</v>
       </c>
       <c r="F373" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G373" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H373">
         <v>1</v>
       </c>
       <c r="I373">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J373" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K373">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="L373">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="N373">
+        <v>2.4</v>
+      </c>
+      <c r="O373">
+        <v>3.25</v>
+      </c>
+      <c r="P373">
+        <v>3</v>
+      </c>
+      <c r="Q373">
+        <v>-0.25</v>
+      </c>
+      <c r="R373">
+        <v>2.05</v>
+      </c>
+      <c r="S373">
         <v>1.8</v>
       </c>
-      <c r="O373">
-        <v>4.2</v>
-      </c>
-      <c r="P373">
-        <v>3.8</v>
-      </c>
-      <c r="Q373">
-        <v>-0.75</v>
-      </c>
-      <c r="R373">
+      <c r="T373">
+        <v>2.25</v>
+      </c>
+      <c r="U373">
+        <v>1.825</v>
+      </c>
+      <c r="V373">
         <v>2.025</v>
       </c>
-      <c r="S373">
-        <v>1.825</v>
-      </c>
-      <c r="T373">
-        <v>3</v>
-      </c>
-      <c r="U373">
-        <v>1.975</v>
-      </c>
-      <c r="V373">
-        <v>1.875</v>
-      </c>
       <c r="W373">
+        <v>-1</v>
+      </c>
+      <c r="X373">
+        <v>-1</v>
+      </c>
+      <c r="Y373">
+        <v>2</v>
+      </c>
+      <c r="Z373">
+        <v>-1</v>
+      </c>
+      <c r="AA373">
         <v>0.8</v>
       </c>
-      <c r="X373">
-        <v>-1</v>
-      </c>
-      <c r="Y373">
-        <v>-1</v>
-      </c>
-      <c r="Z373">
-        <v>0.5125</v>
-      </c>
-      <c r="AA373">
-        <v>-0.5</v>
-      </c>
       <c r="AB373">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC373">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33763,7 +33763,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7630867</v>
+        <v>7630868</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33775,76 +33775,76 @@
         <v>45381.85416666666</v>
       </c>
       <c r="F374" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G374" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H374">
         <v>1</v>
       </c>
       <c r="I374">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J374" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K374">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L374">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M374">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="N374">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O374">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P374">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q374">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R374">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S374">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T374">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U374">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V374">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W374">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X374">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA374">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB374">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC374">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -34030,7 +34030,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7630872</v>
+        <v>7630871</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34042,73 +34042,73 @@
         <v>45381.89583333334</v>
       </c>
       <c r="F377" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G377" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H377">
         <v>2</v>
       </c>
       <c r="I377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J377" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K377">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L377">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M377">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N377">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="O377">
         <v>3.4</v>
       </c>
       <c r="P377">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q377">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R377">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S377">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T377">
         <v>2.5</v>
       </c>
       <c r="U377">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V377">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W377">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X377">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y377">
         <v>-1</v>
       </c>
       <c r="Z377">
-        <v>0.425</v>
+        <v>1.1</v>
       </c>
       <c r="AA377">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB377">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34119,7 +34119,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7630871</v>
+        <v>7630872</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34131,73 +34131,73 @@
         <v>45381.89583333334</v>
       </c>
       <c r="F378" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G378" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H378">
         <v>2</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J378" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K378">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L378">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M378">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N378">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="O378">
         <v>3.4</v>
       </c>
       <c r="P378">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q378">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R378">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S378">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T378">
         <v>2.5</v>
       </c>
       <c r="U378">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V378">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W378">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X378">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>1.1</v>
+        <v>0.425</v>
       </c>
       <c r="AA378">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB378">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC378">
         <v>-1</v>
@@ -34653,7 +34653,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>8038962</v>
+        <v>7629941</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34665,46 +34665,46 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F384" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G384" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K384">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L384">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M384">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N384">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="O384">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P384">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q384">
         <v>-0.75</v>
       </c>
       <c r="R384">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S384">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T384">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U384">
+        <v>1.975</v>
+      </c>
+      <c r="V384">
         <v>1.875</v>
-      </c>
-      <c r="V384">
-        <v>1.975</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34727,7 +34727,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7630879</v>
+        <v>7630875</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34739,46 +34739,46 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F385" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G385" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K385">
         <v>2.15</v>
       </c>
       <c r="L385">
+        <v>3.25</v>
+      </c>
+      <c r="M385">
         <v>3.5</v>
-      </c>
-      <c r="M385">
-        <v>3.2</v>
       </c>
       <c r="N385">
         <v>2.15</v>
       </c>
       <c r="O385">
+        <v>3.25</v>
+      </c>
+      <c r="P385">
         <v>3.5</v>
-      </c>
-      <c r="P385">
-        <v>3.2</v>
       </c>
       <c r="Q385">
         <v>-0.25</v>
       </c>
       <c r="R385">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S385">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T385">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U385">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V385">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7629941</v>
+        <v>7630876</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34813,40 +34813,40 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F386" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G386" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K386">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L386">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M386">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N386">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="O386">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P386">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q386">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R386">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S386">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T386">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U386">
         <v>1.975</v>
@@ -34875,7 +34875,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7630876</v>
+        <v>7630878</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34887,46 +34887,46 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F387" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G387" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K387">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="L387">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M387">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N387">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O387">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P387">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q387">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R387">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S387">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T387">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U387">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V387">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W387">
         <v>0</v>
@@ -34949,7 +34949,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7630875</v>
+        <v>7630879</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -34961,46 +34961,46 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F388" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G388" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K388">
         <v>2.15</v>
       </c>
       <c r="L388">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M388">
+        <v>3.2</v>
+      </c>
+      <c r="N388">
+        <v>2.25</v>
+      </c>
+      <c r="O388">
         <v>3.5</v>
       </c>
-      <c r="N388">
-        <v>2.15</v>
-      </c>
-      <c r="O388">
-        <v>3.25</v>
-      </c>
       <c r="P388">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q388">
         <v>-0.25</v>
       </c>
       <c r="R388">
+        <v>1.95</v>
+      </c>
+      <c r="S388">
+        <v>1.9</v>
+      </c>
+      <c r="T388">
+        <v>2.5</v>
+      </c>
+      <c r="U388">
         <v>1.85</v>
       </c>
-      <c r="S388">
-        <v>2</v>
-      </c>
-      <c r="T388">
-        <v>2.25</v>
-      </c>
-      <c r="U388">
-        <v>1.825</v>
-      </c>
       <c r="V388">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W388">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7630878</v>
+        <v>8038962</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35035,46 +35035,46 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F389" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G389" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K389">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="L389">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M389">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N389">
+        <v>1.615</v>
+      </c>
+      <c r="O389">
+        <v>4</v>
+      </c>
+      <c r="P389">
+        <v>5</v>
+      </c>
+      <c r="Q389">
+        <v>-0.75</v>
+      </c>
+      <c r="R389">
+        <v>1.8</v>
+      </c>
+      <c r="S389">
         <v>2.05</v>
       </c>
-      <c r="O389">
-        <v>3.4</v>
-      </c>
-      <c r="P389">
-        <v>3.6</v>
-      </c>
-      <c r="Q389">
-        <v>-0.5</v>
-      </c>
-      <c r="R389">
-        <v>2.05</v>
-      </c>
-      <c r="S389">
-        <v>1.8</v>
-      </c>
       <c r="T389">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U389">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V389">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W389">
         <v>0</v>
@@ -35145,10 +35145,10 @@
         <v>2.75</v>
       </c>
       <c r="U390">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V390">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W390">
         <v>0</v>
@@ -35171,7 +35171,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7630881</v>
+        <v>7630882</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35183,46 +35183,46 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F391" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G391" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K391">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L391">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M391">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N391">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O391">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P391">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q391">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R391">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S391">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T391">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U391">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V391">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W391">
         <v>0</v>
@@ -35293,10 +35293,10 @@
         <v>2.5</v>
       </c>
       <c r="U392">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V392">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W392">
         <v>0</v>
@@ -35367,10 +35367,10 @@
         <v>2.5</v>
       </c>
       <c r="U393">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V393">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W393">
         <v>0</v>
@@ -35393,7 +35393,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7630882</v>
+        <v>7630881</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35405,46 +35405,46 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F394" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G394" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K394">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L394">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M394">
+        <v>3.6</v>
+      </c>
+      <c r="N394">
+        <v>2.15</v>
+      </c>
+      <c r="O394">
+        <v>3.4</v>
+      </c>
+      <c r="P394">
+        <v>3.3</v>
+      </c>
+      <c r="Q394">
+        <v>-0.25</v>
+      </c>
+      <c r="R394">
+        <v>1.875</v>
+      </c>
+      <c r="S394">
+        <v>1.975</v>
+      </c>
+      <c r="T394">
         <v>2.75</v>
       </c>
-      <c r="N394">
-        <v>2.5</v>
-      </c>
-      <c r="O394">
-        <v>3.25</v>
-      </c>
-      <c r="P394">
-        <v>2.8</v>
-      </c>
-      <c r="Q394">
-        <v>0</v>
-      </c>
-      <c r="R394">
-        <v>1.825</v>
-      </c>
-      <c r="S394">
-        <v>2.025</v>
-      </c>
-      <c r="T394">
-        <v>2.5</v>
-      </c>
       <c r="U394">
+        <v>1.9</v>
+      </c>
+      <c r="V394">
         <v>1.95</v>
-      </c>
-      <c r="V394">
-        <v>1.9</v>
       </c>
       <c r="W394">
         <v>0</v>

--- a/USA MLS/USA MLS.xlsx
+++ b/USA MLS/USA MLS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -558,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC396"/>
+  <dimension ref="A1:AC397"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27533,7 +27533,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7630815</v>
+        <v>7630814</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27545,16 +27545,16 @@
         <v>45346.89583333334</v>
       </c>
       <c r="F304" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G304" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I304">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" t="s">
         <v>59</v>
@@ -27563,40 +27563,40 @@
         <v>2</v>
       </c>
       <c r="L304">
+        <v>3.6</v>
+      </c>
+      <c r="M304">
         <v>3.5</v>
       </c>
-      <c r="M304">
-        <v>3.6</v>
-      </c>
       <c r="N304">
+        <v>2.3</v>
+      </c>
+      <c r="O304">
+        <v>3.25</v>
+      </c>
+      <c r="P304">
+        <v>3.1</v>
+      </c>
+      <c r="Q304">
+        <v>-0.25</v>
+      </c>
+      <c r="R304">
+        <v>2.025</v>
+      </c>
+      <c r="S304">
+        <v>1.825</v>
+      </c>
+      <c r="T304">
+        <v>2.25</v>
+      </c>
+      <c r="U304">
         <v>2.05</v>
       </c>
-      <c r="O304">
-        <v>3.5</v>
-      </c>
-      <c r="P304">
-        <v>3.6</v>
-      </c>
-      <c r="Q304">
-        <v>-0.5</v>
-      </c>
-      <c r="R304">
-        <v>2.05</v>
-      </c>
-      <c r="S304">
+      <c r="V304">
         <v>1.8</v>
       </c>
-      <c r="T304">
-        <v>2.75</v>
-      </c>
-      <c r="U304">
-        <v>1.85</v>
-      </c>
-      <c r="V304">
-        <v>2</v>
-      </c>
       <c r="W304">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="X304">
         <v>-1</v>
@@ -27605,16 +27605,16 @@
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AA304">
         <v>-1</v>
       </c>
       <c r="AB304">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27622,7 +27622,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7629920</v>
+        <v>7630816</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27634,16 +27634,16 @@
         <v>45346.89583333334</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G305" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J305" t="s">
         <v>58</v>
@@ -27658,16 +27658,16 @@
         <v>5.5</v>
       </c>
       <c r="N305">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="O305">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P305">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q305">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R305">
         <v>2.025</v>
@@ -27676,19 +27676,19 @@
         <v>1.825</v>
       </c>
       <c r="T305">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U305">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V305">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Y305">
         <v>-1</v>
@@ -27700,10 +27700,10 @@
         <v>0.825</v>
       </c>
       <c r="AB305">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27711,7 +27711,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7630816</v>
+        <v>7630815</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27723,49 +27723,49 @@
         <v>45346.89583333334</v>
       </c>
       <c r="F306" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G306" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K306">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L306">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M306">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N306">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="O306">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P306">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q306">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R306">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S306">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T306">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U306">
         <v>1.85</v>
@@ -27774,25 +27774,25 @@
         <v>2</v>
       </c>
       <c r="W306">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X306">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA306">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC306">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27800,7 +27800,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>7630814</v>
+        <v>7629920</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27812,40 +27812,40 @@
         <v>45346.89583333334</v>
       </c>
       <c r="F307" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G307" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K307">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L307">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M307">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N307">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O307">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P307">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R307">
         <v>2.025</v>
@@ -27854,34 +27854,34 @@
         <v>1.825</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U307">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V307">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W307">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC307">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27889,7 +27889,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>7629921</v>
+        <v>7630819</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27901,10 +27901,10 @@
         <v>45346.9375</v>
       </c>
       <c r="F308" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G308" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H308">
         <v>1</v>
@@ -27916,19 +27916,19 @@
         <v>58</v>
       </c>
       <c r="K308">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L308">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M308">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="N308">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O308">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P308">
         <v>3.3</v>
@@ -27937,25 +27937,25 @@
         <v>-0.25</v>
       </c>
       <c r="R308">
+        <v>1.8</v>
+      </c>
+      <c r="S308">
+        <v>2.05</v>
+      </c>
+      <c r="T308">
+        <v>2.75</v>
+      </c>
+      <c r="U308">
+        <v>1.875</v>
+      </c>
+      <c r="V308">
         <v>1.975</v>
       </c>
-      <c r="S308">
-        <v>1.875</v>
-      </c>
-      <c r="T308">
-        <v>2.25</v>
-      </c>
-      <c r="U308">
-        <v>2.05</v>
-      </c>
-      <c r="V308">
-        <v>1.8</v>
-      </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Y308">
         <v>-1</v>
@@ -27964,13 +27964,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA308">
-        <v>0.4375</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB308">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC308">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28067,7 +28067,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7630819</v>
+        <v>7629921</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28079,10 +28079,10 @@
         <v>45346.9375</v>
       </c>
       <c r="F310" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G310" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H310">
         <v>1</v>
@@ -28094,19 +28094,19 @@
         <v>58</v>
       </c>
       <c r="K310">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L310">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M310">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N310">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O310">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P310">
         <v>3.3</v>
@@ -28115,25 +28115,25 @@
         <v>-0.25</v>
       </c>
       <c r="R310">
+        <v>1.975</v>
+      </c>
+      <c r="S310">
+        <v>1.875</v>
+      </c>
+      <c r="T310">
+        <v>2.25</v>
+      </c>
+      <c r="U310">
+        <v>2.05</v>
+      </c>
+      <c r="V310">
         <v>1.8</v>
       </c>
-      <c r="S310">
-        <v>2.05</v>
-      </c>
-      <c r="T310">
-        <v>2.75</v>
-      </c>
-      <c r="U310">
-        <v>1.875</v>
-      </c>
-      <c r="V310">
-        <v>1.975</v>
-      </c>
       <c r="W310">
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y310">
         <v>-1</v>
@@ -28142,13 +28142,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA310">
-        <v>0.5249999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC310">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28957,7 +28957,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7629924</v>
+        <v>7629925</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28969,76 +28969,76 @@
         <v>45353.9375</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G320" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H320">
         <v>1</v>
       </c>
       <c r="I320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K320">
+        <v>2.1</v>
+      </c>
+      <c r="L320">
+        <v>3.5</v>
+      </c>
+      <c r="M320">
+        <v>3.1</v>
+      </c>
+      <c r="N320">
+        <v>1.833</v>
+      </c>
+      <c r="O320">
+        <v>3.75</v>
+      </c>
+      <c r="P320">
+        <v>4.2</v>
+      </c>
+      <c r="Q320">
+        <v>-0.75</v>
+      </c>
+      <c r="R320">
+        <v>2.05</v>
+      </c>
+      <c r="S320">
         <v>1.8</v>
       </c>
-      <c r="L320">
-        <v>3.6</v>
-      </c>
-      <c r="M320">
-        <v>4</v>
-      </c>
-      <c r="N320">
-        <v>2.625</v>
-      </c>
-      <c r="O320">
-        <v>3</v>
-      </c>
-      <c r="P320">
-        <v>3</v>
-      </c>
-      <c r="Q320">
-        <v>0</v>
-      </c>
-      <c r="R320">
-        <v>1.85</v>
-      </c>
-      <c r="S320">
-        <v>2</v>
-      </c>
       <c r="T320">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y320">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
         <v>-1</v>
       </c>
       <c r="AA320">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB320">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC320">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29046,7 +29046,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7630828</v>
+        <v>7629923</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -29058,76 +29058,76 @@
         <v>45353.9375</v>
       </c>
       <c r="F321" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G321" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J321" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K321">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L321">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M321">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N321">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O321">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P321">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q321">
         <v>-0.25</v>
       </c>
       <c r="R321">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S321">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T321">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U321">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V321">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W321">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X321">
         <v>-1</v>
       </c>
       <c r="Y321">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z321">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA321">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB321">
+        <v>0.4875</v>
+      </c>
+      <c r="AC321">
         <v>-0.5</v>
-      </c>
-      <c r="AC321">
-        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="322" spans="1:29">
@@ -29224,7 +29224,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>7629923</v>
+        <v>7630828</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29236,76 +29236,76 @@
         <v>45353.9375</v>
       </c>
       <c r="F323" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G323" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K323">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L323">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M323">
+        <v>2.8</v>
+      </c>
+      <c r="N323">
         <v>2.375</v>
       </c>
-      <c r="N323">
-        <v>2.25</v>
-      </c>
       <c r="O323">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P323">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q323">
         <v>-0.25</v>
       </c>
       <c r="R323">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S323">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T323">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U323">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V323">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA323">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC323">
-        <v>-0.5</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29313,7 +29313,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>7629925</v>
+        <v>7629924</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29325,76 +29325,76 @@
         <v>45353.9375</v>
       </c>
       <c r="F324" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G324" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H324">
         <v>1</v>
       </c>
       <c r="I324">
+        <v>2</v>
+      </c>
+      <c r="J324" t="s">
+        <v>60</v>
+      </c>
+      <c r="K324">
+        <v>1.8</v>
+      </c>
+      <c r="L324">
+        <v>3.6</v>
+      </c>
+      <c r="M324">
+        <v>4</v>
+      </c>
+      <c r="N324">
+        <v>2.625</v>
+      </c>
+      <c r="O324">
+        <v>3</v>
+      </c>
+      <c r="P324">
+        <v>3</v>
+      </c>
+      <c r="Q324">
+        <v>0</v>
+      </c>
+      <c r="R324">
+        <v>1.85</v>
+      </c>
+      <c r="S324">
+        <v>2</v>
+      </c>
+      <c r="T324">
+        <v>2</v>
+      </c>
+      <c r="U324">
+        <v>1.95</v>
+      </c>
+      <c r="V324">
+        <v>1.9</v>
+      </c>
+      <c r="W324">
+        <v>-1</v>
+      </c>
+      <c r="X324">
+        <v>-1</v>
+      </c>
+      <c r="Y324">
+        <v>2</v>
+      </c>
+      <c r="Z324">
+        <v>-1</v>
+      </c>
+      <c r="AA324">
         <v>1</v>
       </c>
-      <c r="J324" t="s">
-        <v>58</v>
-      </c>
-      <c r="K324">
-        <v>2.1</v>
-      </c>
-      <c r="L324">
-        <v>3.5</v>
-      </c>
-      <c r="M324">
-        <v>3.1</v>
-      </c>
-      <c r="N324">
-        <v>1.833</v>
-      </c>
-      <c r="O324">
-        <v>3.75</v>
-      </c>
-      <c r="P324">
-        <v>4.2</v>
-      </c>
-      <c r="Q324">
-        <v>-0.75</v>
-      </c>
-      <c r="R324">
-        <v>2.05</v>
-      </c>
-      <c r="S324">
-        <v>1.8</v>
-      </c>
-      <c r="T324">
-        <v>2.5</v>
-      </c>
-      <c r="U324">
-        <v>1.925</v>
-      </c>
-      <c r="V324">
-        <v>1.925</v>
-      </c>
-      <c r="W324">
-        <v>-1</v>
-      </c>
-      <c r="X324">
-        <v>2.75</v>
-      </c>
-      <c r="Y324">
-        <v>-1</v>
-      </c>
-      <c r="Z324">
-        <v>-1</v>
-      </c>
-      <c r="AA324">
-        <v>0.8</v>
-      </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC324">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29491,7 +29491,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>7629926</v>
+        <v>7630830</v>
       </c>
       <c r="C326" t="s">
         <v>28</v>
@@ -29503,73 +29503,73 @@
         <v>45354.02083333334</v>
       </c>
       <c r="F326" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G326" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J326" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K326">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L326">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M326">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="N326">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O326">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P326">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="Q326">
         <v>-0.25</v>
       </c>
       <c r="R326">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S326">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T326">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U326">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V326">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W326">
         <v>-1</v>
       </c>
       <c r="X326">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y326">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA326">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB326">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC326">
         <v>-1</v>
@@ -29669,7 +29669,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>7630830</v>
+        <v>7629926</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29681,73 +29681,73 @@
         <v>45354.02083333334</v>
       </c>
       <c r="F328" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G328" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J328" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K328">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L328">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M328">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="N328">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O328">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P328">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="Q328">
         <v>-0.25</v>
       </c>
       <c r="R328">
+        <v>2.05</v>
+      </c>
+      <c r="S328">
+        <v>1.8</v>
+      </c>
+      <c r="T328">
+        <v>3</v>
+      </c>
+      <c r="U328">
+        <v>1.975</v>
+      </c>
+      <c r="V328">
         <v>1.875</v>
       </c>
-      <c r="S328">
-        <v>1.975</v>
-      </c>
-      <c r="T328">
-        <v>2.75</v>
-      </c>
-      <c r="U328">
-        <v>1.825</v>
-      </c>
-      <c r="V328">
-        <v>2.025</v>
-      </c>
       <c r="W328">
         <v>-1</v>
       </c>
       <c r="X328">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z328">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA328">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB328">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC328">
         <v>-1</v>
@@ -30025,7 +30025,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7630836</v>
+        <v>7630835</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30037,13 +30037,13 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F332" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G332" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I332">
         <v>1</v>
@@ -30052,43 +30052,43 @@
         <v>59</v>
       </c>
       <c r="K332">
+        <v>1.8</v>
+      </c>
+      <c r="L332">
+        <v>4</v>
+      </c>
+      <c r="M332">
+        <v>3.8</v>
+      </c>
+      <c r="N332">
         <v>1.7</v>
       </c>
-      <c r="L332">
-        <v>3.6</v>
-      </c>
-      <c r="M332">
-        <v>5</v>
-      </c>
-      <c r="N332">
-        <v>1.533</v>
-      </c>
       <c r="O332">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P332">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="Q332">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R332">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S332">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T332">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U332">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V332">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W332">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X332">
         <v>-1</v>
@@ -30097,13 +30097,13 @@
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA332">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC332">
         <v>-1</v>
@@ -30114,7 +30114,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7630835</v>
+        <v>7630836</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30126,13 +30126,13 @@
         <v>45360.89583333334</v>
       </c>
       <c r="F333" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G333" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H333">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I333">
         <v>1</v>
@@ -30141,43 +30141,43 @@
         <v>59</v>
       </c>
       <c r="K333">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L333">
+        <v>3.6</v>
+      </c>
+      <c r="M333">
+        <v>5</v>
+      </c>
+      <c r="N333">
+        <v>1.533</v>
+      </c>
+      <c r="O333">
         <v>4</v>
       </c>
-      <c r="M333">
-        <v>3.8</v>
-      </c>
-      <c r="N333">
-        <v>1.7</v>
-      </c>
-      <c r="O333">
-        <v>4.2</v>
-      </c>
       <c r="P333">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="Q333">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R333">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S333">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T333">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U333">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V333">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W333">
-        <v>0.7</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30186,13 +30186,13 @@
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB333">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC333">
         <v>-1</v>
@@ -31004,7 +31004,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7629930</v>
+        <v>7630844</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -31016,73 +31016,73 @@
         <v>45367.625</v>
       </c>
       <c r="F343" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G343" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H343">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I343">
         <v>3</v>
       </c>
       <c r="J343" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K343">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="L343">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M343">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="N343">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O343">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P343">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q343">
         <v>-0.5</v>
       </c>
       <c r="R343">
+        <v>1.875</v>
+      </c>
+      <c r="S343">
+        <v>1.975</v>
+      </c>
+      <c r="T343">
+        <v>2.75</v>
+      </c>
+      <c r="U343">
+        <v>1.9</v>
+      </c>
+      <c r="V343">
         <v>1.95</v>
       </c>
-      <c r="S343">
-        <v>1.9</v>
-      </c>
-      <c r="T343">
-        <v>2.5</v>
-      </c>
-      <c r="U343">
-        <v>1.825</v>
-      </c>
-      <c r="V343">
-        <v>2.025</v>
-      </c>
       <c r="W343">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X343">
         <v>-1</v>
       </c>
       <c r="Y343">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z343">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA343">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB343">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC343">
         <v>-1</v>
@@ -31093,7 +31093,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7630844</v>
+        <v>7629930</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31105,73 +31105,73 @@
         <v>45367.625</v>
       </c>
       <c r="F344" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G344" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I344">
         <v>3</v>
       </c>
       <c r="J344" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K344">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="L344">
+        <v>3.3</v>
+      </c>
+      <c r="M344">
+        <v>3.1</v>
+      </c>
+      <c r="N344">
+        <v>1.95</v>
+      </c>
+      <c r="O344">
         <v>3.6</v>
       </c>
-      <c r="M344">
-        <v>2.1</v>
-      </c>
-      <c r="N344">
-        <v>1.833</v>
-      </c>
-      <c r="O344">
+      <c r="P344">
         <v>3.8</v>
-      </c>
-      <c r="P344">
-        <v>4</v>
       </c>
       <c r="Q344">
         <v>-0.5</v>
       </c>
       <c r="R344">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S344">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T344">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U344">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V344">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W344">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA344">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC344">
         <v>-1</v>
@@ -31449,7 +31449,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>7630850</v>
+        <v>7630851</v>
       </c>
       <c r="C348" t="s">
         <v>28</v>
@@ -31461,58 +31461,58 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F348" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G348" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H348">
         <v>2</v>
       </c>
       <c r="I348">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348" t="s">
         <v>59</v>
       </c>
       <c r="K348">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="L348">
         <v>3.4</v>
       </c>
       <c r="M348">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N348">
+        <v>2.1</v>
+      </c>
+      <c r="O348">
         <v>3.3</v>
       </c>
-      <c r="O348">
-        <v>3.5</v>
-      </c>
       <c r="P348">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q348">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R348">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S348">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T348">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U348">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V348">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W348">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="X348">
         <v>-1</v>
@@ -31521,16 +31521,16 @@
         <v>-1</v>
       </c>
       <c r="Z348">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA348">
         <v>-1</v>
       </c>
       <c r="AB348">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC348">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:29">
@@ -31538,7 +31538,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>7629932</v>
+        <v>7629931</v>
       </c>
       <c r="C349" t="s">
         <v>28</v>
@@ -31550,16 +31550,16 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F349" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G349" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J349" t="s">
         <v>59</v>
@@ -31568,40 +31568,40 @@
         <v>1.8</v>
       </c>
       <c r="L349">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M349">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N349">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="O349">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P349">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q349">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R349">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S349">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T349">
         <v>2.5</v>
       </c>
       <c r="U349">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V349">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W349">
-        <v>0.7270000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X349">
         <v>-1</v>
@@ -31610,16 +31610,16 @@
         <v>-1</v>
       </c>
       <c r="Z349">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AA349">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB349">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC349">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:29">
@@ -31627,7 +31627,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7630848</v>
+        <v>7630849</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31639,73 +31639,73 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F350" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G350" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J350" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K350">
         <v>2.5</v>
       </c>
       <c r="L350">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M350">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="N350">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O350">
         <v>3.4</v>
       </c>
       <c r="P350">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q350">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R350">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S350">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T350">
         <v>2.5</v>
       </c>
       <c r="U350">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V350">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W350">
         <v>-1</v>
       </c>
       <c r="X350">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z350">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB350">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC350">
         <v>-1</v>
@@ -31716,7 +31716,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7629931</v>
+        <v>7630848</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31728,76 +31728,76 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F351" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G351" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J351" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K351">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L351">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M351">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N351">
+        <v>3.2</v>
+      </c>
+      <c r="O351">
+        <v>3.4</v>
+      </c>
+      <c r="P351">
+        <v>2.25</v>
+      </c>
+      <c r="Q351">
+        <v>0.25</v>
+      </c>
+      <c r="R351">
         <v>1.85</v>
       </c>
-      <c r="O351">
-        <v>3.75</v>
-      </c>
-      <c r="P351">
-        <v>4.2</v>
-      </c>
-      <c r="Q351">
-        <v>-0.5</v>
-      </c>
-      <c r="R351">
-        <v>1.825</v>
-      </c>
       <c r="S351">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V351">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W351">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y351">
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC351">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31805,7 +31805,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>7630851</v>
+        <v>7629932</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31817,10 +31817,10 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F352" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G352" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H352">
         <v>2</v>
@@ -31832,58 +31832,58 @@
         <v>59</v>
       </c>
       <c r="K352">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L352">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M352">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N352">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O352">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P352">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q352">
+        <v>-0.75</v>
+      </c>
+      <c r="R352">
+        <v>1.975</v>
+      </c>
+      <c r="S352">
+        <v>1.875</v>
+      </c>
+      <c r="T352">
+        <v>2.5</v>
+      </c>
+      <c r="U352">
+        <v>1.825</v>
+      </c>
+      <c r="V352">
+        <v>2.025</v>
+      </c>
+      <c r="W352">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X352">
+        <v>-1</v>
+      </c>
+      <c r="Y352">
+        <v>-1</v>
+      </c>
+      <c r="Z352">
+        <v>0.4875</v>
+      </c>
+      <c r="AA352">
         <v>-0.5</v>
       </c>
-      <c r="R352">
-        <v>2.05</v>
-      </c>
-      <c r="S352">
-        <v>1.8</v>
-      </c>
-      <c r="T352">
-        <v>2</v>
-      </c>
-      <c r="U352">
-        <v>1.75</v>
-      </c>
-      <c r="V352">
-        <v>2.05</v>
-      </c>
-      <c r="W352">
-        <v>1.1</v>
-      </c>
-      <c r="X352">
-        <v>-1</v>
-      </c>
-      <c r="Y352">
-        <v>-1</v>
-      </c>
-      <c r="Z352">
-        <v>1.05</v>
-      </c>
-      <c r="AA352">
-        <v>-1</v>
-      </c>
       <c r="AB352">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -31894,7 +31894,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>7630849</v>
+        <v>7630850</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31906,49 +31906,49 @@
         <v>45367.89583333334</v>
       </c>
       <c r="F353" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G353" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K353">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L353">
         <v>3.4</v>
       </c>
       <c r="M353">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N353">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="O353">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P353">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q353">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R353">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="S353">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T353">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U353">
         <v>1.975</v>
@@ -31957,25 +31957,25 @@
         <v>1.875</v>
       </c>
       <c r="W353">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X353">
         <v>-1</v>
       </c>
       <c r="Y353">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA353">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32873,7 +32873,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7630860</v>
+        <v>7629935</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32885,73 +32885,73 @@
         <v>45374.89583333334</v>
       </c>
       <c r="F364" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G364" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H364">
         <v>2</v>
       </c>
       <c r="I364">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J364" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K364">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L364">
+        <v>3.75</v>
+      </c>
+      <c r="M364">
         <v>3.5</v>
       </c>
-      <c r="M364">
-        <v>3.3</v>
-      </c>
       <c r="N364">
+        <v>2.3</v>
+      </c>
+      <c r="O364">
+        <v>3.5</v>
+      </c>
+      <c r="P364">
+        <v>3</v>
+      </c>
+      <c r="Q364">
+        <v>-0.25</v>
+      </c>
+      <c r="R364">
+        <v>2</v>
+      </c>
+      <c r="S364">
         <v>1.85</v>
       </c>
-      <c r="O364">
-        <v>3.8</v>
-      </c>
-      <c r="P364">
-        <v>4</v>
-      </c>
-      <c r="Q364">
-        <v>-0.5</v>
-      </c>
-      <c r="R364">
-        <v>1.9</v>
-      </c>
-      <c r="S364">
-        <v>1.95</v>
-      </c>
       <c r="T364">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U364">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V364">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W364">
         <v>-1</v>
       </c>
       <c r="X364">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z364">
         <v>-1</v>
       </c>
       <c r="AA364">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB364">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC364">
         <v>-1</v>
@@ -32962,7 +32962,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7629935</v>
+        <v>7630860</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32974,73 +32974,73 @@
         <v>45374.89583333334</v>
       </c>
       <c r="F365" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G365" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H365">
         <v>2</v>
       </c>
       <c r="I365">
+        <v>2</v>
+      </c>
+      <c r="J365" t="s">
+        <v>58</v>
+      </c>
+      <c r="K365">
+        <v>2.1</v>
+      </c>
+      <c r="L365">
+        <v>3.5</v>
+      </c>
+      <c r="M365">
+        <v>3.3</v>
+      </c>
+      <c r="N365">
+        <v>1.85</v>
+      </c>
+      <c r="O365">
+        <v>3.8</v>
+      </c>
+      <c r="P365">
+        <v>4</v>
+      </c>
+      <c r="Q365">
+        <v>-0.5</v>
+      </c>
+      <c r="R365">
+        <v>1.9</v>
+      </c>
+      <c r="S365">
+        <v>1.95</v>
+      </c>
+      <c r="T365">
         <v>3</v>
       </c>
-      <c r="J365" t="s">
-        <v>60</v>
-      </c>
-      <c r="K365">
-        <v>1.95</v>
-      </c>
-      <c r="L365">
-        <v>3.75</v>
-      </c>
-      <c r="M365">
-        <v>3.5</v>
-      </c>
-      <c r="N365">
-        <v>2.3</v>
-      </c>
-      <c r="O365">
-        <v>3.5</v>
-      </c>
-      <c r="P365">
-        <v>3</v>
-      </c>
-      <c r="Q365">
-        <v>-0.25</v>
-      </c>
-      <c r="R365">
-        <v>2</v>
-      </c>
-      <c r="S365">
-        <v>1.85</v>
-      </c>
-      <c r="T365">
-        <v>2.75</v>
-      </c>
       <c r="U365">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V365">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W365">
         <v>-1</v>
       </c>
       <c r="X365">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y365">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z365">
         <v>-1</v>
       </c>
       <c r="AA365">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB365">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC365">
         <v>-1</v>
@@ -33229,7 +33229,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7630863</v>
+        <v>7630861</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33241,58 +33241,58 @@
         <v>45374.97916666666</v>
       </c>
       <c r="F368" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G368" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H368">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I368">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J368" t="s">
         <v>59</v>
       </c>
       <c r="K368">
+        <v>1.533</v>
+      </c>
+      <c r="L368">
+        <v>4</v>
+      </c>
+      <c r="M368">
+        <v>6.5</v>
+      </c>
+      <c r="N368">
+        <v>1.45</v>
+      </c>
+      <c r="O368">
+        <v>4.333</v>
+      </c>
+      <c r="P368">
+        <v>7.5</v>
+      </c>
+      <c r="Q368">
+        <v>-1.25</v>
+      </c>
+      <c r="R368">
+        <v>2.025</v>
+      </c>
+      <c r="S368">
+        <v>1.825</v>
+      </c>
+      <c r="T368">
         <v>2.75</v>
       </c>
-      <c r="L368">
-        <v>3.2</v>
-      </c>
-      <c r="M368">
-        <v>2.625</v>
-      </c>
-      <c r="N368">
-        <v>2.5</v>
-      </c>
-      <c r="O368">
-        <v>3.25</v>
-      </c>
-      <c r="P368">
-        <v>2.875</v>
-      </c>
-      <c r="Q368">
-        <v>0</v>
-      </c>
-      <c r="R368">
+      <c r="U368">
+        <v>2.025</v>
+      </c>
+      <c r="V368">
         <v>1.825</v>
       </c>
-      <c r="S368">
-        <v>2.025</v>
-      </c>
-      <c r="T368">
-        <v>2.25</v>
-      </c>
-      <c r="U368">
-        <v>1.975</v>
-      </c>
-      <c r="V368">
-        <v>1.875</v>
-      </c>
       <c r="W368">
-        <v>1.5</v>
+        <v>0.45</v>
       </c>
       <c r="X368">
         <v>-1</v>
@@ -33301,13 +33301,13 @@
         <v>-1</v>
       </c>
       <c r="Z368">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA368">
         <v>-1</v>
       </c>
       <c r="AB368">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -33318,7 +33318,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>7630861</v>
+        <v>7630863</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33330,58 +33330,58 @@
         <v>45374.97916666666</v>
       </c>
       <c r="F369" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G369" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H369">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I369">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J369" t="s">
         <v>59</v>
       </c>
       <c r="K369">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="L369">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M369">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N369">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O369">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P369">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q369">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R369">
+        <v>1.825</v>
+      </c>
+      <c r="S369">
         <v>2.025</v>
       </c>
-      <c r="S369">
-        <v>1.825</v>
-      </c>
       <c r="T369">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U369">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V369">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W369">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="X369">
         <v>-1</v>
@@ -33390,13 +33390,13 @@
         <v>-1</v>
       </c>
       <c r="Z369">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA369">
         <v>-1</v>
       </c>
       <c r="AB369">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC369">
         <v>-1</v>
@@ -33585,7 +33585,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7630867</v>
+        <v>7629937</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33597,76 +33597,76 @@
         <v>45381.85416666666</v>
       </c>
       <c r="F372" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G372" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H372">
         <v>1</v>
       </c>
       <c r="I372">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J372" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K372">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L372">
         <v>3.4</v>
       </c>
       <c r="M372">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N372">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="O372">
         <v>3.25</v>
       </c>
       <c r="P372">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q372">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S372">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T372">
         <v>2.25</v>
       </c>
       <c r="U372">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V372">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W372">
         <v>-1</v>
       </c>
       <c r="X372">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z372">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB372">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC372">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33674,7 +33674,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>7629937</v>
+        <v>7630868</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33686,76 +33686,76 @@
         <v>45381.85416666666</v>
       </c>
       <c r="F373" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G373" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H373">
         <v>1</v>
       </c>
       <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373" t="s">
+        <v>59</v>
+      </c>
+      <c r="K373">
+        <v>1.75</v>
+      </c>
+      <c r="L373">
+        <v>4</v>
+      </c>
+      <c r="M373">
+        <v>4.1</v>
+      </c>
+      <c r="N373">
+        <v>1.8</v>
+      </c>
+      <c r="O373">
+        <v>4.2</v>
+      </c>
+      <c r="P373">
+        <v>3.8</v>
+      </c>
+      <c r="Q373">
+        <v>-0.75</v>
+      </c>
+      <c r="R373">
+        <v>2.025</v>
+      </c>
+      <c r="S373">
+        <v>1.825</v>
+      </c>
+      <c r="T373">
         <v>3</v>
       </c>
-      <c r="J373" t="s">
-        <v>60</v>
-      </c>
-      <c r="K373">
-        <v>2.5</v>
-      </c>
-      <c r="L373">
-        <v>3.4</v>
-      </c>
-      <c r="M373">
-        <v>2.8</v>
-      </c>
-      <c r="N373">
-        <v>2.4</v>
-      </c>
-      <c r="O373">
-        <v>3.25</v>
-      </c>
-      <c r="P373">
-        <v>3</v>
-      </c>
-      <c r="Q373">
-        <v>-0.25</v>
-      </c>
-      <c r="R373">
-        <v>2.05</v>
-      </c>
-      <c r="S373">
-        <v>1.8</v>
-      </c>
-      <c r="T373">
-        <v>2.25</v>
-      </c>
       <c r="U373">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V373">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W373">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA373">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB373">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC373">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33763,7 +33763,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>7630868</v>
+        <v>7630867</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33775,76 +33775,76 @@
         <v>45381.85416666666</v>
       </c>
       <c r="F374" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G374" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H374">
         <v>1</v>
       </c>
       <c r="I374">
+        <v>1</v>
+      </c>
+      <c r="J374" t="s">
+        <v>58</v>
+      </c>
+      <c r="K374">
+        <v>2.15</v>
+      </c>
+      <c r="L374">
+        <v>3.4</v>
+      </c>
+      <c r="M374">
+        <v>3.25</v>
+      </c>
+      <c r="N374">
+        <v>2.625</v>
+      </c>
+      <c r="O374">
+        <v>3.25</v>
+      </c>
+      <c r="P374">
+        <v>2.7</v>
+      </c>
+      <c r="Q374">
         <v>0</v>
       </c>
-      <c r="J374" t="s">
-        <v>59</v>
-      </c>
-      <c r="K374">
-        <v>1.75</v>
-      </c>
-      <c r="L374">
-        <v>4</v>
-      </c>
-      <c r="M374">
-        <v>4.1</v>
-      </c>
-      <c r="N374">
-        <v>1.8</v>
-      </c>
-      <c r="O374">
-        <v>4.2</v>
-      </c>
-      <c r="P374">
-        <v>3.8</v>
-      </c>
-      <c r="Q374">
-        <v>-0.75</v>
-      </c>
       <c r="R374">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S374">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T374">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V374">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W374">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X374">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y374">
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA374">
+        <v>-0</v>
+      </c>
+      <c r="AB374">
         <v>-0.5</v>
       </c>
-      <c r="AB374">
-        <v>-1</v>
-      </c>
       <c r="AC374">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -34030,7 +34030,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>7630871</v>
+        <v>7630872</v>
       </c>
       <c r="C377" t="s">
         <v>28</v>
@@ -34042,73 +34042,73 @@
         <v>45381.89583333334</v>
       </c>
       <c r="F377" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G377" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H377">
         <v>2</v>
       </c>
       <c r="I377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J377" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K377">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="L377">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M377">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N377">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="O377">
         <v>3.4</v>
       </c>
       <c r="P377">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q377">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R377">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S377">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T377">
         <v>2.5</v>
       </c>
       <c r="U377">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V377">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W377">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X377">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y377">
         <v>-1</v>
       </c>
       <c r="Z377">
-        <v>1.1</v>
+        <v>0.425</v>
       </c>
       <c r="AA377">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB377">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC377">
         <v>-1</v>
@@ -34119,7 +34119,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>7630872</v>
+        <v>7630871</v>
       </c>
       <c r="C378" t="s">
         <v>28</v>
@@ -34131,73 +34131,73 @@
         <v>45381.89583333334</v>
       </c>
       <c r="F378" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="G378" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H378">
         <v>2</v>
       </c>
       <c r="I378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J378" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K378">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="L378">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M378">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N378">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="O378">
         <v>3.4</v>
       </c>
       <c r="P378">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q378">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R378">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S378">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T378">
         <v>2.5</v>
       </c>
       <c r="U378">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V378">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W378">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X378">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y378">
         <v>-1</v>
       </c>
       <c r="Z378">
-        <v>0.425</v>
+        <v>1.1</v>
       </c>
       <c r="AA378">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB378">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC378">
         <v>-1</v>
@@ -34653,7 +34653,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7629941</v>
+        <v>7630879</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34665,46 +34665,46 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F384" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G384" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K384">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L384">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M384">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N384">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O384">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P384">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q384">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R384">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S384">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T384">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U384">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V384">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W384">
         <v>0</v>
@@ -34727,7 +34727,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>7630875</v>
+        <v>8038962</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34739,46 +34739,46 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F385" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G385" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="K385">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="L385">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M385">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N385">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O385">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P385">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q385">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R385">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S385">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T385">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U385">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V385">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W385">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7630876</v>
+        <v>7630877</v>
       </c>
       <c r="C386" t="s">
         <v>28</v>
@@ -34813,10 +34813,10 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F386" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G386" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K386">
         <v>1.615</v>
@@ -34828,16 +34828,16 @@
         <v>5</v>
       </c>
       <c r="N386">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O386">
+        <v>3.8</v>
+      </c>
+      <c r="P386">
         <v>4</v>
       </c>
-      <c r="P386">
-        <v>5</v>
-      </c>
       <c r="Q386">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R386">
         <v>2.05</v>
@@ -34846,13 +34846,13 @@
         <v>1.8</v>
       </c>
       <c r="T386">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U386">
+        <v>1.875</v>
+      </c>
+      <c r="V386">
         <v>1.975</v>
-      </c>
-      <c r="V386">
-        <v>1.875</v>
       </c>
       <c r="W386">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7630878</v>
+        <v>7630876</v>
       </c>
       <c r="C387" t="s">
         <v>28</v>
@@ -34887,46 +34887,46 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F387" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G387" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K387">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="L387">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M387">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N387">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O387">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P387">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q387">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R387">
+        <v>1.825</v>
+      </c>
+      <c r="S387">
         <v>2.025</v>
       </c>
-      <c r="S387">
-        <v>1.825</v>
-      </c>
       <c r="T387">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U387">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V387">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W387">
         <v>0</v>
@@ -34949,7 +34949,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7630879</v>
+        <v>7630875</v>
       </c>
       <c r="C388" t="s">
         <v>28</v>
@@ -34961,46 +34961,46 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F388" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G388" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K388">
         <v>2.15</v>
       </c>
       <c r="L388">
+        <v>3.25</v>
+      </c>
+      <c r="M388">
         <v>3.5</v>
       </c>
-      <c r="M388">
-        <v>3.2</v>
-      </c>
       <c r="N388">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O388">
+        <v>3.25</v>
+      </c>
+      <c r="P388">
         <v>3.5</v>
-      </c>
-      <c r="P388">
-        <v>3.1</v>
       </c>
       <c r="Q388">
         <v>-0.25</v>
       </c>
       <c r="R388">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S388">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T388">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U388">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V388">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W388">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>8038962</v>
+        <v>7629941</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35035,46 +35035,46 @@
         <v>45388.85416666666</v>
       </c>
       <c r="F389" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G389" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K389">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L389">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M389">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N389">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O389">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P389">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q389">
         <v>-0.75</v>
       </c>
       <c r="R389">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S389">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T389">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U389">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V389">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W389">
         <v>0</v>
@@ -35097,7 +35097,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>7630883</v>
+        <v>7630878</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35106,49 +35106,49 @@
         <v>28</v>
       </c>
       <c r="E390" s="2">
-        <v>45388.89583333334</v>
+        <v>45388.85416666666</v>
       </c>
       <c r="F390" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G390" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K390">
+        <v>1.95</v>
+      </c>
+      <c r="L390">
+        <v>3.5</v>
+      </c>
+      <c r="M390">
+        <v>3.8</v>
+      </c>
+      <c r="N390">
+        <v>2</v>
+      </c>
+      <c r="O390">
+        <v>3.5</v>
+      </c>
+      <c r="P390">
+        <v>3.6</v>
+      </c>
+      <c r="Q390">
+        <v>-0.5</v>
+      </c>
+      <c r="R390">
+        <v>2.025</v>
+      </c>
+      <c r="S390">
+        <v>1.825</v>
+      </c>
+      <c r="T390">
+        <v>2.5</v>
+      </c>
+      <c r="U390">
         <v>1.85</v>
       </c>
-      <c r="L390">
-        <v>3.6</v>
-      </c>
-      <c r="M390">
-        <v>4.2</v>
-      </c>
-      <c r="N390">
-        <v>1.8</v>
-      </c>
-      <c r="O390">
-        <v>3.75</v>
-      </c>
-      <c r="P390">
-        <v>4.5</v>
-      </c>
-      <c r="Q390">
-        <v>-0.75</v>
-      </c>
-      <c r="R390">
-        <v>2</v>
-      </c>
-      <c r="S390">
-        <v>1.85</v>
-      </c>
-      <c r="T390">
-        <v>2.75</v>
-      </c>
-      <c r="U390">
-        <v>1.975</v>
-      </c>
       <c r="V390">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W390">
         <v>0</v>
@@ -35171,7 +35171,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7630882</v>
+        <v>7629942</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35183,46 +35183,46 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F391" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G391" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="K391">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="L391">
         <v>3.25</v>
       </c>
       <c r="M391">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N391">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O391">
         <v>3.25</v>
       </c>
       <c r="P391">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q391">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R391">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S391">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T391">
         <v>2.5</v>
       </c>
       <c r="U391">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V391">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W391">
         <v>0</v>
@@ -35284,10 +35284,10 @@
         <v>-0.25</v>
       </c>
       <c r="R392">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S392">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T392">
         <v>2.5</v>
@@ -35319,7 +35319,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7629942</v>
+        <v>7630881</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35331,46 +35331,46 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F393" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G393" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K393">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L393">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M393">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N393">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O393">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P393">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q393">
         <v>-0.25</v>
       </c>
       <c r="R393">
+        <v>1.875</v>
+      </c>
+      <c r="S393">
         <v>1.975</v>
       </c>
-      <c r="S393">
+      <c r="T393">
+        <v>2.75</v>
+      </c>
+      <c r="U393">
         <v>1.875</v>
       </c>
-      <c r="T393">
-        <v>2.5</v>
-      </c>
-      <c r="U393">
-        <v>2</v>
-      </c>
       <c r="V393">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W393">
         <v>0</v>
@@ -35393,7 +35393,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7630881</v>
+        <v>7630882</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35405,46 +35405,46 @@
         <v>45388.89583333334</v>
       </c>
       <c r="F394" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G394" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K394">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L394">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M394">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="N394">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O394">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P394">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q394">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R394">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S394">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T394">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U394">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V394">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W394">
         <v>0</v>
@@ -35467,7 +35467,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7630884</v>
+        <v>7630883</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35476,43 +35476,43 @@
         <v>28</v>
       </c>
       <c r="E395" s="2">
-        <v>45388.97916666666</v>
+        <v>45388.89583333334</v>
       </c>
       <c r="F395" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G395" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K395">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L395">
+        <v>3.6</v>
+      </c>
+      <c r="M395">
+        <v>4.2</v>
+      </c>
+      <c r="N395">
+        <v>1.8</v>
+      </c>
+      <c r="O395">
         <v>3.75</v>
       </c>
-      <c r="M395">
-        <v>4.75</v>
-      </c>
-      <c r="N395">
-        <v>1.75</v>
-      </c>
-      <c r="O395">
-        <v>3.6</v>
-      </c>
       <c r="P395">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q395">
         <v>-0.75</v>
       </c>
       <c r="R395">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S395">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T395">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U395">
         <v>1.975</v>
@@ -35541,7 +35541,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7629943</v>
+        <v>7630884</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35550,43 +35550,43 @@
         <v>28</v>
       </c>
       <c r="E396" s="2">
-        <v>45389.60416666666</v>
+        <v>45388.97916666666</v>
       </c>
       <c r="F396" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G396" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K396">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="L396">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M396">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N396">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O396">
         <v>3.6</v>
       </c>
       <c r="P396">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q396">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R396">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S396">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T396">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U396">
         <v>1.925</v>
@@ -35607,6 +35607,80 @@
         <v>0</v>
       </c>
       <c r="AA396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:27">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <v>7629943</v>
+      </c>
+      <c r="C397" t="s">
+        <v>28</v>
+      </c>
+      <c r="D397" t="s">
+        <v>28</v>
+      </c>
+      <c r="E397" s="2">
+        <v>45389.60416666666</v>
+      </c>
+      <c r="F397" t="s">
+        <v>50</v>
+      </c>
+      <c r="G397" t="s">
+        <v>54</v>
+      </c>
+      <c r="K397">
+        <v>1.95</v>
+      </c>
+      <c r="L397">
+        <v>3.6</v>
+      </c>
+      <c r="M397">
+        <v>3.6</v>
+      </c>
+      <c r="N397">
+        <v>1.85</v>
+      </c>
+      <c r="O397">
+        <v>3.6</v>
+      </c>
+      <c r="P397">
+        <v>3.75</v>
+      </c>
+      <c r="Q397">
+        <v>-0.5</v>
+      </c>
+      <c r="R397">
+        <v>1.875</v>
+      </c>
+      <c r="S397">
+        <v>1.975</v>
+      </c>
+      <c r="T397">
+        <v>2.75</v>
+      </c>
+      <c r="U397">
+        <v>1.9</v>
+      </c>
+      <c r="V397">
+        <v>1.95</v>
+      </c>
+      <c r="W397">
+        <v>0</v>
+      </c>
+      <c r="X397">
+        <v>0</v>
+      </c>
+      <c r="Y397">
+        <v>0</v>
+      </c>
+      <c r="Z397">
+        <v>0</v>
+      </c>
+      <c r="AA397">
         <v>0</v>
       </c>
     </row>

--- a/USA MLS/USA MLS.xlsx
+++ b/USA MLS/USA MLS.xlsx
@@ -103,7 +103,7 @@
     <t>7630921</t>
   </si>
   <si>
-    <t>7630920</t>
+    <t>7630919</t>
   </si>
   <si>
     <t>7630918</t>
@@ -115,7 +115,7 @@
     <t>7630916</t>
   </si>
   <si>
-    <t>7630919</t>
+    <t>7630920</t>
   </si>
   <si>
     <t>7629956</t>
@@ -3701,7 +3701,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6063274</v>
+        <v>6062088</v>
       </c>
       <c r="C37" t="s">
         <v>41</v>
@@ -3710,40 +3710,40 @@
         <v>45098.85416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J37">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="K37">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L37">
         <v>4.5</v>
       </c>
       <c r="M37">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="N37">
         <v>3.75</v>
       </c>
       <c r="O37">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P37">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -3752,34 +3752,34 @@
         <v>1.85</v>
       </c>
       <c r="S37">
+        <v>2.25</v>
+      </c>
+      <c r="T37">
+        <v>1.9</v>
+      </c>
+      <c r="U37">
+        <v>1.95</v>
+      </c>
+      <c r="V37">
+        <v>-1</v>
+      </c>
+      <c r="W37">
         <v>2.75</v>
       </c>
-      <c r="T37">
-        <v>1.875</v>
-      </c>
-      <c r="U37">
-        <v>1.975</v>
-      </c>
-      <c r="V37">
-        <v>0.95</v>
-      </c>
-      <c r="W37">
-        <v>-1</v>
-      </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA37">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3787,7 +3787,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6062088</v>
+        <v>6063273</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -3796,10 +3796,10 @@
         <v>45098.85416666666</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3814,31 +3814,31 @@
         <v>1.7</v>
       </c>
       <c r="K38">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L38">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M38">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="N38">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O38">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P38">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R38">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S38">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T38">
         <v>1.9</v>
@@ -3850,16 +3850,16 @@
         <v>-1</v>
       </c>
       <c r="W38">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z38">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AA38">
         <v>0.8999999999999999</v>
@@ -3873,7 +3873,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6063273</v>
+        <v>6063274</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -3882,76 +3882,76 @@
         <v>45098.85416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J39">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K39">
         <v>3.8</v>
       </c>
       <c r="L39">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M39">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N39">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O39">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="P39">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q39">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S39">
         <v>2.75</v>
       </c>
       <c r="T39">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W39">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>0.4375</v>
+      </c>
+      <c r="AB39">
         <v>-0.5</v>
-      </c>
-      <c r="Z39">
-        <v>0.3875</v>
-      </c>
-      <c r="AA39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -4389,7 +4389,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6062093</v>
+        <v>6063354</v>
       </c>
       <c r="C45" t="s">
         <v>41</v>
@@ -4398,31 +4398,31 @@
         <v>45098.97916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J45">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="K45">
         <v>3.4</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="N45">
         <v>3.8</v>
@@ -4434,40 +4434,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q45">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="R45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
         <v>2.75</v>
       </c>
       <c r="T45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z45">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -4561,7 +4561,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6063354</v>
+        <v>6062093</v>
       </c>
       <c r="C47" t="s">
         <v>41</v>
@@ -4570,31 +4570,31 @@
         <v>45098.97916666666</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J47">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="K47">
         <v>3.4</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N47">
         <v>3.8</v>
@@ -4606,40 +4606,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q47">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
         <v>2.75</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V47">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y47">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
+        <v>0.825</v>
+      </c>
+      <c r="AA47">
+        <v>0.45</v>
+      </c>
+      <c r="AB47">
         <v>-0.5</v>
-      </c>
-      <c r="AA47">
-        <v>-1</v>
-      </c>
-      <c r="AB47">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -4733,7 +4733,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6062094</v>
+        <v>6063280</v>
       </c>
       <c r="C49" t="s">
         <v>41</v>
@@ -4742,40 +4742,40 @@
         <v>45101.85416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="s">
         <v>72</v>
       </c>
       <c r="J49">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="K49">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L49">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M49">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="N49">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q49">
         <v>1.925</v>
@@ -4784,16 +4784,16 @@
         <v>1.925</v>
       </c>
       <c r="S49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T49">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V49">
-        <v>0.909</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4802,16 +4802,16 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -4819,7 +4819,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6062095</v>
+        <v>6062094</v>
       </c>
       <c r="C50" t="s">
         <v>41</v>
@@ -4828,13 +4828,13 @@
         <v>45101.85416666666</v>
       </c>
       <c r="E50" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4843,34 +4843,34 @@
         <v>72</v>
       </c>
       <c r="J50">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K50">
+        <v>3.5</v>
+      </c>
+      <c r="L50">
+        <v>3.8</v>
+      </c>
+      <c r="M50">
+        <v>1.909</v>
+      </c>
+      <c r="N50">
         <v>3.75</v>
       </c>
-      <c r="L50">
-        <v>3.3</v>
-      </c>
-      <c r="M50">
-        <v>1.85</v>
-      </c>
-      <c r="N50">
-        <v>3.8</v>
-      </c>
       <c r="O50">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P50">
         <v>-0.5</v>
       </c>
       <c r="Q50">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T50">
         <v>1.925</v>
@@ -4879,7 +4879,7 @@
         <v>1.925</v>
       </c>
       <c r="V50">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4888,16 +4888,16 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.925</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -4905,7 +4905,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6062096</v>
+        <v>6062095</v>
       </c>
       <c r="C51" t="s">
         <v>41</v>
@@ -4914,13 +4914,13 @@
         <v>45101.85416666666</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4929,43 +4929,43 @@
         <v>72</v>
       </c>
       <c r="J51">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="N51">
         <v>3.8</v>
       </c>
       <c r="O51">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P51">
         <v>-0.5</v>
       </c>
       <c r="Q51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S51">
         <v>2.5</v>
       </c>
       <c r="T51">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W51">
         <v>-1</v>
@@ -4974,13 +4974,13 @@
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
         <v>-1</v>
@@ -4991,7 +4991,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6063279</v>
+        <v>6062096</v>
       </c>
       <c r="C52" t="s">
         <v>41</v>
@@ -5000,76 +5000,76 @@
         <v>45101.85416666666</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J52">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="K52">
+        <v>3.6</v>
+      </c>
+      <c r="L52">
         <v>3.8</v>
       </c>
-      <c r="L52">
-        <v>4</v>
-      </c>
       <c r="M52">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O52">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P52">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q52">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S52">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T52">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W52">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -5077,7 +5077,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6063280</v>
+        <v>6063279</v>
       </c>
       <c r="C53" t="s">
         <v>41</v>
@@ -5086,76 +5086,76 @@
         <v>45101.85416666666</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53">
+        <v>1.85</v>
+      </c>
+      <c r="K53">
+        <v>3.8</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+      <c r="M53">
+        <v>1.666</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <v>4.75</v>
+      </c>
+      <c r="P53">
+        <v>-0.75</v>
+      </c>
+      <c r="Q53">
+        <v>1.85</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>2.75</v>
+      </c>
+      <c r="T53">
+        <v>1.85</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="V53">
+        <v>-1</v>
+      </c>
+      <c r="W53">
+        <v>3</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
         <v>1</v>
       </c>
-      <c r="I53" t="s">
-        <v>72</v>
-      </c>
-      <c r="J53">
-        <v>1.75</v>
-      </c>
-      <c r="K53">
-        <v>4</v>
-      </c>
-      <c r="L53">
-        <v>4.333</v>
-      </c>
-      <c r="M53">
-        <v>1.533</v>
-      </c>
-      <c r="N53">
-        <v>4.5</v>
-      </c>
-      <c r="O53">
-        <v>5.5</v>
-      </c>
-      <c r="P53">
-        <v>-1</v>
-      </c>
-      <c r="Q53">
-        <v>1.925</v>
-      </c>
-      <c r="R53">
-        <v>1.925</v>
-      </c>
-      <c r="S53">
-        <v>3</v>
-      </c>
-      <c r="T53">
-        <v>1.9</v>
-      </c>
-      <c r="U53">
-        <v>1.95</v>
-      </c>
-      <c r="V53">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
       <c r="AA53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -6797,7 +6797,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6062106</v>
+        <v>6062107</v>
       </c>
       <c r="C73" t="s">
         <v>41</v>
@@ -6806,49 +6806,49 @@
         <v>45108.97916666666</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J73">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="K73">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L73">
+        <v>4.2</v>
+      </c>
+      <c r="M73">
+        <v>1.85</v>
+      </c>
+      <c r="N73">
         <v>3.5</v>
       </c>
-      <c r="M73">
-        <v>2.2</v>
-      </c>
-      <c r="N73">
-        <v>3.8</v>
-      </c>
       <c r="O73">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P73">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q73">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T73">
         <v>2</v>
@@ -6857,25 +6857,25 @@
         <v>1.85</v>
       </c>
       <c r="V73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W73">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Z73">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6883,7 +6883,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6062107</v>
+        <v>6062106</v>
       </c>
       <c r="C74" t="s">
         <v>41</v>
@@ -6892,49 +6892,49 @@
         <v>45108.97916666666</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J74">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="K74">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L74">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q74">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T74">
         <v>2</v>
@@ -6943,25 +6943,25 @@
         <v>1.85</v>
       </c>
       <c r="V74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -8431,7 +8431,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6063356</v>
+        <v>6062118</v>
       </c>
       <c r="C92" t="s">
         <v>41</v>
@@ -8440,73 +8440,73 @@
         <v>45115.97916666666</v>
       </c>
       <c r="E92" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J92">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="K92">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M92">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N92">
         <v>3.6</v>
       </c>
       <c r="O92">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P92">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T92">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U92">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V92">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB92">
         <v>-1</v>
@@ -8517,7 +8517,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6062118</v>
+        <v>6063299</v>
       </c>
       <c r="C93" t="s">
         <v>41</v>
@@ -8526,76 +8526,76 @@
         <v>45115.97916666666</v>
       </c>
       <c r="E93" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J93">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="K93">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L93">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="M93">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N93">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="O93">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="Q93">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S93">
         <v>3</v>
       </c>
       <c r="T93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8603,7 +8603,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6063299</v>
+        <v>6063356</v>
       </c>
       <c r="C94" t="s">
         <v>41</v>
@@ -8612,76 +8612,76 @@
         <v>45115.97916666666</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F94" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J94">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="K94">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L94">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="N94">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O94">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="P94">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="R94">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T94">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V94">
         <v>-1</v>
       </c>
       <c r="W94">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:28">
@@ -11011,7 +11011,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6062134</v>
+        <v>6062135</v>
       </c>
       <c r="C122" t="s">
         <v>41</v>
@@ -11020,73 +11020,73 @@
         <v>45158.89583333334</v>
       </c>
       <c r="E122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J122">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="K122">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M122">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="N122">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q122">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R122">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
         <v>2.75</v>
       </c>
       <c r="T122">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB122">
         <v>-1</v>
@@ -11097,7 +11097,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6062135</v>
+        <v>6062134</v>
       </c>
       <c r="C123" t="s">
         <v>41</v>
@@ -11106,73 +11106,73 @@
         <v>45158.89583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F123" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G123">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J123">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="K123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L123">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N123">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q123">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
         <v>2.75</v>
       </c>
       <c r="T123">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U123">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
         <v>-1</v>
@@ -11269,7 +11269,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6063315</v>
+        <v>6063316</v>
       </c>
       <c r="C125" t="s">
         <v>41</v>
@@ -11278,34 +11278,34 @@
         <v>45158.97916666666</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F125" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="s">
         <v>73</v>
       </c>
       <c r="J125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K125">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M125">
         <v>1.75</v>
       </c>
       <c r="N125">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O125">
         <v>4.2</v>
@@ -11314,19 +11314,19 @@
         <v>-0.75</v>
       </c>
       <c r="Q125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T125">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
         <v>-1</v>
@@ -11341,13 +11341,13 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11355,7 +11355,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6063316</v>
+        <v>6063315</v>
       </c>
       <c r="C126" t="s">
         <v>41</v>
@@ -11364,34 +11364,34 @@
         <v>45158.97916666666</v>
       </c>
       <c r="E126" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="s">
         <v>73</v>
       </c>
       <c r="J126">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="K126">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L126">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M126">
         <v>1.75</v>
       </c>
       <c r="N126">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O126">
         <v>4.2</v>
@@ -11400,19 +11400,19 @@
         <v>-0.75</v>
       </c>
       <c r="Q126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R126">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T126">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V126">
         <v>-1</v>
@@ -11427,13 +11427,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -12731,7 +12731,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6063328</v>
+        <v>6062145</v>
       </c>
       <c r="C142" t="s">
         <v>41</v>
@@ -12740,58 +12740,58 @@
         <v>45168.85416666666</v>
       </c>
       <c r="E142" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
         <v>72</v>
       </c>
       <c r="J142">
-        <v>3.2</v>
+        <v>1.333</v>
       </c>
       <c r="K142">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="L142">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M142">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N142">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O142">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="P142">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q142">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R142">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S142">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T142">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
-        <v>2.6</v>
+        <v>1.45</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -12800,16 +12800,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12817,7 +12817,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6063327</v>
+        <v>6063324</v>
       </c>
       <c r="C143" t="s">
         <v>41</v>
@@ -12826,76 +12826,76 @@
         <v>45168.85416666666</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F143" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J143">
+        <v>2.1</v>
+      </c>
+      <c r="K143">
+        <v>3.4</v>
+      </c>
+      <c r="L143">
+        <v>2.875</v>
+      </c>
+      <c r="M143">
         <v>1.909</v>
       </c>
-      <c r="K143">
-        <v>3.25</v>
-      </c>
-      <c r="L143">
-        <v>3.5</v>
-      </c>
-      <c r="M143">
-        <v>1.7</v>
-      </c>
       <c r="N143">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O143">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q143">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T143">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB143">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:28">
@@ -13075,7 +13075,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6062145</v>
+        <v>6063327</v>
       </c>
       <c r="C146" t="s">
         <v>41</v>
@@ -13084,13 +13084,13 @@
         <v>45168.85416666666</v>
       </c>
       <c r="E146" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13099,31 +13099,31 @@
         <v>72</v>
       </c>
       <c r="J146">
-        <v>1.333</v>
+        <v>1.909</v>
       </c>
       <c r="K146">
+        <v>3.25</v>
+      </c>
+      <c r="L146">
+        <v>3.5</v>
+      </c>
+      <c r="M146">
+        <v>1.7</v>
+      </c>
+      <c r="N146">
+        <v>3.75</v>
+      </c>
+      <c r="O146">
         <v>4.5</v>
       </c>
-      <c r="L146">
-        <v>7</v>
-      </c>
-      <c r="M146">
-        <v>2.45</v>
-      </c>
-      <c r="N146">
-        <v>3.4</v>
-      </c>
-      <c r="O146">
-        <v>2.8</v>
-      </c>
       <c r="P146">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R146">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S146">
         <v>2.5</v>
@@ -13135,7 +13135,7 @@
         <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.45</v>
+        <v>0.7</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13144,7 +13144,7 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z146">
         <v>-1</v>
@@ -13161,7 +13161,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6063324</v>
+        <v>6063328</v>
       </c>
       <c r="C147" t="s">
         <v>41</v>
@@ -13170,76 +13170,76 @@
         <v>45168.85416666666</v>
       </c>
       <c r="E147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147">
         <v>1</v>
       </c>
-      <c r="H147">
-        <v>2</v>
-      </c>
       <c r="I147" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J147">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="K147">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L147">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="M147">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
         <v>4</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="P147">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q147">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R147">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S147">
         <v>3</v>
       </c>
       <c r="T147">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V147">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W147">
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z147">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:28">
@@ -13247,7 +13247,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6063329</v>
+        <v>6062148</v>
       </c>
       <c r="C148" t="s">
         <v>41</v>
@@ -13256,76 +13256,76 @@
         <v>45168.89583333334</v>
       </c>
       <c r="E148" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F148" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J148">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="K148">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L148">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M148">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="N148">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O148">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="P148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q148">
+        <v>1.975</v>
+      </c>
+      <c r="R148">
         <v>1.875</v>
       </c>
-      <c r="R148">
-        <v>1.975</v>
-      </c>
       <c r="S148">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T148">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:28">
@@ -13333,7 +13333,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6062147</v>
+        <v>6062149</v>
       </c>
       <c r="C149" t="s">
         <v>41</v>
@@ -13342,58 +13342,58 @@
         <v>45168.89583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F149" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G149">
         <v>2</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="s">
         <v>72</v>
       </c>
       <c r="J149">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="K149">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L149">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="M149">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="N149">
+        <v>3.5</v>
+      </c>
+      <c r="O149">
         <v>4</v>
-      </c>
-      <c r="O149">
-        <v>3.8</v>
       </c>
       <c r="P149">
         <v>-0.5</v>
       </c>
       <c r="Q149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R149">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T149">
+        <v>1.95</v>
+      </c>
+      <c r="U149">
         <v>1.9</v>
       </c>
-      <c r="U149">
-        <v>1.95</v>
-      </c>
       <c r="V149">
-        <v>0.8500000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="W149">
         <v>-1</v>
@@ -13402,16 +13402,16 @@
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13505,7 +13505,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6062149</v>
+        <v>6062147</v>
       </c>
       <c r="C151" t="s">
         <v>41</v>
@@ -13514,58 +13514,58 @@
         <v>45168.89583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F151" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G151">
         <v>2</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="s">
         <v>72</v>
       </c>
       <c r="J151">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="K151">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L151">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="M151">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="N151">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O151">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P151">
         <v>-0.5</v>
       </c>
       <c r="Q151">
+        <v>1.875</v>
+      </c>
+      <c r="R151">
+        <v>1.975</v>
+      </c>
+      <c r="S151">
+        <v>3</v>
+      </c>
+      <c r="T151">
+        <v>1.9</v>
+      </c>
+      <c r="U151">
         <v>1.95</v>
       </c>
-      <c r="R151">
-        <v>1.9</v>
-      </c>
-      <c r="S151">
-        <v>2.5</v>
-      </c>
-      <c r="T151">
-        <v>1.95</v>
-      </c>
-      <c r="U151">
-        <v>1.9</v>
-      </c>
       <c r="V151">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13574,16 +13574,16 @@
         <v>-1</v>
       </c>
       <c r="Y151">
+        <v>0.875</v>
+      </c>
+      <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>-1</v>
+      </c>
+      <c r="AB151">
         <v>0.95</v>
-      </c>
-      <c r="Z151">
-        <v>-1</v>
-      </c>
-      <c r="AA151">
-        <v>0.95</v>
-      </c>
-      <c r="AB151">
-        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13591,7 +13591,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6062148</v>
+        <v>6063329</v>
       </c>
       <c r="C152" t="s">
         <v>41</v>
@@ -13600,76 +13600,76 @@
         <v>45168.89583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F152" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J152">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="K152">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L152">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="N152">
+        <v>3.6</v>
+      </c>
+      <c r="O152">
         <v>4.2</v>
       </c>
-      <c r="O152">
-        <v>5.5</v>
-      </c>
       <c r="P152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q152">
+        <v>1.875</v>
+      </c>
+      <c r="R152">
         <v>1.975</v>
       </c>
-      <c r="R152">
+      <c r="S152">
+        <v>2.5</v>
+      </c>
+      <c r="T152">
         <v>1.875</v>
       </c>
-      <c r="S152">
-        <v>3</v>
-      </c>
-      <c r="T152">
-        <v>1.95</v>
-      </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y152">
+        <v>-1</v>
+      </c>
+      <c r="Z152">
         <v>0.9750000000000001</v>
       </c>
-      <c r="Z152">
-        <v>-1</v>
-      </c>
       <c r="AA152">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13677,7 +13677,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6063330</v>
+        <v>6062150</v>
       </c>
       <c r="C153" t="s">
         <v>41</v>
@@ -13686,76 +13686,76 @@
         <v>45168.97916666666</v>
       </c>
       <c r="E153" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F153" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G153">
         <v>2</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I153" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J153">
-        <v>2.25</v>
+        <v>1.533</v>
       </c>
       <c r="K153">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L153">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="M153">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="N153">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
         <v>-0.5</v>
       </c>
       <c r="Q153">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R153">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S153">
         <v>3</v>
       </c>
       <c r="T153">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA153">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13763,7 +13763,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6062150</v>
+        <v>6063330</v>
       </c>
       <c r="C154" t="s">
         <v>41</v>
@@ -13772,76 +13772,76 @@
         <v>45168.97916666666</v>
       </c>
       <c r="E154" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F154" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G154">
         <v>2</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J154">
-        <v>1.533</v>
+        <v>2.25</v>
       </c>
       <c r="K154">
+        <v>3.3</v>
+      </c>
+      <c r="L154">
+        <v>2.7</v>
+      </c>
+      <c r="M154">
+        <v>1.833</v>
+      </c>
+      <c r="N154">
         <v>3.75</v>
       </c>
-      <c r="L154">
-        <v>5</v>
-      </c>
-      <c r="M154">
-        <v>2</v>
-      </c>
-      <c r="N154">
-        <v>3.8</v>
-      </c>
       <c r="O154">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P154">
         <v>-0.5</v>
       </c>
       <c r="Q154">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R154">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S154">
         <v>3</v>
       </c>
       <c r="T154">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U154">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V154">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z154">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -16085,7 +16085,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6062164</v>
+        <v>6062166</v>
       </c>
       <c r="C181" t="s">
         <v>41</v>
@@ -16094,76 +16094,76 @@
         <v>45185.89583333334</v>
       </c>
       <c r="E181" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F181" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J181">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="K181">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L181">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M181">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181">
         <v>3.2</v>
       </c>
-      <c r="O181">
-        <v>3.4</v>
-      </c>
       <c r="P181">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q181">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R181">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S181">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T181">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V181">
         <v>-1</v>
       </c>
       <c r="W181">
+        <v>-1</v>
+      </c>
+      <c r="X181">
         <v>2.2</v>
       </c>
-      <c r="X181">
-        <v>-1</v>
-      </c>
       <c r="Y181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:28">
@@ -16171,7 +16171,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6062166</v>
+        <v>6062165</v>
       </c>
       <c r="C182" t="s">
         <v>41</v>
@@ -16180,76 +16180,76 @@
         <v>45185.89583333334</v>
       </c>
       <c r="E182" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F182" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J182">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K182">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M182">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="N182">
         <v>4</v>
       </c>
       <c r="O182">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P182">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q182">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="R182">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S182">
+        <v>2.75</v>
+      </c>
+      <c r="T182">
+        <v>1.875</v>
+      </c>
+      <c r="U182">
+        <v>1.975</v>
+      </c>
+      <c r="V182">
+        <v>-1</v>
+      </c>
+      <c r="W182">
         <v>3</v>
       </c>
-      <c r="T182">
-        <v>2</v>
-      </c>
-      <c r="U182">
-        <v>1.85</v>
-      </c>
-      <c r="V182">
-        <v>-1</v>
-      </c>
-      <c r="W182">
-        <v>-1</v>
-      </c>
       <c r="X182">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA182">
         <v>-1</v>
       </c>
       <c r="AB182">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:28">
@@ -16257,7 +16257,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>6062165</v>
+        <v>6062164</v>
       </c>
       <c r="C183" t="s">
         <v>41</v>
@@ -16266,10 +16266,10 @@
         <v>45185.89583333334</v>
       </c>
       <c r="E183" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F183" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -16281,25 +16281,25 @@
         <v>71</v>
       </c>
       <c r="J183">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="K183">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L183">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M183">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="N183">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O183">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P183">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q183">
         <v>1.875</v>
@@ -16308,34 +16308,34 @@
         <v>1.975</v>
       </c>
       <c r="S183">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T183">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="U183">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V183">
         <v>-1</v>
       </c>
       <c r="W183">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z183">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="184" spans="1:28">
@@ -16429,7 +16429,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6063340</v>
+        <v>6062168</v>
       </c>
       <c r="C185" t="s">
         <v>41</v>
@@ -16438,58 +16438,58 @@
         <v>45185.97916666666</v>
       </c>
       <c r="E185" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F185" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="s">
         <v>72</v>
       </c>
       <c r="J185">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="K185">
+        <v>4.25</v>
+      </c>
+      <c r="L185">
+        <v>5.5</v>
+      </c>
+      <c r="M185">
+        <v>1.444</v>
+      </c>
+      <c r="N185">
+        <v>4.75</v>
+      </c>
+      <c r="O185">
+        <v>6.5</v>
+      </c>
+      <c r="P185">
+        <v>-1.25</v>
+      </c>
+      <c r="Q185">
+        <v>1.925</v>
+      </c>
+      <c r="R185">
+        <v>1.925</v>
+      </c>
+      <c r="S185">
         <v>3.5</v>
       </c>
-      <c r="L185">
-        <v>3.6</v>
-      </c>
-      <c r="M185">
-        <v>2.15</v>
-      </c>
-      <c r="N185">
-        <v>3.6</v>
-      </c>
-      <c r="O185">
-        <v>3.2</v>
-      </c>
-      <c r="P185">
-        <v>-0.25</v>
-      </c>
-      <c r="Q185">
+      <c r="T185">
         <v>1.9</v>
       </c>
-      <c r="R185">
+      <c r="U185">
         <v>1.95</v>
       </c>
-      <c r="S185">
-        <v>3</v>
-      </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
-      <c r="U185">
-        <v>1.85</v>
-      </c>
       <c r="V185">
-        <v>1.15</v>
+        <v>0.444</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16498,16 +16498,16 @@
         <v>-1</v>
       </c>
       <c r="Y185">
+        <v>0.925</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z185">
-        <v>-1</v>
-      </c>
-      <c r="AA185">
-        <v>0</v>
-      </c>
       <c r="AB185">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16515,7 +16515,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6062168</v>
+        <v>6063340</v>
       </c>
       <c r="C186" t="s">
         <v>41</v>
@@ -16524,58 +16524,58 @@
         <v>45185.97916666666</v>
       </c>
       <c r="E186" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F186" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G186">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="s">
         <v>72</v>
       </c>
       <c r="J186">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="K186">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="L186">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M186">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="N186">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O186">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="P186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q186">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R186">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S186">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T186">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U186">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V186">
-        <v>0.444</v>
+        <v>1.15</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16584,16 +16584,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16687,7 +16687,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6063360</v>
+        <v>6062170</v>
       </c>
       <c r="C188" t="s">
         <v>41</v>
@@ -16696,76 +16696,76 @@
         <v>45189.85416666666</v>
       </c>
       <c r="E188" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F188" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J188">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="K188">
         <v>3.6</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M188">
         <v>2.05</v>
       </c>
       <c r="N188">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O188">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P188">
+        <v>-0.25</v>
+      </c>
+      <c r="Q188">
+        <v>1.825</v>
+      </c>
+      <c r="R188">
+        <v>2.025</v>
+      </c>
+      <c r="S188">
+        <v>3.25</v>
+      </c>
+      <c r="T188">
+        <v>2</v>
+      </c>
+      <c r="U188">
+        <v>1.85</v>
+      </c>
+      <c r="V188">
+        <v>-1</v>
+      </c>
+      <c r="W188">
+        <v>3</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>-0.5</v>
       </c>
-      <c r="Q188">
-        <v>2.05</v>
-      </c>
-      <c r="R188">
-        <v>1.8</v>
-      </c>
-      <c r="S188">
-        <v>2.75</v>
-      </c>
-      <c r="T188">
-        <v>1.975</v>
-      </c>
-      <c r="U188">
-        <v>1.875</v>
-      </c>
-      <c r="V188">
-        <v>1.05</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>1.05</v>
-      </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:28">
@@ -16773,7 +16773,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6063359</v>
+        <v>6063342</v>
       </c>
       <c r="C189" t="s">
         <v>41</v>
@@ -16782,73 +16782,73 @@
         <v>45189.85416666666</v>
       </c>
       <c r="E189" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F189" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G189">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J189">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="K189">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="M189">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="N189">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="O189">
-        <v>8</v>
+        <v>2.875</v>
       </c>
       <c r="P189">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q189">
+        <v>2.025</v>
+      </c>
+      <c r="R189">
         <v>1.825</v>
       </c>
-      <c r="R189">
-        <v>2.025</v>
-      </c>
       <c r="S189">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T189">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U189">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA189">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB189">
         <v>-1</v>
@@ -16859,7 +16859,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6063343</v>
+        <v>6062171</v>
       </c>
       <c r="C190" t="s">
         <v>41</v>
@@ -16868,10 +16868,10 @@
         <v>45189.85416666666</v>
       </c>
       <c r="E190" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -16883,61 +16883,61 @@
         <v>71</v>
       </c>
       <c r="J190">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K190">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L190">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="M190">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="N190">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O190">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="P190">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q190">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="R190">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S190">
         <v>2.75</v>
       </c>
       <c r="T190">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
         <v>-1</v>
       </c>
       <c r="W190">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -16945,7 +16945,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6062171</v>
+        <v>6062169</v>
       </c>
       <c r="C191" t="s">
         <v>41</v>
@@ -16954,76 +16954,76 @@
         <v>45189.85416666666</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J191">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K191">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L191">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="M191">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O191">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P191">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q191">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R191">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W191">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z191">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17031,7 +17031,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6062169</v>
+        <v>6063343</v>
       </c>
       <c r="C192" t="s">
         <v>41</v>
@@ -17040,49 +17040,49 @@
         <v>45189.85416666666</v>
       </c>
       <c r="E192" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F192" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192" t="s">
+        <v>71</v>
+      </c>
+      <c r="J192">
+        <v>2.1</v>
+      </c>
+      <c r="K192">
+        <v>3.6</v>
+      </c>
+      <c r="L192">
         <v>3</v>
       </c>
-      <c r="H192">
-        <v>0</v>
-      </c>
-      <c r="I192" t="s">
-        <v>72</v>
-      </c>
-      <c r="J192">
-        <v>1.6</v>
-      </c>
-      <c r="K192">
-        <v>4.2</v>
-      </c>
-      <c r="L192">
-        <v>4.5</v>
-      </c>
       <c r="M192">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="N192">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O192">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="P192">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q192">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R192">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S192">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T192">
         <v>1.975</v>
@@ -17091,19 +17091,19 @@
         <v>1.875</v>
       </c>
       <c r="V192">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA192">
         <v>-1</v>
@@ -17117,7 +17117,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6063342</v>
+        <v>6063359</v>
       </c>
       <c r="C193" t="s">
         <v>41</v>
@@ -17126,73 +17126,73 @@
         <v>45189.85416666666</v>
       </c>
       <c r="E193" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F193" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J193">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="K193">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="L193">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="M193">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="N193">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="O193">
-        <v>2.875</v>
+        <v>8</v>
       </c>
       <c r="P193">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q193">
+        <v>1.825</v>
+      </c>
+      <c r="R193">
         <v>2.025</v>
       </c>
-      <c r="R193">
-        <v>1.825</v>
-      </c>
       <c r="S193">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T193">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="U193">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V193">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z193">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB193">
         <v>-1</v>
@@ -17203,7 +17203,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6062170</v>
+        <v>6063360</v>
       </c>
       <c r="C194" t="s">
         <v>41</v>
@@ -17212,76 +17212,76 @@
         <v>45189.85416666666</v>
       </c>
       <c r="E194" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F194" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J194">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="K194">
         <v>3.6</v>
       </c>
       <c r="L194">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M194">
         <v>2.05</v>
       </c>
       <c r="N194">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O194">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q194">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="R194">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T194">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="W194">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z194">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17289,7 +17289,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6062173</v>
+        <v>6062172</v>
       </c>
       <c r="C195" t="s">
         <v>41</v>
@@ -17298,34 +17298,34 @@
         <v>45189.89583333334</v>
       </c>
       <c r="E195" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F195" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I195" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J195">
         <v>1.75</v>
       </c>
       <c r="K195">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M195">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N195">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O195">
         <v>3.8</v>
@@ -17334,10 +17334,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q195">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R195">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S195">
         <v>2.5</v>
@@ -17349,19 +17349,19 @@
         <v>1.925</v>
       </c>
       <c r="V195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z195">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
         <v>0.925</v>
@@ -17461,7 +17461,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6062172</v>
+        <v>6062173</v>
       </c>
       <c r="C197" t="s">
         <v>41</v>
@@ -17470,34 +17470,34 @@
         <v>45189.89583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F197" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G197">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I197" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J197">
         <v>1.75</v>
       </c>
       <c r="K197">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L197">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M197">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N197">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O197">
         <v>3.8</v>
@@ -17506,10 +17506,10 @@
         <v>-0.5</v>
       </c>
       <c r="Q197">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R197">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S197">
         <v>2.5</v>
@@ -17521,19 +17521,19 @@
         <v>1.925</v>
       </c>
       <c r="V197">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W197">
         <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y197">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA197">
         <v>0.925</v>
@@ -17891,7 +17891,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6356523</v>
+        <v>6062177</v>
       </c>
       <c r="C202" t="s">
         <v>41</v>
@@ -17900,76 +17900,76 @@
         <v>45192.85416666666</v>
       </c>
       <c r="E202" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F202" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I202" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J202">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="K202">
+        <v>3.25</v>
+      </c>
+      <c r="L202">
+        <v>2.7</v>
+      </c>
+      <c r="M202">
+        <v>2.3</v>
+      </c>
+      <c r="N202">
         <v>3.4</v>
       </c>
-      <c r="L202">
-        <v>4</v>
-      </c>
-      <c r="M202">
-        <v>2.05</v>
-      </c>
-      <c r="N202">
-        <v>3.75</v>
-      </c>
       <c r="O202">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P202">
         <v>-0.25</v>
       </c>
       <c r="Q202">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T202">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U202">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V202">
         <v>-1</v>
       </c>
       <c r="W202">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y202">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB202">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -17977,7 +17977,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6063347</v>
+        <v>6063346</v>
       </c>
       <c r="C203" t="s">
         <v>41</v>
@@ -17986,58 +17986,58 @@
         <v>45192.85416666666</v>
       </c>
       <c r="E203" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F203" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="s">
         <v>72</v>
       </c>
       <c r="J203">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="K203">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M203">
-        <v>1.6</v>
+        <v>1.571</v>
       </c>
       <c r="N203">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="O203">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="P203">
         <v>-1</v>
       </c>
       <c r="Q203">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="R203">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
         <v>3</v>
       </c>
       <c r="T203">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U203">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V203">
-        <v>0.6000000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="W203">
         <v>-1</v>
@@ -18046,16 +18046,16 @@
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="Z203">
         <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB203">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -18063,7 +18063,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6063346</v>
+        <v>6063347</v>
       </c>
       <c r="C204" t="s">
         <v>41</v>
@@ -18072,58 +18072,58 @@
         <v>45192.85416666666</v>
       </c>
       <c r="E204" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F204" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G204">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="s">
         <v>72</v>
       </c>
       <c r="J204">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="K204">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L204">
+        <v>4</v>
+      </c>
+      <c r="M204">
+        <v>1.6</v>
+      </c>
+      <c r="N204">
+        <v>4.333</v>
+      </c>
+      <c r="O204">
         <v>5</v>
       </c>
-      <c r="M204">
-        <v>1.571</v>
-      </c>
-      <c r="N204">
-        <v>4.2</v>
-      </c>
-      <c r="O204">
-        <v>5.75</v>
-      </c>
       <c r="P204">
         <v>-1</v>
       </c>
       <c r="Q204">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
         <v>3</v>
       </c>
       <c r="T204">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U204">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V204">
-        <v>0.571</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18132,16 +18132,16 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:28">
@@ -18149,7 +18149,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6062177</v>
+        <v>6356523</v>
       </c>
       <c r="C205" t="s">
         <v>41</v>
@@ -18158,76 +18158,76 @@
         <v>45192.85416666666</v>
       </c>
       <c r="E205" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F205" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J205">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="K205">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L205">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M205">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N205">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O205">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P205">
         <v>-0.25</v>
       </c>
       <c r="Q205">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R205">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T205">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V205">
         <v>-1</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X205">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z205">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AA205">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -18235,7 +18235,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6062180</v>
+        <v>6062178</v>
       </c>
       <c r="C206" t="s">
         <v>41</v>
@@ -18244,73 +18244,73 @@
         <v>45192.89583333334</v>
       </c>
       <c r="E206" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F206" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G206">
         <v>2</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J206">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K206">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L206">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M206">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N206">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P206">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q206">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T206">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V206">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA206">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB206">
         <v>-1</v>
@@ -18493,7 +18493,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6062178</v>
+        <v>6062180</v>
       </c>
       <c r="C209" t="s">
         <v>41</v>
@@ -18502,73 +18502,73 @@
         <v>45192.89583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F209" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G209">
         <v>2</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J209">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K209">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L209">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N209">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O209">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q209">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R209">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S209">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T209">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U209">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W209">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB209">
         <v>-1</v>
@@ -19439,7 +19439,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6356524</v>
+        <v>6327480</v>
       </c>
       <c r="C220" t="s">
         <v>41</v>
@@ -19448,49 +19448,49 @@
         <v>45199.85416666666</v>
       </c>
       <c r="E220" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F220" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G220">
+        <v>2</v>
+      </c>
+      <c r="H220">
         <v>3</v>
       </c>
-      <c r="H220">
-        <v>0</v>
-      </c>
       <c r="I220" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J220">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="K220">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L220">
-        <v>5.5</v>
+        <v>2.35</v>
       </c>
       <c r="M220">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="N220">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="O220">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="P220">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q220">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T220">
         <v>2</v>
@@ -19499,25 +19499,25 @@
         <v>1.85</v>
       </c>
       <c r="V220">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
         <v>1</v>
       </c>
-      <c r="Z220">
-        <v>-1</v>
-      </c>
-      <c r="AA220">
-        <v>0</v>
-      </c>
       <c r="AB220">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:28">
@@ -19525,7 +19525,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6327480</v>
+        <v>6327473</v>
       </c>
       <c r="C221" t="s">
         <v>41</v>
@@ -19534,46 +19534,46 @@
         <v>45199.85416666666</v>
       </c>
       <c r="E221" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F221" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J221">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="K221">
+        <v>3.75</v>
+      </c>
+      <c r="L221">
         <v>3.6</v>
       </c>
-      <c r="L221">
-        <v>2.35</v>
-      </c>
       <c r="M221">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="N221">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O221">
-        <v>1.6</v>
+        <v>5.25</v>
       </c>
       <c r="P221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q221">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S221">
         <v>3.25</v>
@@ -19588,22 +19588,22 @@
         <v>-1</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X221">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="222" spans="1:28">
@@ -19611,7 +19611,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>6327473</v>
+        <v>6356524</v>
       </c>
       <c r="C222" t="s">
         <v>41</v>
@@ -19620,49 +19620,49 @@
         <v>45199.85416666666</v>
       </c>
       <c r="E222" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J222">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="K222">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M222">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="N222">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O222">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P222">
         <v>-1</v>
       </c>
       <c r="Q222">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R222">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S222">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T222">
         <v>2</v>
@@ -19671,25 +19671,25 @@
         <v>1.85</v>
       </c>
       <c r="V222">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W222">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z222">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB222">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:28">
@@ -20213,7 +20213,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6356526</v>
+        <v>6356515</v>
       </c>
       <c r="C229" t="s">
         <v>41</v>
@@ -20222,73 +20222,73 @@
         <v>45199.97916666666</v>
       </c>
       <c r="E229" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="F229" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I229" t="s">
         <v>71</v>
       </c>
       <c r="J229">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K229">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L229">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="N229">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O229">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P229">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q229">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S229">
         <v>3</v>
       </c>
       <c r="T229">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
         <v>-1</v>
       </c>
       <c r="W229">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z229">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA229">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB229">
         <v>-1</v>
@@ -20299,7 +20299,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6356515</v>
+        <v>6356526</v>
       </c>
       <c r="C230" t="s">
         <v>41</v>
@@ -20308,73 +20308,73 @@
         <v>45199.97916666666</v>
       </c>
       <c r="E230" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F230" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="s">
         <v>71</v>
       </c>
       <c r="J230">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K230">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L230">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="M230">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N230">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O230">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="P230">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q230">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S230">
         <v>3</v>
       </c>
       <c r="T230">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U230">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
         <v>-1</v>
       </c>
       <c r="W230">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA230">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB230">
         <v>-1</v>
@@ -20471,7 +20471,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6356518</v>
+        <v>6356528</v>
       </c>
       <c r="C232" t="s">
         <v>41</v>
@@ -20480,73 +20480,73 @@
         <v>45203.85416666666</v>
       </c>
       <c r="E232" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F232" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H232">
         <v>2</v>
       </c>
       <c r="I232" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J232">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="K232">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L232">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="M232">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="N232">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O232">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q232">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="R232">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S232">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T232">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V232">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z232">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB232">
         <v>-1</v>
@@ -20557,7 +20557,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6356517</v>
+        <v>6356527</v>
       </c>
       <c r="C233" t="s">
         <v>41</v>
@@ -20566,76 +20566,76 @@
         <v>45203.85416666666</v>
       </c>
       <c r="E233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F233" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J233">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="K233">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L233">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="M233">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N233">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O233">
-        <v>8.5</v>
+        <v>2.6</v>
       </c>
       <c r="P233">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q233">
+        <v>1.875</v>
+      </c>
+      <c r="R233">
         <v>1.975</v>
-      </c>
-      <c r="R233">
-        <v>1.875</v>
       </c>
       <c r="S233">
         <v>3.25</v>
       </c>
       <c r="T233">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U233">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V233">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y233">
+        <v>-1</v>
+      </c>
+      <c r="Z233">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="Z233">
-        <v>-1</v>
       </c>
       <c r="AA233">
         <v>-0.5</v>
       </c>
       <c r="AB233">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="234" spans="1:28">
@@ -20643,7 +20643,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6356527</v>
+        <v>6356520</v>
       </c>
       <c r="C234" t="s">
         <v>41</v>
@@ -20652,76 +20652,76 @@
         <v>45203.85416666666</v>
       </c>
       <c r="E234" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F234" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G234">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J234">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="K234">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L234">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="M234">
+        <v>2.375</v>
+      </c>
+      <c r="N234">
+        <v>3.25</v>
+      </c>
+      <c r="O234">
+        <v>3</v>
+      </c>
+      <c r="P234">
+        <v>-0.25</v>
+      </c>
+      <c r="Q234">
+        <v>2.05</v>
+      </c>
+      <c r="R234">
+        <v>1.8</v>
+      </c>
+      <c r="S234">
         <v>2.5</v>
       </c>
-      <c r="N234">
-        <v>3.75</v>
-      </c>
-      <c r="O234">
-        <v>2.6</v>
-      </c>
-      <c r="P234">
-        <v>0</v>
-      </c>
-      <c r="Q234">
-        <v>1.875</v>
-      </c>
-      <c r="R234">
-        <v>1.975</v>
-      </c>
-      <c r="S234">
-        <v>3.25</v>
-      </c>
       <c r="T234">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U234">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V234">
         <v>-1</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X234">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z234">
-        <v>0.9750000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AA234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="235" spans="1:28">
@@ -20729,7 +20729,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6356528</v>
+        <v>6356518</v>
       </c>
       <c r="C235" t="s">
         <v>41</v>
@@ -20738,73 +20738,73 @@
         <v>45203.85416666666</v>
       </c>
       <c r="E235" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F235" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H235">
         <v>2</v>
       </c>
       <c r="I235" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J235">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="K235">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="M235">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="N235">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P235">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q235">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R235">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T235">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V235">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y235">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA235">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB235">
         <v>-1</v>
@@ -20815,7 +20815,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6356520</v>
+        <v>6356517</v>
       </c>
       <c r="C236" t="s">
         <v>41</v>
@@ -20824,76 +20824,76 @@
         <v>45203.85416666666</v>
       </c>
       <c r="E236" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F236" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J236">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="K236">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L236">
-        <v>2.1</v>
+        <v>4.25</v>
       </c>
       <c r="M236">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="N236">
+        <v>5.25</v>
+      </c>
+      <c r="O236">
+        <v>8.5</v>
+      </c>
+      <c r="P236">
+        <v>-1.5</v>
+      </c>
+      <c r="Q236">
+        <v>1.975</v>
+      </c>
+      <c r="R236">
+        <v>1.875</v>
+      </c>
+      <c r="S236">
         <v>3.25</v>
       </c>
-      <c r="O236">
-        <v>3</v>
-      </c>
-      <c r="P236">
-        <v>-0.25</v>
-      </c>
-      <c r="Q236">
-        <v>2.05</v>
-      </c>
-      <c r="R236">
-        <v>1.8</v>
-      </c>
-      <c r="S236">
-        <v>2.5</v>
-      </c>
       <c r="T236">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U236">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V236">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W236">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="Z236">
+        <v>-1</v>
+      </c>
+      <c r="AA236">
         <v>-0.5</v>
       </c>
-      <c r="Z236">
-        <v>0.4</v>
-      </c>
-      <c r="AA236">
-        <v>-1</v>
-      </c>
       <c r="AB236">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="237" spans="1:28">
@@ -20901,7 +20901,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6387732</v>
+        <v>6356522</v>
       </c>
       <c r="C237" t="s">
         <v>41</v>
@@ -20910,19 +20910,19 @@
         <v>45203.89583333334</v>
       </c>
       <c r="E237" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F237" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G237">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J237">
         <v>1.95</v>
@@ -20937,49 +20937,49 @@
         <v>2.15</v>
       </c>
       <c r="N237">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P237">
         <v>-0.25</v>
       </c>
       <c r="Q237">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="R237">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S237">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T237">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U237">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V237">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y237">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -21073,7 +21073,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>6356522</v>
+        <v>6387732</v>
       </c>
       <c r="C239" t="s">
         <v>41</v>
@@ -21082,19 +21082,19 @@
         <v>45203.89583333334</v>
       </c>
       <c r="E239" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F239" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J239">
         <v>1.95</v>
@@ -21109,49 +21109,49 @@
         <v>2.15</v>
       </c>
       <c r="N239">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O239">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P239">
         <v>-0.25</v>
       </c>
       <c r="Q239">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R239">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S239">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T239">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z239">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:28">
@@ -21159,7 +21159,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>6387734</v>
+        <v>6387733</v>
       </c>
       <c r="C240" t="s">
         <v>41</v>
@@ -21168,58 +21168,58 @@
         <v>45203.97916666666</v>
       </c>
       <c r="E240" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F240" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G240">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240" t="s">
         <v>72</v>
       </c>
       <c r="J240">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="K240">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L240">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="M240">
-        <v>1.533</v>
+        <v>1.5</v>
       </c>
       <c r="N240">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O240">
         <v>5.5</v>
       </c>
       <c r="P240">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q240">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S240">
         <v>3.25</v>
       </c>
       <c r="T240">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U240">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>0.5329999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="W240">
         <v>-1</v>
@@ -21228,16 +21228,16 @@
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB240">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:28">
@@ -21245,7 +21245,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>6387733</v>
+        <v>6387734</v>
       </c>
       <c r="C241" t="s">
         <v>41</v>
@@ -21254,58 +21254,58 @@
         <v>45203.97916666666</v>
       </c>
       <c r="E241" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F241" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G241">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="s">
         <v>72</v>
       </c>
       <c r="J241">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K241">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L241">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="M241">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="N241">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="O241">
         <v>5.5</v>
       </c>
       <c r="P241">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q241">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="R241">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S241">
         <v>3.25</v>
       </c>
       <c r="T241">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U241">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>0.5</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21314,16 +21314,16 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="242" spans="1:28">
@@ -28899,7 +28899,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7630834</v>
+        <v>7630833</v>
       </c>
       <c r="C330" t="s">
         <v>41</v>
@@ -28908,76 +28908,76 @@
         <v>45360.66666666666</v>
       </c>
       <c r="E330" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F330" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G330">
         <v>1</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J330">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="K330">
+        <v>3.75</v>
+      </c>
+      <c r="L330">
+        <v>4.2</v>
+      </c>
+      <c r="M330">
+        <v>1.95</v>
+      </c>
+      <c r="N330">
         <v>3.5</v>
       </c>
-      <c r="L330">
-        <v>3.2</v>
-      </c>
-      <c r="M330">
-        <v>2.6</v>
-      </c>
-      <c r="N330">
-        <v>3.25</v>
-      </c>
       <c r="O330">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="P330">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q330">
+        <v>2</v>
+      </c>
+      <c r="R330">
         <v>1.85</v>
       </c>
-      <c r="R330">
-        <v>2</v>
-      </c>
       <c r="S330">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T330">
+        <v>2</v>
+      </c>
+      <c r="U330">
         <v>1.85</v>
       </c>
-      <c r="U330">
-        <v>2</v>
-      </c>
       <c r="V330">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="W330">
         <v>-1</v>
       </c>
       <c r="X330">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y330">
+        <v>-1</v>
+      </c>
+      <c r="Z330">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Z330">
-        <v>-1</v>
-      </c>
       <c r="AA330">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB330">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:28">
@@ -28985,7 +28985,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7630833</v>
+        <v>7630834</v>
       </c>
       <c r="C331" t="s">
         <v>41</v>
@@ -28994,76 +28994,76 @@
         <v>45360.66666666666</v>
       </c>
       <c r="E331" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F331" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G331">
         <v>1</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J331">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="K331">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L331">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M331">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="N331">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O331">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="P331">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q331">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="R331">
+        <v>2</v>
+      </c>
+      <c r="S331">
+        <v>2.25</v>
+      </c>
+      <c r="T331">
         <v>1.85</v>
       </c>
-      <c r="S331">
-        <v>2.5</v>
-      </c>
-      <c r="T331">
-        <v>2</v>
-      </c>
       <c r="U331">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V331">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="W331">
         <v>-1</v>
       </c>
       <c r="X331">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z331">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
+        <v>-1</v>
+      </c>
+      <c r="AB331">
         <v>1</v>
-      </c>
-      <c r="AB331">
-        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:28">
@@ -29071,7 +29071,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7630836</v>
+        <v>7629927</v>
       </c>
       <c r="C332" t="s">
         <v>41</v>
@@ -29080,10 +29080,10 @@
         <v>45360.89583333334</v>
       </c>
       <c r="E332" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F332" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G332">
         <v>2</v>
@@ -29095,43 +29095,43 @@
         <v>72</v>
       </c>
       <c r="J332">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="K332">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L332">
         <v>5</v>
       </c>
       <c r="M332">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="N332">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="O332">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P332">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q332">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R332">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S332">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T332">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U332">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V332">
-        <v>0.5329999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="W332">
         <v>-1</v>
@@ -29140,16 +29140,16 @@
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z332">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA332">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB332">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:28">
@@ -29243,7 +29243,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>7629927</v>
+        <v>7630836</v>
       </c>
       <c r="C334" t="s">
         <v>41</v>
@@ -29252,10 +29252,10 @@
         <v>45360.89583333334</v>
       </c>
       <c r="E334" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F334" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G334">
         <v>2</v>
@@ -29267,43 +29267,43 @@
         <v>72</v>
       </c>
       <c r="J334">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="K334">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L334">
         <v>5</v>
       </c>
       <c r="M334">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="N334">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="O334">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P334">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q334">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R334">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S334">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T334">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U334">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V334">
-        <v>0.444</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W334">
         <v>-1</v>
@@ -29312,16 +29312,16 @@
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z334">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA334">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB334">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:28">
@@ -33543,7 +33543,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>7630875</v>
+        <v>8038962</v>
       </c>
       <c r="C384" t="s">
         <v>41</v>
@@ -33552,73 +33552,73 @@
         <v>45388.85416666666</v>
       </c>
       <c r="E384" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F384" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G384">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J384">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="K384">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L384">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M384">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="N384">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O384">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P384">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q384">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R384">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S384">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T384">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U384">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V384">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="W384">
         <v>-1</v>
       </c>
       <c r="X384">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y384">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z384">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA384">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB384">
         <v>-1</v>
@@ -33629,7 +33629,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>8038962</v>
+        <v>7630878</v>
       </c>
       <c r="C385" t="s">
         <v>41</v>
@@ -33638,76 +33638,76 @@
         <v>45388.85416666666</v>
       </c>
       <c r="E385" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F385" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G385">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I385" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J385">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="K385">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L385">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="M385">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="N385">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O385">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P385">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q385">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R385">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S385">
         <v>2.75</v>
       </c>
       <c r="T385">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U385">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V385">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="W385">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X385">
         <v>-1</v>
       </c>
       <c r="Y385">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="Z385">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA385">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB385">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="386" spans="1:28">
@@ -33715,7 +33715,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>7630878</v>
+        <v>7630879</v>
       </c>
       <c r="C386" t="s">
         <v>41</v>
@@ -33724,76 +33724,76 @@
         <v>45388.85416666666</v>
       </c>
       <c r="E386" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F386" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G386">
         <v>1</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J386">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="K386">
         <v>3.5</v>
       </c>
       <c r="L386">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M386">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N386">
         <v>3.5</v>
       </c>
       <c r="O386">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P386">
         <v>-0.25</v>
       </c>
       <c r="Q386">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R386">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S386">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T386">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U386">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V386">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W386">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X386">
         <v>-1</v>
       </c>
       <c r="Y386">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z386">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA386">
         <v>-1</v>
       </c>
       <c r="AB386">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="387" spans="1:28">
@@ -33801,7 +33801,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>7630879</v>
+        <v>7630877</v>
       </c>
       <c r="C387" t="s">
         <v>41</v>
@@ -33810,76 +33810,76 @@
         <v>45388.85416666666</v>
       </c>
       <c r="E387" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F387" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J387">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="K387">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L387">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M387">
         <v>2.25</v>
       </c>
       <c r="N387">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O387">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P387">
         <v>-0.25</v>
       </c>
       <c r="Q387">
+        <v>2.025</v>
+      </c>
+      <c r="R387">
+        <v>1.825</v>
+      </c>
+      <c r="S387">
+        <v>2.75</v>
+      </c>
+      <c r="T387">
         <v>1.925</v>
       </c>
-      <c r="R387">
+      <c r="U387">
         <v>1.925</v>
       </c>
-      <c r="S387">
-        <v>2.5</v>
-      </c>
-      <c r="T387">
-        <v>1.95</v>
-      </c>
-      <c r="U387">
-        <v>1.9</v>
-      </c>
       <c r="V387">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W387">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X387">
         <v>-1</v>
       </c>
       <c r="Y387">
+        <v>-0.5</v>
+      </c>
+      <c r="Z387">
+        <v>0.4125</v>
+      </c>
+      <c r="AA387">
         <v>0.925</v>
       </c>
-      <c r="Z387">
-        <v>-1</v>
-      </c>
-      <c r="AA387">
-        <v>-1</v>
-      </c>
       <c r="AB387">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388" spans="1:28">
@@ -33887,7 +33887,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>7630877</v>
+        <v>7630876</v>
       </c>
       <c r="C388" t="s">
         <v>41</v>
@@ -33896,16 +33896,16 @@
         <v>45388.85416666666</v>
       </c>
       <c r="E388" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F388" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G388">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="s">
         <v>71</v>
@@ -33920,52 +33920,52 @@
         <v>5</v>
       </c>
       <c r="M388">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N388">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O388">
+        <v>5</v>
+      </c>
+      <c r="P388">
+        <v>-1</v>
+      </c>
+      <c r="Q388">
+        <v>2.05</v>
+      </c>
+      <c r="R388">
+        <v>1.8</v>
+      </c>
+      <c r="S388">
         <v>3</v>
       </c>
-      <c r="P388">
-        <v>-0.25</v>
-      </c>
-      <c r="Q388">
-        <v>2.025</v>
-      </c>
-      <c r="R388">
-        <v>1.825</v>
-      </c>
-      <c r="S388">
-        <v>2.75</v>
-      </c>
       <c r="T388">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U388">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V388">
         <v>-1</v>
       </c>
       <c r="W388">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="X388">
         <v>-1</v>
       </c>
       <c r="Y388">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z388">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA388">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB388">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:28">
@@ -33973,7 +33973,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>7630876</v>
+        <v>7630875</v>
       </c>
       <c r="C389" t="s">
         <v>41</v>
@@ -33982,49 +33982,49 @@
         <v>45388.85416666666</v>
       </c>
       <c r="E389" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F389" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G389">
         <v>1</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I389" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J389">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="K389">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L389">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M389">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N389">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O389">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P389">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q389">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R389">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S389">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T389">
         <v>1.85</v>
@@ -34036,22 +34036,22 @@
         <v>-1</v>
       </c>
       <c r="W389">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X389">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA389">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB389">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390" spans="1:28">
@@ -34145,7 +34145,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>7629942</v>
+        <v>7630882</v>
       </c>
       <c r="C391" t="s">
         <v>41</v>
@@ -34154,73 +34154,73 @@
         <v>45388.89583333334</v>
       </c>
       <c r="E391" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F391" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G391">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I391" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J391">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="K391">
         <v>3.25</v>
       </c>
       <c r="L391">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M391">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="N391">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O391">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P391">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q391">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R391">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S391">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T391">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U391">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V391">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W391">
         <v>-1</v>
       </c>
       <c r="X391">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y391">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z391">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA391">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB391">
         <v>-1</v>
@@ -34231,7 +34231,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>7630882</v>
+        <v>7629942</v>
       </c>
       <c r="C392" t="s">
         <v>41</v>
@@ -34240,73 +34240,73 @@
         <v>45388.89583333334</v>
       </c>
       <c r="E392" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F392" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G392">
+        <v>2</v>
+      </c>
+      <c r="H392">
         <v>1</v>
       </c>
-      <c r="H392">
-        <v>2</v>
-      </c>
       <c r="I392" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J392">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="K392">
         <v>3.25</v>
       </c>
       <c r="L392">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M392">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="N392">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O392">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P392">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q392">
+        <v>1.875</v>
+      </c>
+      <c r="R392">
+        <v>1.975</v>
+      </c>
+      <c r="S392">
+        <v>2.25</v>
+      </c>
+      <c r="T392">
         <v>1.85</v>
       </c>
-      <c r="R392">
-        <v>2</v>
-      </c>
-      <c r="S392">
-        <v>2.5</v>
-      </c>
-      <c r="T392">
-        <v>2.025</v>
-      </c>
       <c r="U392">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V392">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W392">
         <v>-1</v>
       </c>
       <c r="X392">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y392">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z392">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA392">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB392">
         <v>-1</v>
@@ -35951,7 +35951,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7630901</v>
+        <v>7630900</v>
       </c>
       <c r="C412" t="s">
         <v>41</v>
@@ -35960,13 +35960,13 @@
         <v>45402.85416666666</v>
       </c>
       <c r="E412" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F412" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H412">
         <v>0</v>
@@ -35975,43 +35975,43 @@
         <v>72</v>
       </c>
       <c r="J412">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K412">
         <v>3.5</v>
       </c>
       <c r="L412">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M412">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="N412">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O412">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P412">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q412">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R412">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S412">
         <v>2.75</v>
       </c>
       <c r="T412">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U412">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V412">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="W412">
         <v>-1</v>
@@ -36020,16 +36020,16 @@
         <v>-1</v>
       </c>
       <c r="Y412">
+        <v>0.875</v>
+      </c>
+      <c r="Z412">
+        <v>-1</v>
+      </c>
+      <c r="AA412">
+        <v>-1</v>
+      </c>
+      <c r="AB412">
         <v>0.95</v>
-      </c>
-      <c r="Z412">
-        <v>-1</v>
-      </c>
-      <c r="AA412">
-        <v>-1</v>
-      </c>
-      <c r="AB412">
-        <v>0.925</v>
       </c>
     </row>
     <row r="413" spans="1:28">
@@ -36037,7 +36037,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7630900</v>
+        <v>7630901</v>
       </c>
       <c r="C413" t="s">
         <v>41</v>
@@ -36046,13 +36046,13 @@
         <v>45402.85416666666</v>
       </c>
       <c r="E413" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F413" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H413">
         <v>0</v>
@@ -36061,43 +36061,43 @@
         <v>72</v>
       </c>
       <c r="J413">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K413">
         <v>3.5</v>
       </c>
       <c r="L413">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M413">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="N413">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O413">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P413">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q413">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="R413">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S413">
         <v>2.75</v>
       </c>
       <c r="T413">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U413">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V413">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="W413">
         <v>-1</v>
@@ -36106,7 +36106,7 @@
         <v>-1</v>
       </c>
       <c r="Y413">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="Z413">
         <v>-1</v>
@@ -36115,7 +36115,7 @@
         <v>-1</v>
       </c>
       <c r="AB413">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="414" spans="1:28">
@@ -36811,7 +36811,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7630903</v>
+        <v>7630904</v>
       </c>
       <c r="C422" t="s">
         <v>41</v>
@@ -36820,34 +36820,34 @@
         <v>45402.97916666666</v>
       </c>
       <c r="E422" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F422" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G422">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H422">
         <v>2</v>
       </c>
       <c r="I422" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J422">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K422">
         <v>3.5</v>
       </c>
       <c r="L422">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M422">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="N422">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O422">
         <v>4.75</v>
@@ -36856,40 +36856,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q422">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R422">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S422">
         <v>2.5</v>
       </c>
       <c r="T422">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U422">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V422">
         <v>-1</v>
       </c>
       <c r="W422">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X422">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y422">
         <v>-1</v>
       </c>
       <c r="Z422">
+        <v>0.875</v>
+      </c>
+      <c r="AA422">
+        <v>-1</v>
+      </c>
+      <c r="AB422">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA422">
-        <v>0.925</v>
-      </c>
-      <c r="AB422">
-        <v>-1</v>
       </c>
     </row>
     <row r="423" spans="1:28">
@@ -36897,7 +36897,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>7630904</v>
+        <v>7630903</v>
       </c>
       <c r="C423" t="s">
         <v>41</v>
@@ -36906,34 +36906,34 @@
         <v>45402.97916666666</v>
       </c>
       <c r="E423" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F423" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G423">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H423">
         <v>2</v>
       </c>
       <c r="I423" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J423">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K423">
         <v>3.5</v>
       </c>
       <c r="L423">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M423">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N423">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O423">
         <v>4.75</v>
@@ -36942,40 +36942,40 @@
         <v>-0.75</v>
       </c>
       <c r="Q423">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R423">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S423">
         <v>2.5</v>
       </c>
       <c r="T423">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U423">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V423">
         <v>-1</v>
       </c>
       <c r="W423">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X423">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y423">
         <v>-1</v>
       </c>
       <c r="Z423">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA423">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB423">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424" spans="1:28">
@@ -37929,7 +37929,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>7629954</v>
+        <v>7630913</v>
       </c>
       <c r="C435" t="s">
         <v>41</v>
@@ -37938,76 +37938,76 @@
         <v>45409.89583333334</v>
       </c>
       <c r="E435" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F435" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I435" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J435">
+        <v>1.909</v>
+      </c>
+      <c r="K435">
+        <v>3.4</v>
+      </c>
+      <c r="L435">
+        <v>4</v>
+      </c>
+      <c r="M435">
+        <v>1.909</v>
+      </c>
+      <c r="N435">
+        <v>3.5</v>
+      </c>
+      <c r="O435">
+        <v>4.2</v>
+      </c>
+      <c r="P435">
+        <v>-0.5</v>
+      </c>
+      <c r="Q435">
+        <v>1.875</v>
+      </c>
+      <c r="R435">
+        <v>1.975</v>
+      </c>
+      <c r="S435">
+        <v>2.75</v>
+      </c>
+      <c r="T435">
+        <v>1.975</v>
+      </c>
+      <c r="U435">
+        <v>1.875</v>
+      </c>
+      <c r="V435">
+        <v>-1</v>
+      </c>
+      <c r="W435">
         <v>2.5</v>
       </c>
-      <c r="K435">
-        <v>3.25</v>
-      </c>
-      <c r="L435">
-        <v>2.8</v>
-      </c>
-      <c r="M435">
-        <v>2.7</v>
-      </c>
-      <c r="N435">
-        <v>3.25</v>
-      </c>
-      <c r="O435">
-        <v>2.625</v>
-      </c>
-      <c r="P435">
-        <v>0</v>
-      </c>
-      <c r="Q435">
-        <v>1.95</v>
-      </c>
-      <c r="R435">
-        <v>1.9</v>
-      </c>
-      <c r="S435">
-        <v>2.25</v>
-      </c>
-      <c r="T435">
-        <v>2.05</v>
-      </c>
-      <c r="U435">
-        <v>1.75</v>
-      </c>
-      <c r="V435">
-        <v>1.7</v>
-      </c>
-      <c r="W435">
-        <v>-1</v>
-      </c>
       <c r="X435">
         <v>-1</v>
       </c>
       <c r="Y435">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z435">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA435">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB435">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="436" spans="1:28">
@@ -38015,7 +38015,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>7629953</v>
+        <v>7629955</v>
       </c>
       <c r="C436" t="s">
         <v>41</v>
@@ -38024,76 +38024,76 @@
         <v>45409.89583333334</v>
       </c>
       <c r="E436" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F436" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G436">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I436" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J436">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K436">
         <v>3.25</v>
       </c>
       <c r="L436">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M436">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="N436">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O436">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P436">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q436">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R436">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S436">
         <v>3</v>
       </c>
       <c r="T436">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U436">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V436">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W436">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X436">
         <v>-1</v>
       </c>
       <c r="Y436">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="Z436">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA436">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB436">
-        <v>1.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:28">
@@ -38101,7 +38101,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7629955</v>
+        <v>7629954</v>
       </c>
       <c r="C437" t="s">
         <v>41</v>
@@ -38110,76 +38110,76 @@
         <v>45409.89583333334</v>
       </c>
       <c r="E437" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F437" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G437">
         <v>2</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="s">
         <v>72</v>
       </c>
       <c r="J437">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K437">
         <v>3.25</v>
       </c>
       <c r="L437">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="M437">
+        <v>2.7</v>
+      </c>
+      <c r="N437">
+        <v>3.25</v>
+      </c>
+      <c r="O437">
+        <v>2.625</v>
+      </c>
+      <c r="P437">
+        <v>0</v>
+      </c>
+      <c r="Q437">
         <v>1.95</v>
       </c>
-      <c r="N437">
-        <v>3.75</v>
-      </c>
-      <c r="O437">
-        <v>3.8</v>
-      </c>
-      <c r="P437">
+      <c r="R437">
+        <v>1.9</v>
+      </c>
+      <c r="S437">
+        <v>2.25</v>
+      </c>
+      <c r="T437">
+        <v>2.05</v>
+      </c>
+      <c r="U437">
+        <v>1.75</v>
+      </c>
+      <c r="V437">
+        <v>1.7</v>
+      </c>
+      <c r="W437">
+        <v>-1</v>
+      </c>
+      <c r="X437">
+        <v>-1</v>
+      </c>
+      <c r="Y437">
+        <v>0.95</v>
+      </c>
+      <c r="Z437">
+        <v>-1</v>
+      </c>
+      <c r="AA437">
         <v>-0.5</v>
       </c>
-      <c r="Q437">
-        <v>1.925</v>
-      </c>
-      <c r="R437">
-        <v>1.925</v>
-      </c>
-      <c r="S437">
-        <v>3</v>
-      </c>
-      <c r="T437">
-        <v>2.025</v>
-      </c>
-      <c r="U437">
-        <v>1.825</v>
-      </c>
-      <c r="V437">
-        <v>0.95</v>
-      </c>
-      <c r="W437">
-        <v>-1</v>
-      </c>
-      <c r="X437">
-        <v>-1</v>
-      </c>
-      <c r="Y437">
-        <v>0.925</v>
-      </c>
-      <c r="Z437">
-        <v>-1</v>
-      </c>
-      <c r="AA437">
-        <v>0</v>
-      </c>
       <c r="AB437">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="438" spans="1:28">
@@ -38187,7 +38187,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7630913</v>
+        <v>7629953</v>
       </c>
       <c r="C438" t="s">
         <v>41</v>
@@ -38196,76 +38196,76 @@
         <v>45409.89583333334</v>
       </c>
       <c r="E438" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F438" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="s">
         <v>71</v>
       </c>
       <c r="J438">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="K438">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L438">
+        <v>3.5</v>
+      </c>
+      <c r="M438">
+        <v>2.2</v>
+      </c>
+      <c r="N438">
         <v>4</v>
       </c>
-      <c r="M438">
-        <v>1.909</v>
-      </c>
-      <c r="N438">
-        <v>3.5</v>
-      </c>
       <c r="O438">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P438">
+        <v>-0.25</v>
+      </c>
+      <c r="Q438">
+        <v>1.95</v>
+      </c>
+      <c r="R438">
+        <v>1.9</v>
+      </c>
+      <c r="S438">
+        <v>3</v>
+      </c>
+      <c r="T438">
+        <v>1.8</v>
+      </c>
+      <c r="U438">
+        <v>2.05</v>
+      </c>
+      <c r="V438">
+        <v>-1</v>
+      </c>
+      <c r="W438">
+        <v>3</v>
+      </c>
+      <c r="X438">
+        <v>-1</v>
+      </c>
+      <c r="Y438">
         <v>-0.5</v>
       </c>
-      <c r="Q438">
-        <v>1.875</v>
-      </c>
-      <c r="R438">
-        <v>1.975</v>
-      </c>
-      <c r="S438">
-        <v>2.75</v>
-      </c>
-      <c r="T438">
-        <v>1.975</v>
-      </c>
-      <c r="U438">
-        <v>1.875</v>
-      </c>
-      <c r="V438">
-        <v>-1</v>
-      </c>
-      <c r="W438">
-        <v>2.5</v>
-      </c>
-      <c r="X438">
-        <v>-1</v>
-      </c>
-      <c r="Y438">
-        <v>-1</v>
-      </c>
       <c r="Z438">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA438">
         <v>-1</v>
       </c>
       <c r="AB438">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="439" spans="1:28">
@@ -38448,31 +38448,31 @@
         <v>2.3</v>
       </c>
       <c r="M441">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N441">
         <v>3.75</v>
       </c>
       <c r="O441">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P441">
         <v>0.25</v>
       </c>
       <c r="Q441">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R441">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S441">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T441">
+        <v>2.05</v>
+      </c>
+      <c r="U441">
         <v>1.8</v>
-      </c>
-      <c r="U441">
-        <v>2.05</v>
       </c>
       <c r="V441">
         <v>0</v>
@@ -38498,46 +38498,46 @@
         <v>45416.85416666666</v>
       </c>
       <c r="E442" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F442" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J442">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K442">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L442">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M442">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="N442">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O442">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P442">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q442">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R442">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S442">
         <v>2.75</v>
       </c>
       <c r="T442">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U442">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V442">
         <v>0</v>
@@ -38643,22 +38643,22 @@
         <v>3.5</v>
       </c>
       <c r="M444">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="N444">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O444">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P444">
         <v>-0.5</v>
       </c>
       <c r="Q444">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R444">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S444">
         <v>2.75</v>
@@ -38758,46 +38758,46 @@
         <v>45416.85416666666</v>
       </c>
       <c r="E446" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F446" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J446">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K446">
+        <v>3.2</v>
+      </c>
+      <c r="L446">
         <v>3.75</v>
       </c>
-      <c r="L446">
+      <c r="M446">
+        <v>2.05</v>
+      </c>
+      <c r="N446">
         <v>3.5</v>
       </c>
-      <c r="M446">
-        <v>1.75</v>
-      </c>
-      <c r="N446">
-        <v>4</v>
-      </c>
       <c r="O446">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P446">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q446">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R446">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S446">
         <v>2.75</v>
       </c>
       <c r="T446">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U446">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V446">
         <v>0</v>
@@ -38838,22 +38838,22 @@
         <v>3.1</v>
       </c>
       <c r="M447">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="N447">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O447">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P447">
         <v>-0.5</v>
       </c>
       <c r="Q447">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="R447">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S447">
         <v>2.75</v>
@@ -38903,22 +38903,22 @@
         <v>3.75</v>
       </c>
       <c r="M448">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N448">
         <v>3.6</v>
       </c>
       <c r="O448">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P448">
         <v>-0.5</v>
       </c>
       <c r="Q448">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R448">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S448">
         <v>2.5</v>
@@ -39033,13 +39033,13 @@
         <v>3.75</v>
       </c>
       <c r="M450">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N450">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O450">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P450">
         <v>-0.75</v>
@@ -39098,22 +39098,22 @@
         <v>4.333</v>
       </c>
       <c r="M451">
-        <v>1.615</v>
+        <v>1.65</v>
       </c>
       <c r="N451">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O451">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P451">
         <v>-0.75</v>
       </c>
       <c r="Q451">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R451">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S451">
         <v>2.75</v>

--- a/USA MLS/USA MLS.xlsx
+++ b/USA MLS/USA MLS.xlsx
@@ -97,10 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7630931</t>
+    <t>7630930</t>
   </si>
   <si>
-    <t>7630930</t>
+    <t>7630931</t>
   </si>
   <si>
     <t>7630929</t>
@@ -118,13 +118,13 @@
     <t>7630927</t>
   </si>
   <si>
-    <t>7629961</t>
-  </si>
-  <si>
     <t>7629960</t>
   </si>
   <si>
     <t>7630932</t>
+  </si>
+  <si>
+    <t>7629961</t>
   </si>
   <si>
     <t>7630933</t>
@@ -39572,40 +39572,40 @@
         <v>45423.85416666666</v>
       </c>
       <c r="E454" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F454" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="J454">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="K454">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L454">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M454">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="N454">
         <v>3.75</v>
       </c>
       <c r="O454">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="P454">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q454">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R454">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S454">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T454">
         <v>1.975</v>
@@ -39637,40 +39637,40 @@
         <v>45423.85416666666</v>
       </c>
       <c r="E455" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F455" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J455">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="K455">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L455">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M455">
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="N455">
         <v>3.75</v>
       </c>
       <c r="O455">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="P455">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q455">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R455">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S455">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T455">
         <v>1.975</v>
@@ -39782,13 +39782,13 @@
         <v>2.6</v>
       </c>
       <c r="M457">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N457">
         <v>3.8</v>
       </c>
       <c r="O457">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="P457">
         <v>0.5</v>
@@ -39912,22 +39912,22 @@
         <v>3.8</v>
       </c>
       <c r="M459">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="N459">
         <v>4.2</v>
       </c>
       <c r="O459">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P459">
         <v>-0.75</v>
       </c>
       <c r="Q459">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="R459">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S459">
         <v>3.25</v>
@@ -40027,46 +40027,46 @@
         <v>45423.89583333334</v>
       </c>
       <c r="E461" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F461" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J461">
-        <v>1.833</v>
+        <v>2.05</v>
       </c>
       <c r="K461">
         <v>3.25</v>
       </c>
       <c r="L461">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M461">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="N461">
+        <v>3.25</v>
+      </c>
+      <c r="O461">
         <v>3.6</v>
       </c>
-      <c r="O461">
-        <v>4.5</v>
-      </c>
       <c r="P461">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q461">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R461">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S461">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T461">
+        <v>2.025</v>
+      </c>
+      <c r="U461">
         <v>1.825</v>
-      </c>
-      <c r="U461">
-        <v>2.025</v>
       </c>
       <c r="V461">
         <v>0</v>
@@ -40092,46 +40092,46 @@
         <v>45423.89583333334</v>
       </c>
       <c r="E462" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F462" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J462">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K462">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L462">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M462">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="N462">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O462">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P462">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q462">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R462">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S462">
         <v>2.5</v>
       </c>
       <c r="T462">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U462">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V462">
         <v>0</v>
@@ -40157,46 +40157,46 @@
         <v>45423.89583333334</v>
       </c>
       <c r="E463" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F463" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J463">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="K463">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L463">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M463">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N463">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O463">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P463">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q463">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="R463">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S463">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T463">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U463">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V463">
         <v>0</v>
@@ -40432,22 +40432,22 @@
         <v>2.5</v>
       </c>
       <c r="M467">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N467">
         <v>3.75</v>
       </c>
       <c r="O467">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="P467">
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R467">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S467">
         <v>2.5</v>

--- a/USA MLS/USA MLS.xlsx
+++ b/USA MLS/USA MLS.xlsx
@@ -103,46 +103,46 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7631012</t>
+    <t>7631021</t>
   </si>
   <si>
-    <t>7629987</t>
+    <t>7631023</t>
   </si>
   <si>
-    <t>7629988</t>
+    <t>7631026</t>
   </si>
   <si>
-    <t>7631013</t>
+    <t>7631025</t>
   </si>
   <si>
-    <t>7631011</t>
+    <t>7631024</t>
   </si>
   <si>
-    <t>7629989</t>
+    <t>7631028</t>
   </si>
   <si>
-    <t>7631014</t>
+    <t>7631027</t>
   </si>
   <si>
-    <t>7631015</t>
+    <t>7629991</t>
   </si>
   <si>
-    <t>7631016</t>
+    <t>7629992</t>
   </si>
   <si>
-    <t>7629990</t>
+    <t>7629994</t>
   </si>
   <si>
-    <t>7631017</t>
+    <t>7631029</t>
   </si>
   <si>
-    <t>7631020</t>
+    <t>7631022</t>
   </si>
   <si>
-    <t>7631019</t>
+    <t>7631030</t>
   </si>
   <si>
-    <t>7631018</t>
+    <t>7629993</t>
   </si>
   <si>
     <t>USA MLS</t>
@@ -2911,7 +2911,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6063268</v>
+        <v>6063269</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
@@ -2920,82 +2920,82 @@
         <v>45087.97916666666</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L26">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M26">
+        <v>3.75</v>
+      </c>
+      <c r="N26">
+        <v>3.25</v>
+      </c>
+      <c r="O26">
+        <v>2.05</v>
+      </c>
+      <c r="P26">
+        <v>3.6</v>
+      </c>
+      <c r="Q26">
         <v>3.5</v>
       </c>
-      <c r="N26">
-        <v>2.9</v>
-      </c>
-      <c r="O26">
-        <v>3</v>
-      </c>
-      <c r="P26">
-        <v>3.5</v>
-      </c>
-      <c r="Q26">
-        <v>2.3</v>
-      </c>
       <c r="R26">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S26">
+        <v>2.05</v>
+      </c>
+      <c r="T26">
+        <v>1.8</v>
+      </c>
+      <c r="U26">
+        <v>2.75</v>
+      </c>
+      <c r="V26">
         <v>1.85</v>
       </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>2.5</v>
-      </c>
-      <c r="V26">
-        <v>1.9</v>
-      </c>
       <c r="W26">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X26">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD26">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -3003,7 +3003,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6063269</v>
+        <v>6063268</v>
       </c>
       <c r="C27" t="s">
         <v>43</v>
@@ -3012,82 +3012,82 @@
         <v>45087.97916666666</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M27">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N27">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O27">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="R27">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V27">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y27">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB27">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3647,7 +3647,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6063271</v>
+        <v>6062087</v>
       </c>
       <c r="C34" t="s">
         <v>43</v>
@@ -3656,82 +3656,82 @@
         <v>45094.89583333334</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34">
+        <v>1.5</v>
+      </c>
+      <c r="M34">
         <v>3</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34">
-        <v>1.6</v>
-      </c>
-      <c r="M34">
-        <v>4</v>
-      </c>
       <c r="N34">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="O34">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P34">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q34">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="R34">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S34">
+        <v>1.9</v>
+      </c>
+      <c r="T34">
         <v>1.95</v>
-      </c>
-      <c r="T34">
-        <v>1.9</v>
       </c>
       <c r="U34">
         <v>2.75</v>
       </c>
       <c r="V34">
+        <v>1.875</v>
+      </c>
+      <c r="W34">
         <v>1.975</v>
       </c>
-      <c r="W34">
-        <v>1.875</v>
-      </c>
       <c r="X34">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA34">
+        <v>-1</v>
+      </c>
+      <c r="AB34">
         <v>0.95</v>
       </c>
-      <c r="AB34">
-        <v>-1</v>
-      </c>
       <c r="AC34">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AD34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3739,7 +3739,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6062087</v>
+        <v>6063271</v>
       </c>
       <c r="C35" t="s">
         <v>43</v>
@@ -3748,82 +3748,82 @@
         <v>45094.89583333334</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L35">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="O35">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P35">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q35">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="R35">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
         <v>1.9</v>
-      </c>
-      <c r="T35">
-        <v>1.95</v>
       </c>
       <c r="U35">
         <v>2.75</v>
       </c>
       <c r="V35">
+        <v>1.975</v>
+      </c>
+      <c r="W35">
         <v>1.875</v>
       </c>
-      <c r="W35">
-        <v>1.975</v>
-      </c>
       <c r="X35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3923,7 +3923,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6063274</v>
+        <v>6063276</v>
       </c>
       <c r="C37" t="s">
         <v>43</v>
@@ -3932,16 +3932,16 @@
         <v>45098.85416666666</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -3950,64 +3950,64 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L37">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="M37">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N37">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="O37">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="P37">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q37">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="R37">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T37">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U37">
         <v>2.75</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="X37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC37">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
       <c r="AD37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -4107,7 +4107,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6062088</v>
+        <v>6063274</v>
       </c>
       <c r="C39" t="s">
         <v>43</v>
@@ -4116,46 +4116,46 @@
         <v>45098.85416666666</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L39">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M39">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N39">
         <v>4.5</v>
       </c>
       <c r="O39">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="P39">
         <v>3.75</v>
       </c>
       <c r="Q39">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="R39">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S39">
         <v>2</v>
@@ -4164,34 +4164,34 @@
         <v>1.85</v>
       </c>
       <c r="U39">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V39">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y39">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AD39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4199,7 +4199,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6063276</v>
+        <v>6062088</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -4208,10 +4208,10 @@
         <v>45098.85416666666</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -4220,67 +4220,67 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" t="s">
         <v>73</v>
       </c>
       <c r="L40">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="M40">
         <v>3.5</v>
       </c>
       <c r="N40">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="O40">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="P40">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q40">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="R40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U40">
+        <v>2.25</v>
+      </c>
+      <c r="V40">
+        <v>1.9</v>
+      </c>
+      <c r="W40">
+        <v>1.95</v>
+      </c>
+      <c r="X40">
+        <v>-1</v>
+      </c>
+      <c r="Y40">
         <v>2.75</v>
       </c>
-      <c r="V40">
-        <v>2.025</v>
-      </c>
-      <c r="W40">
-        <v>1.825</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>2.6</v>
-      </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD40">
         <v>-1</v>
@@ -4659,7 +4659,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6062092</v>
+        <v>6063354</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
@@ -4668,82 +4668,82 @@
         <v>45098.97916666666</v>
       </c>
       <c r="E45" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L45">
+        <v>2.05</v>
+      </c>
+      <c r="M45">
+        <v>3.4</v>
+      </c>
+      <c r="N45">
+        <v>3.2</v>
+      </c>
+      <c r="O45">
+        <v>1.727</v>
+      </c>
+      <c r="P45">
+        <v>3.8</v>
+      </c>
+      <c r="Q45">
+        <v>4.5</v>
+      </c>
+      <c r="R45">
+        <v>-0.75</v>
+      </c>
+      <c r="S45">
+        <v>1.95</v>
+      </c>
+      <c r="T45">
         <v>1.9</v>
       </c>
-      <c r="M45">
-        <v>3.5</v>
-      </c>
-      <c r="N45">
-        <v>3.6</v>
-      </c>
-      <c r="O45">
-        <v>2.15</v>
-      </c>
-      <c r="P45">
-        <v>3.75</v>
-      </c>
-      <c r="Q45">
-        <v>3.1</v>
-      </c>
-      <c r="R45">
-        <v>-0.25</v>
-      </c>
-      <c r="S45">
-        <v>1.9</v>
-      </c>
-      <c r="T45">
-        <v>1.95</v>
-      </c>
       <c r="U45">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
+        <v>0.475</v>
+      </c>
+      <c r="AB45">
         <v>-0.5</v>
       </c>
-      <c r="AB45">
-        <v>0.475</v>
-      </c>
       <c r="AC45">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4843,7 +4843,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6063354</v>
+        <v>6062092</v>
       </c>
       <c r="C47" t="s">
         <v>43</v>
@@ -4852,82 +4852,82 @@
         <v>45098.97916666666</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L47">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="M47">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O47">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="P47">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q47">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="R47">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
         <v>1.95</v>
       </c>
-      <c r="T47">
-        <v>1.9</v>
-      </c>
       <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>2.025</v>
+      </c>
+      <c r="W47">
+        <v>1.825</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
         <v>2.75</v>
       </c>
-      <c r="V47">
-        <v>2</v>
-      </c>
-      <c r="W47">
-        <v>1.85</v>
-      </c>
-      <c r="X47">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Y47">
-        <v>-1</v>
-      </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
+        <v>-0.5</v>
+      </c>
+      <c r="AB47">
         <v>0.475</v>
       </c>
-      <c r="AB47">
-        <v>-0.5</v>
-      </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -4935,7 +4935,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6062096</v>
+        <v>6063280</v>
       </c>
       <c r="C48" t="s">
         <v>43</v>
@@ -4944,64 +4944,64 @@
         <v>45101.85416666666</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="s">
         <v>74</v>
       </c>
       <c r="L48">
+        <v>1.75</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>4.333</v>
+      </c>
+      <c r="O48">
+        <v>1.533</v>
+      </c>
+      <c r="P48">
+        <v>4.5</v>
+      </c>
+      <c r="Q48">
+        <v>5.5</v>
+      </c>
+      <c r="R48">
+        <v>-1</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>1.925</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48">
+        <v>1.9</v>
+      </c>
+      <c r="W48">
         <v>1.95</v>
       </c>
-      <c r="M48">
-        <v>3.6</v>
-      </c>
-      <c r="N48">
-        <v>3.8</v>
-      </c>
-      <c r="O48">
-        <v>1.75</v>
-      </c>
-      <c r="P48">
-        <v>3.8</v>
-      </c>
-      <c r="Q48">
-        <v>4.333</v>
-      </c>
-      <c r="R48">
-        <v>-0.5</v>
-      </c>
-      <c r="S48">
-        <v>1.8</v>
-      </c>
-      <c r="T48">
-        <v>2.05</v>
-      </c>
-      <c r="U48">
-        <v>2.5</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
-      <c r="W48">
-        <v>1.975</v>
-      </c>
       <c r="X48">
-        <v>0.75</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y48">
         <v>-1</v>
@@ -5010,16 +5010,16 @@
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -5027,7 +5027,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6062095</v>
+        <v>6062096</v>
       </c>
       <c r="C49" t="s">
         <v>43</v>
@@ -5036,19 +5036,19 @@
         <v>45101.85416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -5057,43 +5057,43 @@
         <v>74</v>
       </c>
       <c r="L49">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="M49">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N49">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O49">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="P49">
         <v>3.8</v>
       </c>
       <c r="Q49">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="R49">
         <v>-0.5</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U49">
         <v>2.5</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X49">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Y49">
         <v>-1</v>
@@ -5102,13 +5102,13 @@
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD49">
         <v>-1</v>
@@ -5119,7 +5119,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6062094</v>
+        <v>6062095</v>
       </c>
       <c r="C50" t="s">
         <v>43</v>
@@ -5128,19 +5128,19 @@
         <v>45101.85416666666</v>
       </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -5149,34 +5149,34 @@
         <v>74</v>
       </c>
       <c r="L50">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="M50">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N50">
+        <v>3.3</v>
+      </c>
+      <c r="O50">
+        <v>1.85</v>
+      </c>
+      <c r="P50">
         <v>3.8</v>
       </c>
-      <c r="O50">
-        <v>1.909</v>
-      </c>
-      <c r="P50">
+      <c r="Q50">
         <v>3.75</v>
-      </c>
-      <c r="Q50">
-        <v>4</v>
       </c>
       <c r="R50">
         <v>-0.5</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U50">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V50">
         <v>1.925</v>
@@ -5185,7 +5185,7 @@
         <v>1.925</v>
       </c>
       <c r="X50">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y50">
         <v>-1</v>
@@ -5194,16 +5194,16 @@
         <v>-1</v>
       </c>
       <c r="AA50">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.925</v>
       </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>-1</v>
-      </c>
       <c r="AD50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5211,7 +5211,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6063279</v>
+        <v>6062094</v>
       </c>
       <c r="C51" t="s">
         <v>43</v>
@@ -5220,82 +5220,82 @@
         <v>45101.85416666666</v>
       </c>
       <c r="E51" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L51">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="M51">
+        <v>3.5</v>
+      </c>
+      <c r="N51">
         <v>3.8</v>
       </c>
-      <c r="N51">
+      <c r="O51">
+        <v>1.909</v>
+      </c>
+      <c r="P51">
+        <v>3.75</v>
+      </c>
+      <c r="Q51">
         <v>4</v>
       </c>
-      <c r="O51">
-        <v>1.666</v>
-      </c>
-      <c r="P51">
-        <v>4</v>
-      </c>
-      <c r="Q51">
-        <v>4.75</v>
-      </c>
       <c r="R51">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U51">
         <v>2.75</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
         <v>-1</v>
       </c>
       <c r="AD51">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5303,7 +5303,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6063281</v>
+        <v>6063279</v>
       </c>
       <c r="C52" t="s">
         <v>43</v>
@@ -5312,55 +5312,55 @@
         <v>45101.85416666666</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>73</v>
+      </c>
+      <c r="L52">
+        <v>1.85</v>
+      </c>
+      <c r="M52">
+        <v>3.8</v>
+      </c>
+      <c r="N52">
         <v>4</v>
       </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>3</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>74</v>
-      </c>
-      <c r="L52">
-        <v>1.444</v>
-      </c>
-      <c r="M52">
+      <c r="O52">
+        <v>1.666</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52">
         <v>4.75</v>
       </c>
-      <c r="N52">
-        <v>6.5</v>
-      </c>
-      <c r="O52">
-        <v>1.3</v>
-      </c>
-      <c r="P52">
-        <v>5.5</v>
-      </c>
-      <c r="Q52">
-        <v>10</v>
-      </c>
       <c r="R52">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U52">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V52">
         <v>1.85</v>
@@ -5369,25 +5369,25 @@
         <v>2</v>
       </c>
       <c r="X52">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD52">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5395,7 +5395,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6063280</v>
+        <v>6063281</v>
       </c>
       <c r="C53" t="s">
         <v>43</v>
@@ -5404,64 +5404,64 @@
         <v>45101.85416666666</v>
       </c>
       <c r="E53" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s">
         <v>74</v>
       </c>
       <c r="L53">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="M53">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N53">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="O53">
-        <v>1.533</v>
+        <v>1.3</v>
       </c>
       <c r="P53">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q53">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="R53">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U53">
         <v>3</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X53">
-        <v>0.5329999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5470,16 +5470,16 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5855,7 +5855,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6063283</v>
+        <v>6063285</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -5864,19 +5864,19 @@
         <v>45101.97916666666</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -5885,46 +5885,46 @@
         <v>73</v>
       </c>
       <c r="L58">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="M58">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N58">
         <v>4</v>
       </c>
       <c r="O58">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="P58">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q58">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R58">
         <v>-0.5</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V58">
+        <v>1.9</v>
+      </c>
+      <c r="W58">
         <v>1.95</v>
       </c>
-      <c r="W58">
-        <v>1.9</v>
-      </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Z58">
         <v>-1</v>
@@ -5933,13 +5933,13 @@
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC58">
         <v>-1</v>
       </c>
       <c r="AD58">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -5947,7 +5947,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6063355</v>
+        <v>6063284</v>
       </c>
       <c r="C59" t="s">
         <v>43</v>
@@ -5956,62 +5956,62 @@
         <v>45101.97916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" t="s">
         <v>75</v>
       </c>
       <c r="L59">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="M59">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N59">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="O59">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="P59">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q59">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="R59">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>1.85</v>
+      </c>
+      <c r="U59">
+        <v>2.75</v>
+      </c>
+      <c r="V59">
         <v>1.925</v>
       </c>
-      <c r="T59">
+      <c r="W59">
         <v>1.925</v>
       </c>
-      <c r="U59">
-        <v>3.25</v>
-      </c>
-      <c r="V59">
-        <v>1.975</v>
-      </c>
-      <c r="W59">
-        <v>1.875</v>
-      </c>
       <c r="X59">
         <v>-1</v>
       </c>
@@ -6019,19 +6019,19 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>4.25</v>
+        <v>3.2</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AD59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -6039,7 +6039,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6063284</v>
+        <v>6063355</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
@@ -6048,61 +6048,61 @@
         <v>45101.97916666666</v>
       </c>
       <c r="E60" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" t="s">
         <v>75</v>
       </c>
       <c r="L60">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="M60">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N60">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="O60">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="P60">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="R60">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U60">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -6111,19 +6111,19 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>3.2</v>
+        <v>4.25</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC60">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6131,7 +6131,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6063285</v>
+        <v>6063283</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -6140,19 +6140,19 @@
         <v>45101.97916666666</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -6161,46 +6161,46 @@
         <v>73</v>
       </c>
       <c r="L61">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="M61">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N61">
         <v>4</v>
       </c>
       <c r="O61">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P61">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q61">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R61">
         <v>-0.5</v>
       </c>
       <c r="S61">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T61">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V61">
+        <v>1.95</v>
+      </c>
+      <c r="W61">
         <v>1.9</v>
       </c>
-      <c r="W61">
-        <v>1.95</v>
-      </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z61">
         <v>-1</v>
@@ -6209,13 +6209,13 @@
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC61">
         <v>-1</v>
       </c>
       <c r="AD61">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -6223,7 +6223,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6063289</v>
+        <v>6063288</v>
       </c>
       <c r="C62" t="s">
         <v>43</v>
@@ -6232,10 +6232,10 @@
         <v>45108.85416666666</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -6247,46 +6247,46 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="s">
         <v>75</v>
       </c>
       <c r="L62">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="M62">
         <v>3.5</v>
       </c>
       <c r="N62">
+        <v>3.2</v>
+      </c>
+      <c r="O62">
+        <v>2.55</v>
+      </c>
+      <c r="P62">
         <v>3.5</v>
       </c>
-      <c r="O62">
-        <v>2.3</v>
-      </c>
-      <c r="P62">
-        <v>3.8</v>
-      </c>
       <c r="Q62">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R62">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U62">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6295,19 +6295,19 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
       </c>
       <c r="AD62">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -6315,7 +6315,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6063288</v>
+        <v>6063289</v>
       </c>
       <c r="C63" t="s">
         <v>43</v>
@@ -6324,10 +6324,10 @@
         <v>45108.85416666666</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6339,46 +6339,46 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="s">
         <v>75</v>
       </c>
       <c r="L63">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="M63">
         <v>3.5</v>
       </c>
       <c r="N63">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="P63">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q63">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="U63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W63">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6387,19 +6387,19 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC63">
         <v>-1</v>
       </c>
       <c r="AD63">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6407,7 +6407,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6063286</v>
+        <v>6063287</v>
       </c>
       <c r="C64" t="s">
         <v>43</v>
@@ -6416,82 +6416,82 @@
         <v>45108.85416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K64" t="s">
         <v>73</v>
       </c>
       <c r="L64">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="M64">
         <v>3.5</v>
       </c>
       <c r="N64">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q64">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="R64">
+        <v>0.25</v>
+      </c>
+      <c r="S64">
+        <v>1.8</v>
+      </c>
+      <c r="T64">
+        <v>2.05</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <v>2.05</v>
+      </c>
+      <c r="W64">
+        <v>1.8</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
+        <v>2.5</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>0.4</v>
+      </c>
+      <c r="AB64">
         <v>-0.5</v>
       </c>
-      <c r="S64">
-        <v>2.025</v>
-      </c>
-      <c r="T64">
-        <v>1.825</v>
-      </c>
-      <c r="U64">
-        <v>2.75</v>
-      </c>
-      <c r="V64">
-        <v>1.875</v>
-      </c>
-      <c r="W64">
-        <v>1.975</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>2.8</v>
-      </c>
-      <c r="Z64">
-        <v>-1</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>0.825</v>
-      </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6499,7 +6499,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6063287</v>
+        <v>6063286</v>
       </c>
       <c r="C65" t="s">
         <v>43</v>
@@ -6508,82 +6508,82 @@
         <v>45108.85416666666</v>
       </c>
       <c r="E65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K65" t="s">
         <v>73</v>
       </c>
       <c r="L65">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="M65">
         <v>3.5</v>
       </c>
       <c r="N65">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>3.8</v>
+      </c>
+      <c r="Q65">
+        <v>3.4</v>
+      </c>
+      <c r="R65">
+        <v>-0.5</v>
+      </c>
+      <c r="S65">
+        <v>2.025</v>
+      </c>
+      <c r="T65">
+        <v>1.825</v>
+      </c>
+      <c r="U65">
+        <v>2.75</v>
+      </c>
+      <c r="V65">
+        <v>1.875</v>
+      </c>
+      <c r="W65">
+        <v>1.975</v>
+      </c>
+      <c r="X65">
+        <v>-1</v>
+      </c>
+      <c r="Y65">
         <v>2.8</v>
       </c>
-      <c r="P65">
-        <v>3.5</v>
-      </c>
-      <c r="Q65">
-        <v>2.4</v>
-      </c>
-      <c r="R65">
-        <v>0.25</v>
-      </c>
-      <c r="S65">
-        <v>1.8</v>
-      </c>
-      <c r="T65">
-        <v>2.05</v>
-      </c>
-      <c r="U65">
-        <v>3</v>
-      </c>
-      <c r="V65">
-        <v>2.05</v>
-      </c>
-      <c r="W65">
-        <v>1.8</v>
-      </c>
-      <c r="X65">
-        <v>-1</v>
-      </c>
-      <c r="Y65">
-        <v>2.5</v>
-      </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD65">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6591,7 +6591,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6062101</v>
+        <v>6062100</v>
       </c>
       <c r="C66" t="s">
         <v>43</v>
@@ -6600,13 +6600,13 @@
         <v>45108.85416666666</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6615,37 +6615,37 @@
         <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="s">
         <v>74</v>
       </c>
       <c r="L66">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="M66">
+        <v>3.4</v>
+      </c>
+      <c r="N66">
         <v>3.6</v>
       </c>
-      <c r="N66">
-        <v>3.9</v>
-      </c>
       <c r="O66">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="P66">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q66">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R66">
         <v>-0.5</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T66">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U66">
         <v>2.75</v>
@@ -6657,7 +6657,7 @@
         <v>1.9</v>
       </c>
       <c r="X66">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6666,16 +6666,16 @@
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AD66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -6683,7 +6683,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6062100</v>
+        <v>6062101</v>
       </c>
       <c r="C67" t="s">
         <v>43</v>
@@ -6692,13 +6692,13 @@
         <v>45108.85416666666</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6707,37 +6707,37 @@
         <v>1</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="s">
         <v>74</v>
       </c>
       <c r="L67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="M67">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N67">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="O67">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="P67">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R67">
         <v>-0.5</v>
       </c>
       <c r="S67">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U67">
         <v>2.75</v>
@@ -6749,7 +6749,7 @@
         <v>1.9</v>
       </c>
       <c r="X67">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y67">
         <v>-1</v>
@@ -6758,16 +6758,16 @@
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB67">
         <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
       <c r="AD67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6775,7 +6775,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6062102</v>
+        <v>6063290</v>
       </c>
       <c r="C68" t="s">
         <v>43</v>
@@ -6784,19 +6784,19 @@
         <v>45108.89583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -6805,34 +6805,34 @@
         <v>74</v>
       </c>
       <c r="L68">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="M68">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N68">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="P68">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q68">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="R68">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
         <v>1.85</v>
       </c>
-      <c r="T68">
-        <v>2</v>
-      </c>
       <c r="U68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V68">
         <v>1.85</v>
@@ -6841,7 +6841,7 @@
         <v>2</v>
       </c>
       <c r="X68">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Y68">
         <v>-1</v>
@@ -6850,16 +6850,16 @@
         <v>-1</v>
       </c>
       <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>-1</v>
+      </c>
+      <c r="AC68">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
-      <c r="AC68">
-        <v>-1</v>
-      </c>
       <c r="AD68">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6867,7 +6867,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6063290</v>
+        <v>6062102</v>
       </c>
       <c r="C69" t="s">
         <v>43</v>
@@ -6876,19 +6876,19 @@
         <v>45108.89583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -6897,34 +6897,34 @@
         <v>74</v>
       </c>
       <c r="L69">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="M69">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N69">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O69">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q69">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="R69">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U69">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V69">
         <v>1.85</v>
@@ -6933,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="X69">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="Y69">
         <v>-1</v>
@@ -6942,16 +6942,16 @@
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD69">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -7511,7 +7511,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6063292</v>
+        <v>6062108</v>
       </c>
       <c r="C76" t="s">
         <v>43</v>
@@ -7520,79 +7520,79 @@
         <v>45111.85416666666</v>
       </c>
       <c r="E76" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F76" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L76">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="M76">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="O76">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="P76">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q76">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="R76">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U76">
         <v>3</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X76">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD76">
         <v>-1</v>
@@ -7603,7 +7603,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6062108</v>
+        <v>6063292</v>
       </c>
       <c r="C77" t="s">
         <v>43</v>
@@ -7612,79 +7612,79 @@
         <v>45111.85416666666</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L77">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="M77">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N77">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="O77">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="P77">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q77">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="R77">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U77">
         <v>3</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AD77">
         <v>-1</v>
@@ -8523,7 +8523,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6062116</v>
+        <v>6062115</v>
       </c>
       <c r="C87" t="s">
         <v>43</v>
@@ -8532,82 +8532,82 @@
         <v>45115.89583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F87" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L87">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="M87">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N87">
         <v>3.1</v>
       </c>
       <c r="O87">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P87">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q87">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R87">
         <v>-0.25</v>
       </c>
       <c r="S87">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T87">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U87">
         <v>2.5</v>
       </c>
       <c r="V87">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y87">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB87">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8615,7 +8615,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6063297</v>
+        <v>6062116</v>
       </c>
       <c r="C88" t="s">
         <v>43</v>
@@ -8624,79 +8624,79 @@
         <v>45115.89583333334</v>
       </c>
       <c r="E88" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L88">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="M88">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
+        <v>3.1</v>
+      </c>
+      <c r="O88">
+        <v>2.15</v>
+      </c>
+      <c r="P88">
         <v>3.6</v>
       </c>
-      <c r="O88">
-        <v>1.8</v>
-      </c>
-      <c r="P88">
-        <v>4</v>
-      </c>
       <c r="Q88">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R88">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S88">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U88">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W88">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z88">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC88">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD88">
         <v>-1</v>
@@ -8707,7 +8707,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6062115</v>
+        <v>6063297</v>
       </c>
       <c r="C89" t="s">
         <v>43</v>
@@ -8716,55 +8716,55 @@
         <v>45115.89583333334</v>
       </c>
       <c r="E89" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F89" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K89" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L89">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M89">
+        <v>3.75</v>
+      </c>
+      <c r="N89">
+        <v>3.6</v>
+      </c>
+      <c r="O89">
+        <v>1.8</v>
+      </c>
+      <c r="P89">
+        <v>4</v>
+      </c>
+      <c r="Q89">
+        <v>4</v>
+      </c>
+      <c r="R89">
+        <v>-0.75</v>
+      </c>
+      <c r="S89">
+        <v>2.025</v>
+      </c>
+      <c r="T89">
+        <v>1.825</v>
+      </c>
+      <c r="U89">
         <v>3.25</v>
-      </c>
-      <c r="N89">
-        <v>3.1</v>
-      </c>
-      <c r="O89">
-        <v>2.25</v>
-      </c>
-      <c r="P89">
-        <v>3.4</v>
-      </c>
-      <c r="Q89">
-        <v>3.1</v>
-      </c>
-      <c r="R89">
-        <v>-0.25</v>
-      </c>
-      <c r="S89">
-        <v>2.05</v>
-      </c>
-      <c r="T89">
-        <v>1.8</v>
-      </c>
-      <c r="U89">
-        <v>2.5</v>
       </c>
       <c r="V89">
         <v>2.05</v>
@@ -8773,25 +8773,25 @@
         <v>1.8</v>
       </c>
       <c r="X89">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
+        <v>0.825</v>
+      </c>
+      <c r="AC89">
         <v>1.05</v>
       </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
-      </c>
       <c r="AD89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8983,7 +8983,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6063299</v>
+        <v>6063356</v>
       </c>
       <c r="C92" t="s">
         <v>43</v>
@@ -8992,82 +8992,82 @@
         <v>45115.97916666666</v>
       </c>
       <c r="E92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F92" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L92">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N92">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O92">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q92">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="R92">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U92">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA92">
         <v>-1</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD92">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -9075,7 +9075,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6063356</v>
+        <v>6063299</v>
       </c>
       <c r="C93" t="s">
         <v>43</v>
@@ -9084,82 +9084,82 @@
         <v>45115.97916666666</v>
       </c>
       <c r="E93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>73</v>
+      </c>
+      <c r="L93">
+        <v>1.444</v>
+      </c>
+      <c r="M93">
+        <v>4.5</v>
+      </c>
+      <c r="N93">
+        <v>6</v>
+      </c>
+      <c r="O93">
+        <v>1.4</v>
+      </c>
+      <c r="P93">
+        <v>4.75</v>
+      </c>
+      <c r="Q93">
+        <v>8</v>
+      </c>
+      <c r="R93">
+        <v>-1.25</v>
+      </c>
+      <c r="S93">
+        <v>1.85</v>
+      </c>
+      <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
         <v>3</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93" t="s">
-        <v>75</v>
-      </c>
-      <c r="L93">
-        <v>2.05</v>
-      </c>
-      <c r="M93">
-        <v>3.4</v>
-      </c>
-      <c r="N93">
-        <v>3.4</v>
-      </c>
-      <c r="O93">
-        <v>2.15</v>
-      </c>
-      <c r="P93">
-        <v>3.6</v>
-      </c>
-      <c r="Q93">
-        <v>3.2</v>
-      </c>
-      <c r="R93">
-        <v>-0.25</v>
-      </c>
-      <c r="S93">
-        <v>1.925</v>
-      </c>
-      <c r="T93">
-        <v>1.925</v>
-      </c>
-      <c r="U93">
-        <v>2.75</v>
-      </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z93">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD93">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9535,7 +9535,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6063301</v>
+        <v>6062121</v>
       </c>
       <c r="C98" t="s">
         <v>43</v>
@@ -9544,40 +9544,40 @@
         <v>45119.89583333334</v>
       </c>
       <c r="E98" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98" t="s">
         <v>75</v>
       </c>
       <c r="L98">
-        <v>2.2</v>
+        <v>1.952</v>
       </c>
       <c r="M98">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N98">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="O98">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="P98">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q98">
         <v>4.2</v>
@@ -9586,19 +9586,19 @@
         <v>-0.5</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U98">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9613,13 +9613,13 @@
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD98">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9627,7 +9627,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6062121</v>
+        <v>6062122</v>
       </c>
       <c r="C99" t="s">
         <v>43</v>
@@ -9636,82 +9636,82 @@
         <v>45119.89583333334</v>
       </c>
       <c r="E99" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F99" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L99">
-        <v>1.952</v>
+        <v>1.909</v>
       </c>
       <c r="M99">
         <v>3.4</v>
       </c>
       <c r="N99">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O99">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="P99">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q99">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="R99">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U99">
         <v>3</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z99">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD99">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9719,7 +9719,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6062122</v>
+        <v>6063301</v>
       </c>
       <c r="C100" t="s">
         <v>43</v>
@@ -9728,82 +9728,82 @@
         <v>45119.89583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F100" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>2</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L100">
+        <v>2.2</v>
+      </c>
+      <c r="M100">
+        <v>3.25</v>
+      </c>
+      <c r="N100">
+        <v>3.25</v>
+      </c>
+      <c r="O100">
         <v>1.909</v>
       </c>
-      <c r="M100">
-        <v>3.4</v>
-      </c>
-      <c r="N100">
-        <v>4</v>
-      </c>
-      <c r="O100">
-        <v>1.727</v>
-      </c>
       <c r="P100">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q100">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="R100">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U100">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V100">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -11375,7 +11375,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6062131</v>
+        <v>6062132</v>
       </c>
       <c r="C118" t="s">
         <v>43</v>
@@ -11384,19 +11384,19 @@
         <v>45158.85416666666</v>
       </c>
       <c r="E118" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F118" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -11405,25 +11405,25 @@
         <v>74</v>
       </c>
       <c r="L118">
-        <v>1.952</v>
+        <v>1.75</v>
       </c>
       <c r="M118">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N118">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O118">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="P118">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="R118">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S118">
         <v>1.95</v>
@@ -11432,16 +11432,16 @@
         <v>1.9</v>
       </c>
       <c r="U118">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="V118">
+        <v>1.875</v>
+      </c>
+      <c r="W118">
         <v>1.975</v>
       </c>
-      <c r="W118">
-        <v>1.875</v>
-      </c>
       <c r="X118">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y118">
         <v>-1</v>
@@ -11450,16 +11450,16 @@
         <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD118">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -11467,7 +11467,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6063311</v>
+        <v>6063312</v>
       </c>
       <c r="C119" t="s">
         <v>43</v>
@@ -11476,61 +11476,61 @@
         <v>45158.85416666666</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K119" t="s">
         <v>75</v>
       </c>
       <c r="L119">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="M119">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N119">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O119">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="P119">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q119">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="R119">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11539,19 +11539,19 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>3.333</v>
+        <v>2.1</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD119">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -11559,7 +11559,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6063312</v>
+        <v>6062131</v>
       </c>
       <c r="C120" t="s">
         <v>43</v>
@@ -11568,82 +11568,82 @@
         <v>45158.85416666666</v>
       </c>
       <c r="E120" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F120" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L120">
-        <v>2.2</v>
+        <v>1.952</v>
       </c>
       <c r="M120">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N120">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="O120">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q120">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S120">
+        <v>1.95</v>
+      </c>
+      <c r="T120">
         <v>1.9</v>
       </c>
-      <c r="T120">
-        <v>1.95</v>
-      </c>
       <c r="U120">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AD120">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -11651,7 +11651,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6062132</v>
+        <v>6063311</v>
       </c>
       <c r="C121" t="s">
         <v>43</v>
@@ -11660,16 +11660,16 @@
         <v>45158.85416666666</v>
       </c>
       <c r="E121" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -11678,64 +11678,64 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L121">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="M121">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N121">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O121">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="P121">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q121">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="R121">
         <v>-0.75</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U121">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W121">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X121">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="AA121">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
       </c>
       <c r="AD121">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -41183,7 +41183,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>7630921</v>
+        <v>7630922</v>
       </c>
       <c r="C442" t="s">
         <v>43</v>
@@ -41192,10 +41192,10 @@
         <v>45416.85416666666</v>
       </c>
       <c r="E442" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F442" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G442">
         <v>3</v>
@@ -41213,43 +41213,43 @@
         <v>74</v>
       </c>
       <c r="L442">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="M442">
         <v>3.6</v>
       </c>
       <c r="N442">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="O442">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="P442">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q442">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="R442">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S442">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T442">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U442">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V442">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W442">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="X442">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="Y442">
         <v>-1</v>
@@ -41258,13 +41258,13 @@
         <v>-1</v>
       </c>
       <c r="AA442">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB442">
         <v>-1</v>
       </c>
       <c r="AC442">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AD442">
         <v>-1</v>
@@ -41275,7 +41275,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>7630918</v>
+        <v>7630921</v>
       </c>
       <c r="C443" t="s">
         <v>43</v>
@@ -41284,79 +41284,79 @@
         <v>45416.85416666666</v>
       </c>
       <c r="E443" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F443" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G443">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K443" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L443">
         <v>2.8</v>
       </c>
       <c r="M443">
+        <v>3.6</v>
+      </c>
+      <c r="N443">
+        <v>2.3</v>
+      </c>
+      <c r="O443">
         <v>3.1</v>
       </c>
-      <c r="N443">
-        <v>2.625</v>
-      </c>
-      <c r="O443">
-        <v>2.3</v>
-      </c>
       <c r="P443">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q443">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="R443">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S443">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T443">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U443">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V443">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W443">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y443">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
         <v>-1</v>
       </c>
       <c r="AA443">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB443">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC443">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AD443">
         <v>-1</v>
@@ -41367,7 +41367,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>7630922</v>
+        <v>7630918</v>
       </c>
       <c r="C444" t="s">
         <v>43</v>
@@ -41376,79 +41376,79 @@
         <v>45416.85416666666</v>
       </c>
       <c r="E444" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F444" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G444">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K444" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L444">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="M444">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N444">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="O444">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="P444">
         <v>3.5</v>
       </c>
       <c r="Q444">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R444">
+        <v>-0.25</v>
+      </c>
+      <c r="S444">
+        <v>2</v>
+      </c>
+      <c r="T444">
+        <v>1.85</v>
+      </c>
+      <c r="U444">
+        <v>3</v>
+      </c>
+      <c r="V444">
+        <v>1.825</v>
+      </c>
+      <c r="W444">
+        <v>2.025</v>
+      </c>
+      <c r="X444">
+        <v>-1</v>
+      </c>
+      <c r="Y444">
+        <v>2.5</v>
+      </c>
+      <c r="Z444">
+        <v>-1</v>
+      </c>
+      <c r="AA444">
         <v>-0.5</v>
       </c>
-      <c r="S444">
-        <v>2.025</v>
-      </c>
-      <c r="T444">
-        <v>1.825</v>
-      </c>
-      <c r="U444">
-        <v>2.5</v>
-      </c>
-      <c r="V444">
-        <v>1.925</v>
-      </c>
-      <c r="W444">
-        <v>1.925</v>
-      </c>
-      <c r="X444">
-        <v>1.05</v>
-      </c>
-      <c r="Y444">
-        <v>-1</v>
-      </c>
-      <c r="Z444">
-        <v>-1</v>
-      </c>
-      <c r="AA444">
-        <v>1.025</v>
-      </c>
       <c r="AB444">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC444">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AD444">
         <v>-1</v>
@@ -42287,7 +42287,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>7630929</v>
+        <v>7630926</v>
       </c>
       <c r="C454" t="s">
         <v>43</v>
@@ -42296,64 +42296,64 @@
         <v>45423.85416666666</v>
       </c>
       <c r="E454" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F454" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G454">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K454" t="s">
         <v>74</v>
       </c>
       <c r="L454">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="M454">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N454">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="O454">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="P454">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q454">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="R454">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S454">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T454">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U454">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V454">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W454">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="X454">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Y454">
         <v>-1</v>
@@ -42362,16 +42362,16 @@
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB454">
         <v>-1</v>
       </c>
       <c r="AC454">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD454">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="455" spans="1:30">
@@ -42379,7 +42379,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>7630931</v>
+        <v>7630929</v>
       </c>
       <c r="C455" t="s">
         <v>43</v>
@@ -42388,55 +42388,55 @@
         <v>45423.85416666666</v>
       </c>
       <c r="E455" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F455" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G455">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H455">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I455">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J455">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K455" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L455">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="M455">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N455">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="O455">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="P455">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q455">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="R455">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S455">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T455">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="U455">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V455">
         <v>1.9</v>
@@ -42445,19 +42445,19 @@
         <v>1.95</v>
       </c>
       <c r="X455">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y455">
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA455">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB455">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC455">
         <v>0.8999999999999999</v>
@@ -42471,7 +42471,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>7630926</v>
+        <v>7630931</v>
       </c>
       <c r="C456" t="s">
         <v>43</v>
@@ -42480,46 +42480,46 @@
         <v>45423.85416666666</v>
       </c>
       <c r="E456" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F456" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I456">
         <v>0</v>
       </c>
       <c r="J456">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K456" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L456">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M456">
         <v>3.4</v>
       </c>
       <c r="N456">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O456">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="P456">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q456">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="R456">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S456">
         <v>1.8</v>
@@ -42531,31 +42531,31 @@
         <v>2.5</v>
       </c>
       <c r="V456">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W456">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X456">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y456">
         <v>-1</v>
       </c>
       <c r="Z456">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA456">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB456">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC456">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD456">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="457" spans="1:30">
@@ -43299,7 +43299,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>7629962</v>
+        <v>7630934</v>
       </c>
       <c r="C465" t="s">
         <v>43</v>
@@ -43308,55 +43308,55 @@
         <v>45423.97916666666</v>
       </c>
       <c r="E465" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F465" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G465">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J465">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K465" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L465">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="M465">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N465">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O465">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="P465">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q465">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="R465">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S465">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T465">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U465">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V465">
         <v>1.9</v>
@@ -43365,25 +43365,25 @@
         <v>1.95</v>
       </c>
       <c r="X465">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y465">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z465">
         <v>-1</v>
       </c>
       <c r="AA465">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB465">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC465">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD465">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:30">
@@ -43391,7 +43391,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>7630934</v>
+        <v>7629962</v>
       </c>
       <c r="C466" t="s">
         <v>43</v>
@@ -43400,55 +43400,55 @@
         <v>45423.97916666666</v>
       </c>
       <c r="E466" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F466" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G466">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J466">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K466" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L466">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="M466">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="N466">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="O466">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="P466">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q466">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="R466">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S466">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T466">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U466">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V466">
         <v>1.9</v>
@@ -43457,25 +43457,25 @@
         <v>1.95</v>
       </c>
       <c r="X466">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y466">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z466">
         <v>-1</v>
       </c>
       <c r="AA466">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB466">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC466">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD466">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467" spans="1:30">
@@ -43759,7 +43759,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>7630938</v>
+        <v>7630940</v>
       </c>
       <c r="C470" t="s">
         <v>43</v>
@@ -43768,61 +43768,61 @@
         <v>45427.85416666666</v>
       </c>
       <c r="E470" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F470" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G470">
         <v>1</v>
       </c>
       <c r="H470">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I470">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J470">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K470" t="s">
         <v>75</v>
       </c>
       <c r="L470">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="M470">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N470">
-        <v>2.15</v>
+        <v>4.4</v>
       </c>
       <c r="O470">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="P470">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q470">
-        <v>2.15</v>
+        <v>3.9</v>
       </c>
       <c r="R470">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S470">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T470">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U470">
         <v>2.75</v>
       </c>
       <c r="V470">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W470">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="X470">
         <v>-1</v>
@@ -43831,19 +43831,19 @@
         <v>-1</v>
       </c>
       <c r="Z470">
-        <v>1.15</v>
+        <v>2.9</v>
       </c>
       <c r="AA470">
         <v>-1</v>
       </c>
       <c r="AB470">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC470">
-        <v>0.925</v>
+        <v>0.4</v>
       </c>
       <c r="AD470">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="471" spans="1:30">
@@ -43851,7 +43851,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>7630939</v>
+        <v>7630938</v>
       </c>
       <c r="C471" t="s">
         <v>43</v>
@@ -43860,82 +43860,82 @@
         <v>45427.85416666666</v>
       </c>
       <c r="E471" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F471" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K471" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L471">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M471">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N471">
         <v>2.15</v>
       </c>
       <c r="O471">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="P471">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q471">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="R471">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S471">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T471">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U471">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V471">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W471">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X471">
         <v>-1</v>
       </c>
       <c r="Y471">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Z471">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AA471">
         <v>-1</v>
       </c>
       <c r="AB471">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC471">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD471">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="472" spans="1:30">
@@ -43943,7 +43943,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>7630940</v>
+        <v>7630939</v>
       </c>
       <c r="C472" t="s">
         <v>43</v>
@@ -43952,82 +43952,82 @@
         <v>45427.85416666666</v>
       </c>
       <c r="E472" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F472" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472">
         <v>0</v>
       </c>
       <c r="J472">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K472" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L472">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="M472">
         <v>3.6</v>
       </c>
       <c r="N472">
-        <v>4.4</v>
+        <v>2.15</v>
       </c>
       <c r="O472">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P472">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="Q472">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="R472">
         <v>-0.5</v>
       </c>
       <c r="S472">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T472">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U472">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V472">
+        <v>2.05</v>
+      </c>
+      <c r="W472">
         <v>1.8</v>
       </c>
-      <c r="W472">
-        <v>2.05</v>
-      </c>
       <c r="X472">
         <v>-1</v>
       </c>
       <c r="Y472">
-        <v>-1</v>
+        <v>2.9</v>
       </c>
       <c r="Z472">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="AA472">
         <v>-1</v>
       </c>
       <c r="AB472">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC472">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AD472">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="473" spans="1:30">
@@ -44035,7 +44035,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>7630942</v>
+        <v>7629964</v>
       </c>
       <c r="C473" t="s">
         <v>43</v>
@@ -44044,16 +44044,16 @@
         <v>45427.89583333334</v>
       </c>
       <c r="E473" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F473" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G473">
         <v>0</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473">
         <v>0</v>
@@ -44065,41 +44065,41 @@
         <v>75</v>
       </c>
       <c r="L473">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="M473">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N473">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="O473">
+        <v>2.05</v>
+      </c>
+      <c r="P473">
+        <v>3.4</v>
+      </c>
+      <c r="Q473">
+        <v>3.7</v>
+      </c>
+      <c r="R473">
+        <v>-0.5</v>
+      </c>
+      <c r="S473">
+        <v>2.05</v>
+      </c>
+      <c r="T473">
+        <v>1.8</v>
+      </c>
+      <c r="U473">
         <v>2.5</v>
       </c>
-      <c r="P473">
-        <v>3.8</v>
-      </c>
-      <c r="Q473">
-        <v>2.55</v>
-      </c>
-      <c r="R473">
-        <v>0</v>
-      </c>
-      <c r="S473">
+      <c r="V473">
+        <v>1.95</v>
+      </c>
+      <c r="W473">
         <v>1.9</v>
       </c>
-      <c r="T473">
-        <v>1.95</v>
-      </c>
-      <c r="U473">
-        <v>3</v>
-      </c>
-      <c r="V473">
-        <v>1.9</v>
-      </c>
-      <c r="W473">
-        <v>1.95</v>
-      </c>
       <c r="X473">
         <v>-1</v>
       </c>
@@ -44107,19 +44107,19 @@
         <v>-1</v>
       </c>
       <c r="Z473">
-        <v>1.55</v>
+        <v>2.7</v>
       </c>
       <c r="AA473">
         <v>-1</v>
       </c>
       <c r="AB473">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC473">
         <v>-1</v>
       </c>
       <c r="AD473">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="474" spans="1:30">
@@ -44127,7 +44127,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>7630941</v>
+        <v>7629963</v>
       </c>
       <c r="C474" t="s">
         <v>43</v>
@@ -44136,13 +44136,13 @@
         <v>45427.89583333334</v>
       </c>
       <c r="E474" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F474" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G474">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H474">
         <v>0</v>
@@ -44157,31 +44157,31 @@
         <v>74</v>
       </c>
       <c r="L474">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="M474">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N474">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O474">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="P474">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q474">
-        <v>5.25</v>
+        <v>2.875</v>
       </c>
       <c r="R474">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S474">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T474">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U474">
         <v>2.5</v>
@@ -44193,7 +44193,7 @@
         <v>1.925</v>
       </c>
       <c r="X474">
-        <v>0.6000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Y474">
         <v>-1</v>
@@ -44202,7 +44202,7 @@
         <v>-1</v>
       </c>
       <c r="AA474">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AB474">
         <v>-1</v>
@@ -44219,7 +44219,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>7629963</v>
+        <v>7630941</v>
       </c>
       <c r="C475" t="s">
         <v>43</v>
@@ -44228,13 +44228,13 @@
         <v>45427.89583333334</v>
       </c>
       <c r="E475" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F475" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H475">
         <v>0</v>
@@ -44249,31 +44249,31 @@
         <v>74</v>
       </c>
       <c r="L475">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="M475">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N475">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O475">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="P475">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q475">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="R475">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S475">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T475">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="U475">
         <v>2.5</v>
@@ -44285,7 +44285,7 @@
         <v>1.925</v>
       </c>
       <c r="X475">
-        <v>1.4</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y475">
         <v>-1</v>
@@ -44294,7 +44294,7 @@
         <v>-1</v>
       </c>
       <c r="AA475">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AB475">
         <v>-1</v>
@@ -44403,7 +44403,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>7629964</v>
+        <v>7630942</v>
       </c>
       <c r="C477" t="s">
         <v>43</v>
@@ -44412,16 +44412,16 @@
         <v>45427.89583333334</v>
       </c>
       <c r="E477" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F477" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G477">
         <v>0</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477">
         <v>0</v>
@@ -44433,41 +44433,41 @@
         <v>75</v>
       </c>
       <c r="L477">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="M477">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N477">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="O477">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="P477">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q477">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="R477">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S477">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T477">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U477">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V477">
+        <v>1.9</v>
+      </c>
+      <c r="W477">
         <v>1.95</v>
       </c>
-      <c r="W477">
-        <v>1.9</v>
-      </c>
       <c r="X477">
         <v>-1</v>
       </c>
@@ -44475,19 +44475,19 @@
         <v>-1</v>
       </c>
       <c r="Z477">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="AA477">
         <v>-1</v>
       </c>
       <c r="AB477">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC477">
         <v>-1</v>
       </c>
       <c r="AD477">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="478" spans="1:30">
@@ -46059,7 +46059,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>7630962</v>
+        <v>7629970</v>
       </c>
       <c r="C495" t="s">
         <v>43</v>
@@ -46068,49 +46068,49 @@
         <v>45437.85416666666</v>
       </c>
       <c r="E495" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F495" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G495">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H495">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K495" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L495">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="M495">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N495">
-        <v>2.35</v>
+        <v>4.2</v>
       </c>
       <c r="O495">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="P495">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q495">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="R495">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S495">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T495">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U495">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V495">
         <v>2</v>
@@ -46122,22 +46122,22 @@
         <v>-1</v>
       </c>
       <c r="Y495">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z495">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA495">
         <v>-1</v>
       </c>
       <c r="AB495">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC495">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD495">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="496" spans="1:30">
@@ -46145,7 +46145,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>7630957</v>
+        <v>7630959</v>
       </c>
       <c r="C496" t="s">
         <v>43</v>
@@ -46154,49 +46154,49 @@
         <v>45437.85416666666</v>
       </c>
       <c r="E496" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F496" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="G496">
         <v>0</v>
       </c>
       <c r="H496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K496" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L496">
+        <v>2.4</v>
+      </c>
+      <c r="M496">
+        <v>3.4</v>
+      </c>
+      <c r="N496">
+        <v>2.8</v>
+      </c>
+      <c r="O496">
+        <v>2.8</v>
+      </c>
+      <c r="P496">
+        <v>3.4</v>
+      </c>
+      <c r="Q496">
+        <v>2.45</v>
+      </c>
+      <c r="R496">
+        <v>0</v>
+      </c>
+      <c r="S496">
+        <v>2.05</v>
+      </c>
+      <c r="T496">
+        <v>1.8</v>
+      </c>
+      <c r="U496">
         <v>2.5</v>
-      </c>
-      <c r="M496">
-        <v>3.6</v>
-      </c>
-      <c r="N496">
-        <v>2.55</v>
-      </c>
-      <c r="O496">
-        <v>2.9</v>
-      </c>
-      <c r="P496">
-        <v>3.75</v>
-      </c>
-      <c r="Q496">
-        <v>2.25</v>
-      </c>
-      <c r="R496">
-        <v>0.25</v>
-      </c>
-      <c r="S496">
-        <v>1.9</v>
-      </c>
-      <c r="T496">
-        <v>1.95</v>
-      </c>
-      <c r="U496">
-        <v>3</v>
       </c>
       <c r="V496">
         <v>1.975</v>
@@ -46208,16 +46208,16 @@
         <v>-1</v>
       </c>
       <c r="Y496">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z496">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA496">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB496">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC496">
         <v>-1</v>
@@ -46231,7 +46231,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>7630959</v>
+        <v>7630960</v>
       </c>
       <c r="C497" t="s">
         <v>43</v>
@@ -46240,76 +46240,76 @@
         <v>45437.85416666666</v>
       </c>
       <c r="E497" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F497" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G497">
         <v>0</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K497" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L497">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M497">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N497">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O497">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P497">
         <v>3.4</v>
       </c>
       <c r="Q497">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="R497">
         <v>0</v>
       </c>
       <c r="S497">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T497">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U497">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V497">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W497">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X497">
         <v>-1</v>
       </c>
       <c r="Y497">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z497">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="AA497">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB497">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC497">
         <v>-1</v>
       </c>
       <c r="AD497">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="498" spans="1:30">
@@ -46317,7 +46317,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>7630960</v>
+        <v>7630961</v>
       </c>
       <c r="C498" t="s">
         <v>43</v>
@@ -46326,55 +46326,55 @@
         <v>45437.85416666666</v>
       </c>
       <c r="E498" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F498" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G498">
         <v>0</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K498" t="s">
         <v>75</v>
       </c>
       <c r="L498">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="M498">
         <v>3.5</v>
       </c>
       <c r="N498">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O498">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="P498">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q498">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="R498">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S498">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T498">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U498">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V498">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W498">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X498">
         <v>-1</v>
@@ -46383,19 +46383,19 @@
         <v>-1</v>
       </c>
       <c r="Z498">
-        <v>1.625</v>
+        <v>2.2</v>
       </c>
       <c r="AA498">
         <v>-1</v>
       </c>
       <c r="AB498">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC498">
         <v>-1</v>
       </c>
       <c r="AD498">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="499" spans="1:30">
@@ -46403,7 +46403,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>7630961</v>
+        <v>7630962</v>
       </c>
       <c r="C499" t="s">
         <v>43</v>
@@ -46412,46 +46412,46 @@
         <v>45437.85416666666</v>
       </c>
       <c r="E499" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F499" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G499">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K499" t="s">
         <v>75</v>
       </c>
       <c r="L499">
+        <v>2.875</v>
+      </c>
+      <c r="M499">
+        <v>3.4</v>
+      </c>
+      <c r="N499">
         <v>2.35</v>
       </c>
-      <c r="M499">
+      <c r="O499">
+        <v>2.8</v>
+      </c>
+      <c r="P499">
         <v>3.5</v>
       </c>
-      <c r="N499">
-        <v>2.8</v>
-      </c>
-      <c r="O499">
-        <v>2.1</v>
-      </c>
-      <c r="P499">
-        <v>3.75</v>
-      </c>
       <c r="Q499">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="R499">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S499">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T499">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U499">
         <v>2.75</v>
@@ -46469,19 +46469,19 @@
         <v>-1</v>
       </c>
       <c r="Z499">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="AA499">
         <v>-1</v>
       </c>
       <c r="AB499">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC499">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD499">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500" spans="1:30">
@@ -46489,7 +46489,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>7629970</v>
+        <v>7630957</v>
       </c>
       <c r="C500" t="s">
         <v>43</v>
@@ -46498,76 +46498,76 @@
         <v>45437.85416666666</v>
       </c>
       <c r="E500" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F500" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G500">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H500">
         <v>1</v>
       </c>
       <c r="K500" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L500">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="M500">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N500">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O500">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="P500">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q500">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="R500">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S500">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T500">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="U500">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V500">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W500">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="X500">
         <v>-1</v>
       </c>
       <c r="Y500">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z500">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA500">
         <v>-1</v>
       </c>
       <c r="AB500">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC500">
         <v>-1</v>
       </c>
       <c r="AD500">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="501" spans="1:30">
@@ -46919,7 +46919,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>8237703</v>
+        <v>7629971</v>
       </c>
       <c r="C505" t="s">
         <v>43</v>
@@ -46928,37 +46928,37 @@
         <v>45437.97916666666</v>
       </c>
       <c r="E505" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F505" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="G505">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K505" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L505">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="M505">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="N505">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="O505">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="P505">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q505">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="R505">
         <v>-0.75</v>
@@ -46973,25 +46973,25 @@
         <v>3</v>
       </c>
       <c r="V505">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W505">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X505">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Y505">
         <v>-1</v>
       </c>
       <c r="Z505">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA505">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB505">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC505">
         <v>0</v>
@@ -47005,7 +47005,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>7630966</v>
+        <v>7629972</v>
       </c>
       <c r="C506" t="s">
         <v>43</v>
@@ -47014,76 +47014,76 @@
         <v>45437.97916666666</v>
       </c>
       <c r="E506" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F506" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="G506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H506">
         <v>1</v>
       </c>
       <c r="K506" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L506">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="M506">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N506">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="O506">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="P506">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q506">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="R506">
         <v>-0.5</v>
       </c>
       <c r="S506">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T506">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U506">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V506">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W506">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X506">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y506">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z506">
         <v>-1</v>
       </c>
       <c r="AA506">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB506">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC506">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:30">
@@ -47091,7 +47091,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>7629971</v>
+        <v>7630966</v>
       </c>
       <c r="C507" t="s">
         <v>43</v>
@@ -47100,76 +47100,76 @@
         <v>45437.97916666666</v>
       </c>
       <c r="E507" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F507" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G507">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H507">
         <v>1</v>
       </c>
       <c r="K507" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L507">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="M507">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N507">
         <v>3.75</v>
       </c>
       <c r="O507">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="P507">
         <v>4</v>
       </c>
       <c r="Q507">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="R507">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S507">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T507">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U507">
+        <v>2.75</v>
+      </c>
+      <c r="V507">
+        <v>1.85</v>
+      </c>
+      <c r="W507">
+        <v>2</v>
+      </c>
+      <c r="X507">
+        <v>-1</v>
+      </c>
+      <c r="Y507">
         <v>3</v>
       </c>
-      <c r="V507">
-        <v>1.825</v>
-      </c>
-      <c r="W507">
-        <v>2.025</v>
-      </c>
-      <c r="X507">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="Y507">
-        <v>-1</v>
-      </c>
       <c r="Z507">
         <v>-1</v>
       </c>
       <c r="AA507">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB507">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC507">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:30">
@@ -47177,7 +47177,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>7629972</v>
+        <v>8237703</v>
       </c>
       <c r="C508" t="s">
         <v>43</v>
@@ -47186,70 +47186,70 @@
         <v>45437.97916666666</v>
       </c>
       <c r="E508" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F508" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="G508">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K508" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L508">
-        <v>1.95</v>
+        <v>2.625</v>
       </c>
       <c r="M508">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="N508">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="O508">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="P508">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="Q508">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="R508">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S508">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T508">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U508">
         <v>3</v>
       </c>
       <c r="V508">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W508">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X508">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y508">
         <v>-1</v>
       </c>
       <c r="Z508">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA508">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB508">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC508">
         <v>0</v>
@@ -47349,7 +47349,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>7630972</v>
+        <v>7630967</v>
       </c>
       <c r="C510" t="s">
         <v>43</v>
@@ -47358,76 +47358,76 @@
         <v>45441.85416666666</v>
       </c>
       <c r="E510" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F510" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G510">
         <v>0</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K510" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L510">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="M510">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N510">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="O510">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="P510">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q510">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="R510">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S510">
+        <v>1.8</v>
+      </c>
+      <c r="T510">
+        <v>2.05</v>
+      </c>
+      <c r="U510">
+        <v>2.5</v>
+      </c>
+      <c r="V510">
+        <v>2.025</v>
+      </c>
+      <c r="W510">
         <v>1.825</v>
       </c>
-      <c r="T510">
-        <v>2.025</v>
-      </c>
-      <c r="U510">
-        <v>3</v>
-      </c>
-      <c r="V510">
-        <v>2</v>
-      </c>
-      <c r="W510">
-        <v>1.85</v>
-      </c>
       <c r="X510">
         <v>-1</v>
       </c>
       <c r="Y510">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Z510">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA510">
         <v>-1</v>
       </c>
       <c r="AB510">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AC510">
         <v>-1</v>
       </c>
       <c r="AD510">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="511" spans="1:30">
@@ -47435,7 +47435,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>7630967</v>
+        <v>7630972</v>
       </c>
       <c r="C511" t="s">
         <v>43</v>
@@ -47444,76 +47444,76 @@
         <v>45441.85416666666</v>
       </c>
       <c r="E511" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F511" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G511">
         <v>0</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K511" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L511">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="M511">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N511">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="O511">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P511">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="Q511">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="R511">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S511">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T511">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="U511">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V511">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W511">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X511">
         <v>-1</v>
       </c>
       <c r="Y511">
-        <v>-1</v>
+        <v>2.9</v>
       </c>
       <c r="Z511">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA511">
         <v>-1</v>
       </c>
       <c r="AB511">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AC511">
         <v>-1</v>
       </c>
       <c r="AD511">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="512" spans="1:30">
@@ -48387,49 +48387,49 @@
         <v>43</v>
       </c>
       <c r="D522" s="2">
-        <v>45465.85416666666</v>
+        <v>45471.85416666666</v>
       </c>
       <c r="E522" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F522" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L522">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M522">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="N522">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="O522">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="P522">
         <v>4.333</v>
       </c>
       <c r="Q522">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="R522">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S522">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T522">
+        <v>1.9</v>
+      </c>
+      <c r="U522">
+        <v>3.25</v>
+      </c>
+      <c r="V522">
+        <v>2</v>
+      </c>
+      <c r="W522">
         <v>1.85</v>
-      </c>
-      <c r="U522">
-        <v>2.75</v>
-      </c>
-      <c r="V522">
-        <v>1.95</v>
-      </c>
-      <c r="W522">
-        <v>1.9</v>
       </c>
       <c r="X522">
         <v>0</v>
@@ -48452,49 +48452,49 @@
         <v>43</v>
       </c>
       <c r="D523" s="2">
-        <v>45465.85416666666</v>
+        <v>45472.85416666666</v>
       </c>
       <c r="E523" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F523" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L523">
-        <v>1.333</v>
+        <v>1.727</v>
       </c>
       <c r="M523">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N523">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="O523">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="P523">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q523">
-        <v>6.25</v>
+        <v>4.2</v>
       </c>
       <c r="R523">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S523">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T523">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U523">
         <v>3</v>
       </c>
       <c r="V523">
+        <v>2</v>
+      </c>
+      <c r="W523">
         <v>1.85</v>
-      </c>
-      <c r="W523">
-        <v>2</v>
       </c>
       <c r="X523">
         <v>0</v>
@@ -48517,49 +48517,49 @@
         <v>43</v>
       </c>
       <c r="D524" s="2">
-        <v>45465.85416666666</v>
+        <v>45472.85416666666</v>
       </c>
       <c r="E524" t="s">
+        <v>48</v>
+      </c>
+      <c r="F524" t="s">
         <v>70</v>
       </c>
-      <c r="F524" t="s">
-        <v>64</v>
-      </c>
       <c r="L524">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="M524">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N524">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O524">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="P524">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="Q524">
-        <v>3.2</v>
+        <v>6.25</v>
       </c>
       <c r="R524">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S524">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T524">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U524">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V524">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W524">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X524">
         <v>0</v>
@@ -48582,49 +48582,49 @@
         <v>43</v>
       </c>
       <c r="D525" s="2">
-        <v>45465.85416666666</v>
+        <v>45472.85416666666</v>
       </c>
       <c r="E525" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F525" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="L525">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="M525">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N525">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="O525">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="P525">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q525">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="R525">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="S525">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T525">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U525">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V525">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W525">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X525">
         <v>0</v>
@@ -48647,49 +48647,49 @@
         <v>43</v>
       </c>
       <c r="D526" s="2">
-        <v>45465.85416666666</v>
+        <v>45472.85416666666</v>
       </c>
       <c r="E526" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F526" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L526">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="M526">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N526">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="O526">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="P526">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="Q526">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="R526">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S526">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T526">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U526">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V526">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W526">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X526">
         <v>0</v>
@@ -48712,49 +48712,49 @@
         <v>43</v>
       </c>
       <c r="D527" s="2">
-        <v>45465.85416666666</v>
+        <v>45472.89583333334</v>
       </c>
       <c r="E527" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F527" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L527">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="M527">
+        <v>3.4</v>
+      </c>
+      <c r="N527">
+        <v>2.7</v>
+      </c>
+      <c r="O527">
+        <v>1.909</v>
+      </c>
+      <c r="P527">
+        <v>3.8</v>
+      </c>
+      <c r="Q527">
         <v>3.7</v>
       </c>
-      <c r="N527">
-        <v>4.1</v>
-      </c>
-      <c r="O527">
-        <v>1.727</v>
-      </c>
-      <c r="P527">
-        <v>4</v>
-      </c>
-      <c r="Q527">
-        <v>4.333</v>
-      </c>
       <c r="R527">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S527">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T527">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U527">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V527">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W527">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X527">
         <v>0</v>
@@ -48777,49 +48777,49 @@
         <v>43</v>
       </c>
       <c r="D528" s="2">
-        <v>45465.89583333334</v>
+        <v>45472.89583333334</v>
       </c>
       <c r="E528" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F528" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L528">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M528">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="N528">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="O528">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="P528">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q528">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="R528">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S528">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T528">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U528">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V528">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W528">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="X528">
         <v>0</v>
@@ -48842,49 +48842,49 @@
         <v>43</v>
       </c>
       <c r="D529" s="2">
-        <v>45465.89583333334</v>
+        <v>45472.89583333334</v>
       </c>
       <c r="E529" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F529" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="L529">
-        <v>2.9</v>
+        <v>1.833</v>
       </c>
       <c r="M529">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N529">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="O529">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="P529">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q529">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="R529">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S529">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T529">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U529">
         <v>2.5</v>
       </c>
       <c r="V529">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W529">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="X529">
         <v>0</v>
@@ -48907,49 +48907,49 @@
         <v>43</v>
       </c>
       <c r="D530" s="2">
-        <v>45465.89583333334</v>
+        <v>45472.89583333334</v>
       </c>
       <c r="E530" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F530" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L530">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="M530">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N530">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O530">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P530">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q530">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="R530">
         <v>-0.5</v>
       </c>
       <c r="S530">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T530">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="U530">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V530">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W530">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X530">
         <v>0</v>
@@ -48972,49 +48972,49 @@
         <v>43</v>
       </c>
       <c r="D531" s="2">
-        <v>45465.9375</v>
+        <v>45472.97916666666</v>
       </c>
       <c r="E531" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="F531" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L531">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="M531">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N531">
+        <v>5.25</v>
+      </c>
+      <c r="O531">
+        <v>1.55</v>
+      </c>
+      <c r="P531">
         <v>4.2</v>
       </c>
-      <c r="O531">
-        <v>1.7</v>
-      </c>
-      <c r="P531">
-        <v>4.333</v>
-      </c>
       <c r="Q531">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="R531">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="S531">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T531">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U531">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V531">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W531">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="X531">
         <v>0</v>
@@ -49037,49 +49037,49 @@
         <v>43</v>
       </c>
       <c r="D532" s="2">
-        <v>45465.9375</v>
+        <v>45472.97916666666</v>
       </c>
       <c r="E532" t="s">
+        <v>57</v>
+      </c>
+      <c r="F532" t="s">
         <v>55</v>
       </c>
-      <c r="F532" t="s">
-        <v>61</v>
-      </c>
       <c r="L532">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="M532">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N532">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="O532">
         <v>1.5</v>
       </c>
       <c r="P532">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q532">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="R532">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S532">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T532">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U532">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V532">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W532">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X532">
         <v>0</v>
@@ -49102,49 +49102,49 @@
         <v>43</v>
       </c>
       <c r="D533" s="2">
-        <v>45465.97916666666</v>
+        <v>45472.97916666666</v>
       </c>
       <c r="E533" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F533" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L533">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="M533">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N533">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O533">
-        <v>1.571</v>
+        <v>1.833</v>
       </c>
       <c r="P533">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q533">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="R533">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S533">
+        <v>1.825</v>
+      </c>
+      <c r="T533">
         <v>2.025</v>
       </c>
-      <c r="T533">
-        <v>1.825</v>
-      </c>
       <c r="U533">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V533">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W533">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="X533">
         <v>0</v>
@@ -49167,49 +49167,49 @@
         <v>43</v>
       </c>
       <c r="D534" s="2">
-        <v>45465.97916666666</v>
+        <v>45472.97916666666</v>
       </c>
       <c r="E534" t="s">
         <v>69</v>
       </c>
       <c r="F534" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L534">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="M534">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N534">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="O534">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="P534">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="Q534">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R534">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S534">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T534">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U534">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V534">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W534">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="X534">
         <v>0</v>
@@ -49232,49 +49232,49 @@
         <v>43</v>
       </c>
       <c r="D535" s="2">
-        <v>45465.97916666666</v>
+        <v>45472.97916666666</v>
       </c>
       <c r="E535" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F535" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L535">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="M535">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N535">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="O535">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="P535">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="Q535">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="R535">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S535">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T535">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U535">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V535">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W535">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X535">
         <v>0</v>
